--- a/Mod_Korean/Lang/KR/Data/chara_tone.xlsx
+++ b/Mod_Korean/Lang/KR/Data/chara_tone.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="733">
   <si>
     <t>id</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>준다</t>
+  </si>
+  <si>
+    <t>넘겨</t>
   </si>
   <si>
     <t>뭐야</t>
@@ -369,6 +372,10 @@
 줘요,드려요</t>
   </si>
   <si>
+    <t>넘기십시오,주십시오
+넘기세요,주세요</t>
+  </si>
+  <si>
     <t>뭡니까,뭐죠
 뭐죠,뭐에요</t>
   </si>
@@ -588,6 +595,9 @@
     <t>준다,줘</t>
   </si>
   <si>
+    <t>넘겨,내놔</t>
+  </si>
+  <si>
     <t>뭐야,뭔데
 뭐야,뭔데</t>
   </si>
@@ -740,6 +750,9 @@
 줘</t>
   </si>
   <si>
+    <t>넘겨,줘</t>
+  </si>
+  <si>
     <t>뭐야
 뭐야</t>
   </si>
@@ -879,6 +892,9 @@
     <t>줘…</t>
   </si>
   <si>
+    <t>넘겨…,줘…</t>
+  </si>
+  <si>
     <t>뭔데…,뭐야…
 뭐야…</t>
   </si>
@@ -1074,6 +1090,9 @@
     <t>주겠노라</t>
   </si>
   <si>
+    <t>넘기거라,내놓거라</t>
+  </si>
+  <si>
     <t>뭣이냐,무엇이냐</t>
   </si>
   <si>
@@ -1312,6 +1331,10 @@
 드립니다</t>
   </si>
   <si>
+    <t>넘기시오,내놓으시오
+넘기소서,내놓으소서</t>
+  </si>
+  <si>
     <t>뭣이오,무엇이오
 무엇입니까</t>
   </si>
@@ -1521,6 +1544,9 @@
     <t>줌다</t>
   </si>
   <si>
+    <t>넘기쇼,내놓으쇼</t>
+  </si>
+  <si>
     <t>뭠까</t>
   </si>
   <si>
@@ -1713,6 +1739,9 @@
     <t>준다냐아-</t>
   </si>
   <si>
+    <t>넘겨라냐-,내놔먀-</t>
+  </si>
+  <si>
     <t>뭐냐,뭐냐먀</t>
   </si>
   <si>
@@ -1882,6 +1911,9 @@
   </si>
   <si>
     <t>드려요</t>
+  </si>
+  <si>
+    <t>내놓는 것이에요</t>
   </si>
   <si>
     <t>뭐죠,뭐에요</t>
@@ -2065,6 +2097,10 @@
 드리와요</t>
   </si>
   <si>
+    <t>넘기십시오
+넘기세요</t>
+  </si>
+  <si>
     <t>뭡니까
 뭣이와요</t>
   </si>
@@ -2266,6 +2302,9 @@
   </si>
   <si>
     <t>준다페코</t>
+  </si>
+  <si>
+    <t>넘겨라페코,내놔라페코</t>
   </si>
   <si>
     <t>페코뭐야,뭐냐페코</t>
@@ -2445,7 +2484,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2467,9 +2506,6 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -2488,9 +2524,6 @@
     <xf borderId="0" fillId="2" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2499,6 +2532,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2728,13 +2764,13 @@
     <col customWidth="1" min="5" max="5" width="18.29"/>
     <col customWidth="1" min="6" max="13" width="30.57"/>
     <col customWidth="1" min="14" max="14" width="16.43"/>
-    <col customWidth="1" min="15" max="62" width="21.57"/>
-    <col customWidth="1" min="63" max="68" width="31.14"/>
-    <col customWidth="1" min="69" max="70" width="48.0"/>
-    <col customWidth="1" min="71" max="71" width="35.57"/>
-    <col customWidth="1" min="72" max="72" width="39.43"/>
-    <col customWidth="1" min="73" max="73" width="44.43"/>
-    <col customWidth="1" min="74" max="74" width="38.86"/>
+    <col customWidth="1" min="15" max="63" width="21.57"/>
+    <col customWidth="1" min="64" max="69" width="31.14"/>
+    <col customWidth="1" min="70" max="71" width="48.0"/>
+    <col customWidth="1" min="72" max="72" width="35.57"/>
+    <col customWidth="1" min="73" max="73" width="39.43"/>
+    <col customWidth="1" min="74" max="74" width="44.43"/>
+    <col customWidth="1" min="75" max="75" width="38.86"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -2843,7 +2879,7 @@
       <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AK1" s="3" t="s">
@@ -2885,7 +2921,7 @@
       <c r="AW1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AX1" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AY1" s="3" t="s">
@@ -2959,6 +2995,9 @@
       </c>
       <c r="BV1" s="3" t="s">
         <v>73</v>
+      </c>
+      <c r="BW1" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
@@ -3036,6 +3075,7 @@
       <c r="BT2" s="5"/>
       <c r="BU2" s="5"/>
       <c r="BV2" s="5"/>
+      <c r="BW2" s="5"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
       <c r="A3" s="5"/>
@@ -3112,6 +3152,7 @@
       <c r="BT3" s="5"/>
       <c r="BU3" s="5"/>
       <c r="BV3" s="5"/>
+      <c r="BW3" s="5"/>
     </row>
     <row r="4" ht="12.0" customHeight="1">
       <c r="A4" s="5"/>
@@ -3188,23 +3229,24 @@
       <c r="BT4" s="5"/>
       <c r="BU4" s="5"/>
       <c r="BV4" s="5"/>
+      <c r="BW4" s="5"/>
     </row>
     <row r="5" ht="30.0" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>6</v>
@@ -3215,8 +3257,8 @@
       <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>79</v>
+      <c r="J5" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>10</v>
@@ -3293,7 +3335,7 @@
       <c r="AI5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AJ5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AK5" s="3" t="s">
@@ -3335,7 +3377,7 @@
       <c r="AW5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AX5" s="4" t="s">
+      <c r="AX5" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AY5" s="3" t="s">
@@ -3409,468 +3451,477 @@
       </c>
       <c r="BV5" s="3" t="s">
         <v>73</v>
+      </c>
+      <c r="BW5" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" ht="30.0" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="8" t="s">
         <v>81</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="Q6" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="R6" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="S6" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="T6" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="U6" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="V6" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="W6" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="X6" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="Z6" s="9" t="s">
+      <c r="Y6" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="Z6" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="AB6" s="9" t="s">
+      <c r="AA6" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="AC6" s="9" t="s">
+      <c r="AB6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AD6" s="9" t="s">
+      <c r="AC6" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="AE6" s="9" t="s">
+      <c r="AD6" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="AF6" s="9" t="s">
+      <c r="AE6" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="AG6" s="9" t="s">
+      <c r="AF6" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="AH6" s="9" t="s">
+      <c r="AG6" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="AI6" s="9" t="s">
+      <c r="AH6" s="8" t="s">
         <v>113</v>
       </c>
+      <c r="AI6" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="AJ6" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK6" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="AL6" s="9" t="s">
+      <c r="AK6" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="AM6" s="9" t="s">
+      <c r="AL6" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="AN6" s="9" t="s">
+      <c r="AM6" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AO6" s="9" t="s">
+      <c r="AN6" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="AP6" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AQ6" s="9" t="s">
+      <c r="AO6" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="AR6" s="9" t="s">
+      <c r="AP6" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AS6" s="9" t="s">
+      <c r="AQ6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR6" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="AT6" s="9" t="s">
+      <c r="AS6" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="AU6" s="9" t="s">
+      <c r="AT6" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="AV6" s="9" t="s">
+      <c r="AU6" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="AW6" s="9" t="s">
+      <c r="AV6" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AX6" s="10" t="s">
+      <c r="AW6" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="AY6" s="9" t="s">
+      <c r="AX6" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="AZ6" s="9" t="s">
+      <c r="AY6" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="BA6" s="9" t="s">
+      <c r="AZ6" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="BB6" s="9" t="s">
+      <c r="BA6" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="BC6" s="9" t="s">
+      <c r="BB6" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="BD6" s="9" t="s">
+      <c r="BC6" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="BE6" s="9" t="s">
+      <c r="BD6" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="BF6" s="9" t="s">
+      <c r="BE6" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="BG6" s="9" t="s">
+      <c r="BF6" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="BH6" s="9" t="s">
+      <c r="BG6" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="BI6" s="9" t="s">
+      <c r="BH6" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="BJ6" s="9" t="s">
+      <c r="BI6" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="BK6" s="3" t="s">
-        <v>62</v>
+      <c r="BJ6" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="BK6" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="BL6" s="3" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="BM6" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BN6" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BO6" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BP6" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BQ6" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BR6" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="BS6" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="BT6" s="3" t="s">
+      <c r="BS6" s="3" t="s">
         <v>148</v>
       </c>
+      <c r="BT6" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="BU6" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="BV6" s="2" t="s">
         <v>150</v>
+      </c>
+      <c r="BV6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BW6" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="7" ht="30.0" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="P7" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="O7" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="P7" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="Q7" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="S7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="T7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="U7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="V7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W7" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y7" s="9" t="s">
+      <c r="W7" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="Z7" s="9" t="s">
+      <c r="X7" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="AA7" s="9" t="s">
+      <c r="Y7" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="AB7" s="9" t="s">
+      <c r="Z7" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="AC7" s="9" t="s">
+      <c r="AA7" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="AD7" s="9" t="s">
+      <c r="AB7" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="AE7" s="9" t="s">
+      <c r="AC7" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD7" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AF7" s="9" t="s">
+      <c r="AF7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AG7" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH7" s="9" t="s">
+      <c r="AG7" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AI7" s="9" t="s">
-        <v>176</v>
+      <c r="AI7" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AK7" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="AL7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM7" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="AN7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO7" s="9" t="s">
+      <c r="AK7" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="AP7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ7" s="9" t="s">
+      <c r="AL7" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="AR7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS7" s="9" t="s">
+      <c r="AM7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN7" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AT7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU7" s="9" t="s">
+      <c r="AO7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP7" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="AV7" s="9" t="s">
+      <c r="AQ7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR7" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="AW7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX7" s="10" t="s">
+      <c r="AS7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT7" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AU7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV7" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW7" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AY7" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AZ7" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="BA7" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="BB7" s="9" t="s">
+      <c r="AY7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ7" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="BC7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD7" s="9" t="s">
+      <c r="BA7" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BE7" s="9" t="s">
+      <c r="BB7" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="BF7" s="9" t="s">
+      <c r="BC7" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="BG7" s="9" t="s">
+      <c r="BD7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE7" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="BH7" s="9" t="s">
+      <c r="BF7" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="BI7" s="9" t="s">
+      <c r="BG7" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="BJ7" s="9" t="s">
+      <c r="BH7" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="BK7" s="3" t="s">
+      <c r="BI7" s="8" t="s">
         <v>196</v>
       </c>
+      <c r="BJ7" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK7" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="BL7" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="BM7" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BN7" s="3" t="s">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="BO7" s="3" t="s">
         <v>66</v>
       </c>
       <c r="BP7" s="3" t="s">
-        <v>199</v>
+        <v>67</v>
       </c>
       <c r="BQ7" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BR7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="BS7" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="BT7" s="3" t="s">
         <v>203</v>
       </c>
+      <c r="BS7" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="BT7" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="BU7" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="BV7" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="BV7" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="BW7" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="8" ht="30.0" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>6</v>
@@ -3882,217 +3933,220 @@
         <v>8</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="R8" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="R8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="S8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="9" t="s">
+      <c r="T8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U8" s="9" t="s">
+      <c r="U8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="9" t="s">
+      <c r="V8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="X8" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y8" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z8" s="9" t="s">
+      <c r="W8" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="AA8" s="9" t="s">
+      <c r="X8" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="AB8" s="9" t="s">
+      <c r="Y8" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="AC8" s="9" t="s">
+      <c r="Z8" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="AD8" s="9" t="s">
+      <c r="AA8" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="AE8" s="9" t="s">
+      <c r="AB8" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD8" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AF8" s="9" t="s">
+      <c r="AF8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AG8" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="AH8" s="9" t="s">
+      <c r="AG8" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AI8" s="9" t="s">
-        <v>176</v>
+      <c r="AI8" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="AK8" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="AL8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM8" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK8" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL8" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AN8" s="9" t="s">
+      <c r="AN8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AO8" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="AP8" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="AQ8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS8" s="9" t="s">
+      <c r="AO8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP8" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AQ8" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AT8" s="9" t="s">
+      <c r="AT8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AU8" s="9" t="s">
+      <c r="AU8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AV8" s="9" t="s">
+      <c r="AV8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AW8" s="9" t="s">
+      <c r="AW8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AX8" s="10" t="s">
+      <c r="AX8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AY8" s="9" t="s">
+      <c r="AY8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AZ8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA8" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB8" s="9" t="s">
+      <c r="AZ8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="BC8" s="9" t="s">
+      <c r="BC8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="BD8" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="BE8" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="BF8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG8" s="9" t="s">
+      <c r="BD8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE8" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="BF8" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="BG8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="BH8" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="BI8" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BJ8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK8" s="3" t="s">
-        <v>231</v>
+      <c r="BH8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI8" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="BJ8" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="BK8" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="BL8" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="BM8" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="BN8" s="3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="BO8" s="3" t="s">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c r="BP8" s="3" t="s">
-        <v>235</v>
+        <v>67</v>
       </c>
       <c r="BQ8" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="BR8" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="BS8" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="BT8" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
+      </c>
+      <c r="BS8" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="BT8" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="BU8" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="BV8" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
+      </c>
+      <c r="BV8" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="BW8" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="9" ht="30.0" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>243</v>
+        <v>246</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>6</v>
@@ -4104,7 +4158,7 @@
         <v>8</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>10</v>
@@ -4116,247 +4170,250 @@
         <v>12</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="R9" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="O9" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="P9" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="U9" s="9" t="s">
+      <c r="Q9" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="V9" s="9" t="s">
+      <c r="R9" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="W9" s="11" t="s">
+      <c r="S9" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="T9" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="Y9" s="11" t="s">
+      <c r="U9" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="Z9" s="11" t="s">
+      <c r="V9" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="AA9" s="11" t="s">
+      <c r="W9" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="AB9" s="11" t="s">
+      <c r="X9" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="AC9" s="11" t="s">
+      <c r="Y9" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="AD9" s="11" t="s">
+      <c r="Z9" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AE9" s="11" t="s">
+      <c r="AA9" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB9" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC9" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD9" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AF9" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="AG9" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH9" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="AI9" s="11" t="s">
-        <v>265</v>
+      <c r="AF9" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG9" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH9" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="AI9" s="10" t="s">
+        <v>269</v>
       </c>
       <c r="AJ9" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="AK9" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="AL9" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="AM9" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="AN9" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="AO9" s="11" t="s">
+      <c r="AK9" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP9" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="AQ9" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="AR9" s="11" t="s">
+      <c r="AL9" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="AS9" s="11" t="s">
+      <c r="AM9" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="AT9" s="11" t="s">
+      <c r="AN9" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="AU9" s="11" t="s">
+      <c r="AO9" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="AV9" s="11" t="s">
+      <c r="AP9" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="AW9" s="11" t="s">
+      <c r="AQ9" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="AR9" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="AS9" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="AX9" s="12" t="s">
+      <c r="AT9" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="AY9" s="11" t="s">
+      <c r="AU9" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="AZ9" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="BA9" s="11" t="s">
+      <c r="AV9" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="BB9" s="11" t="s">
+      <c r="AW9" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="BC9" s="11" t="s">
+      <c r="AX9" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="BD9" s="11" t="s">
+      <c r="AY9" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="BE9" s="11" t="s">
+      <c r="AZ9" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="BF9" s="11" t="s">
+      <c r="BA9" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="BB9" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="BG9" s="11" t="s">
+      <c r="BC9" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="BH9" s="11" t="s">
+      <c r="BD9" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="BI9" s="11" t="s">
+      <c r="BE9" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="BJ9" s="11" t="s">
+      <c r="BF9" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="BK9" s="3" t="s">
+      <c r="BG9" s="10" t="s">
         <v>290</v>
       </c>
+      <c r="BH9" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="BI9" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="BJ9" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="BK9" s="10" t="s">
+        <v>294</v>
+      </c>
       <c r="BL9" s="3" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="BM9" s="3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="BN9" s="3" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="BO9" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="BP9" s="3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="BQ9" s="3" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="BR9" s="3" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="BS9" s="3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="BT9" s="3" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="BU9" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="BV9" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
+      </c>
+      <c r="BV9" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="BW9" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="10" ht="30.0" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C10" s="9"/>
+        <v>307</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" s="8"/>
       <c r="D10" s="2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>20</v>
@@ -4365,401 +4422,407 @@
         <v>21</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AE10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="AH10" s="3" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="AI10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="3" t="s">
-        <v>328</v>
+      <c r="AJ10" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="AK10" s="3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="AL10" s="3" t="s">
-        <v>37</v>
+        <v>335</v>
       </c>
       <c r="AM10" s="3" t="s">
-        <v>330</v>
+        <v>38</v>
       </c>
       <c r="AN10" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="AO10" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AP10" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="AQ10" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="AR10" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="AS10" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="AT10" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="AU10" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="AV10" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="AW10" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="AX10" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="AY10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ10" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="BA10" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="BB10" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="AO10" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="AP10" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="AQ10" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="AR10" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="AS10" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="AT10" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="AU10" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="AV10" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="AW10" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="AX10" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY10" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="AZ10" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="BA10" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="BB10" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="BC10" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="BD10" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="BE10" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="BF10" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="BG10" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="BH10" s="13" t="s">
+      <c r="BC10" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="BI10" s="13" t="s">
+      <c r="BD10" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="BJ10" s="13" t="s">
+      <c r="BE10" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="BK10" s="3" t="s">
+      <c r="BF10" s="12" t="s">
         <v>351</v>
       </c>
+      <c r="BG10" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="BH10" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="BI10" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="BJ10" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="BK10" s="12" t="s">
+        <v>356</v>
+      </c>
       <c r="BL10" s="3" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="BM10" s="3" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="BN10" s="3" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="BO10" s="3" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="BP10" s="3" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="BQ10" s="3" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="BR10" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="BS10" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="BT10" s="3" t="s">
-        <v>360</v>
+        <v>363</v>
+      </c>
+      <c r="BS10" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="BT10" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="BU10" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="BV10" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="BW10" s="15"/>
+        <v>366</v>
+      </c>
+      <c r="BV10" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="BW10" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="BX10" s="13"/>
     </row>
     <row r="11" ht="30.0" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C11" s="9"/>
+        <v>369</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C11" s="8"/>
       <c r="D11" s="2" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="T11" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="U11" s="9" t="s">
+      <c r="O11" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="V11" s="9" t="s">
+      <c r="P11" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="W11" s="9" t="s">
+      <c r="Q11" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="X11" s="9" t="s">
+      <c r="R11" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="Y11" s="9" t="s">
+      <c r="S11" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="Z11" s="9" t="s">
+      <c r="T11" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="AA11" s="9" t="s">
+      <c r="U11" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="AB11" s="9" t="s">
+      <c r="V11" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="AC11" s="9" t="s">
+      <c r="W11" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="AD11" s="9" t="s">
+      <c r="X11" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="AE11" s="9" t="s">
+      <c r="Y11" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="AF11" s="9" t="s">
+      <c r="Z11" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="AG11" s="9" t="s">
+      <c r="AA11" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="AH11" s="9" t="s">
+      <c r="AB11" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="AI11" s="9" t="s">
+      <c r="AC11" s="8" t="s">
         <v>396</v>
       </c>
+      <c r="AD11" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE11" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="AF11" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="AG11" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="AH11" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="AI11" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="AJ11" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="AK11" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="AL11" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="AM11" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="AN11" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="AO11" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="AP11" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="AQ11" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="AR11" s="9" t="s">
+      <c r="AK11" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="AS11" s="9" t="s">
+      <c r="AL11" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="AT11" s="9" t="s">
+      <c r="AM11" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="AU11" s="9" t="s">
+      <c r="AN11" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="AV11" s="9" t="s">
+      <c r="AO11" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="AW11" s="9" t="s">
+      <c r="AP11" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="AX11" s="10" t="s">
+      <c r="AQ11" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="AR11" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="AY11" s="9" t="s">
+      <c r="AS11" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="AZ11" s="9" t="s">
+      <c r="AT11" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="BA11" s="9" t="s">
+      <c r="AU11" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="BB11" s="9" t="s">
+      <c r="AV11" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="BC11" s="9" t="s">
+      <c r="AW11" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="BD11" s="9" t="s">
+      <c r="AX11" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="BE11" s="9" t="s">
+      <c r="AY11" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="BF11" s="9" t="s">
+      <c r="AZ11" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="BG11" s="9" t="s">
+      <c r="BA11" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="BH11" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="BI11" s="9" t="s">
+      <c r="BB11" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="BJ11" s="9" t="s">
+      <c r="BC11" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="BK11" s="3" t="s">
+      <c r="BD11" s="8" t="s">
         <v>422</v>
       </c>
+      <c r="BE11" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="BF11" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="BG11" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="BH11" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="BI11" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="BJ11" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="BK11" s="8" t="s">
+        <v>428</v>
+      </c>
       <c r="BL11" s="3" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="BM11" s="3" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="BN11" s="3" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="BO11" s="3" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="BP11" s="3" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="BQ11" s="3" t="s">
-        <v>68</v>
+        <v>434</v>
       </c>
       <c r="BR11" s="3" t="s">
-        <v>428</v>
+        <v>69</v>
       </c>
       <c r="BS11" s="3" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="BT11" s="3" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="BU11" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="BV11" s="2" t="s">
-        <v>432</v>
+        <v>437</v>
+      </c>
+      <c r="BV11" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="BW11" s="2" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="12" ht="30.0" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>434</v>
+        <v>440</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="2" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>6</v>
@@ -4771,885 +4834,897 @@
         <v>8</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="AE12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="AJ12" s="3" t="s">
-        <v>455</v>
+        <v>461</v>
+      </c>
+      <c r="AJ12" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="AK12" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="AL12" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="AM12" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="AN12" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="AO12" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="AP12" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="AQ12" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="AR12" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="AS12" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="AT12" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="AU12" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="AV12" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="AL12" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="AM12" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="AN12" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="AO12" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="AP12" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="AQ12" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="AR12" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="AS12" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="AT12" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="AU12" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="AV12" s="3" t="s">
-        <v>465</v>
-      </c>
       <c r="AW12" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="AX12" s="4" t="s">
-        <v>467</v>
+        <v>473</v>
+      </c>
+      <c r="AX12" s="3" t="s">
+        <v>474</v>
       </c>
       <c r="AY12" s="3" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="AZ12" s="3" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="BA12" s="3" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="BB12" s="3" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="BC12" s="3" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="BD12" s="3" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="BE12" s="3" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="BF12" s="3" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="BG12" s="3" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="BH12" s="3" t="s">
-        <v>59</v>
+        <v>484</v>
       </c>
       <c r="BI12" s="3" t="s">
-        <v>477</v>
+        <v>60</v>
       </c>
       <c r="BJ12" s="3" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="BK12" s="3" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="BL12" s="3" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="BM12" s="3" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="BN12" s="3" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="BO12" s="3" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="BP12" s="3" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="BQ12" s="3" t="s">
-        <v>200</v>
+        <v>492</v>
       </c>
       <c r="BR12" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="BS12" s="3" t="s">
-        <v>485</v>
+        <v>204</v>
       </c>
       <c r="BT12" s="3" t="s">
-        <v>203</v>
+        <v>493</v>
       </c>
       <c r="BU12" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BV12" s="3" t="s">
-        <v>486</v>
+        <v>207</v>
+      </c>
+      <c r="BW12" s="3" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="13" ht="30.0" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="C13" s="9"/>
+        <v>495</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C13" s="8"/>
       <c r="D13" s="2" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="V13" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="W13" s="9" t="s">
+      <c r="O13" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="X13" s="9" t="s">
+      <c r="P13" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="Y13" s="9" t="s">
+      <c r="Q13" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="Z13" s="9" t="s">
+      <c r="R13" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="AA13" s="9" t="s">
+      <c r="S13" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="AB13" s="9" t="s">
+      <c r="T13" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="AC13" s="9" t="s">
+      <c r="U13" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="AD13" s="9" t="s">
+      <c r="V13" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="AE13" s="9" t="s">
+      <c r="W13" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA13" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB13" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC13" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="AD13" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="AE13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AF13" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="AG13" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="AH13" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="AI13" s="9" t="s">
-        <v>518</v>
+      <c r="AF13" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="AG13" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="AH13" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="AI13" s="8" t="s">
+        <v>526</v>
       </c>
       <c r="AJ13" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="AK13" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="AL13" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="AM13" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="AN13" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="AO13" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="AP13" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="AQ13" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="AR13" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="AS13" s="11" t="s">
+      <c r="AK13" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="AT13" s="11" t="s">
+      <c r="AL13" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="AU13" s="11" t="s">
+      <c r="AM13" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="AV13" s="11" t="s">
+      <c r="AN13" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="AW13" s="11" t="s">
+      <c r="AO13" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="AX13" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY13" s="11" t="s">
+      <c r="AP13" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="AZ13" s="11" t="s">
+      <c r="AQ13" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="BA13" s="11" t="s">
+      <c r="AR13" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="BB13" s="11" t="s">
+      <c r="AS13" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="BC13" s="11" t="s">
+      <c r="AT13" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="BD13" s="11" t="s">
+      <c r="AU13" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="BE13" s="11" t="s">
+      <c r="AV13" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="BF13" s="11" t="s">
+      <c r="AW13" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="BG13" s="11" t="s">
+      <c r="AX13" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="BH13" s="11" t="s">
+      <c r="AY13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ13" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="BI13" s="11" t="s">
+      <c r="BA13" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="BJ13" s="11" t="s">
+      <c r="BB13" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="BK13" s="3" t="s">
+      <c r="BC13" s="10" t="s">
         <v>545</v>
       </c>
+      <c r="BD13" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="BE13" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="BF13" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="BG13" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="BH13" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="BI13" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="BJ13" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="BK13" s="10" t="s">
+        <v>553</v>
+      </c>
       <c r="BL13" s="3" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="BM13" s="3" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="BN13" s="3" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="BO13" s="3" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="BP13" s="3" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="BQ13" s="3" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="BR13" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="BS13" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="BT13" s="3" t="s">
-        <v>554</v>
+        <v>560</v>
+      </c>
+      <c r="BS13" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="BT13" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="BU13" s="3" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="BV13" s="3" t="s">
-        <v>556</v>
+        <v>564</v>
+      </c>
+      <c r="BW13" s="3" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>558</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
-        <v>559</v>
+      <c r="A14" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>568</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="9" t="s">
+      <c r="I14" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="L14" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="N14" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="T14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="U14" s="9" t="s">
+      <c r="M14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="T14" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="V14" s="9" t="s">
+      <c r="U14" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="W14" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="X14" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="Y14" s="9" t="s">
-        <v>567</v>
-      </c>
-      <c r="Z14" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="AA14" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB14" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="AC14" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="AD14" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="AE14" s="9" t="s">
+      <c r="V14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="AC14" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="AD14" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="AE14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AF14" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="AG14" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH14" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="AI14" s="9" t="s">
-        <v>575</v>
+      <c r="AF14" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="AG14" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="AH14" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="AI14" s="8" t="s">
+        <v>584</v>
       </c>
       <c r="AJ14" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="AK14" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="AL14" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="AM14" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="AN14" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="AK14" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="AL14" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="AM14" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="AN14" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="AO14" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="AP14" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="AQ14" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="AR14" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="AS14" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="AT14" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="AU14" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="AO14" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="AP14" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="AQ14" s="9" t="s">
+      <c r="AV14" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="AW14" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="AX14" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="AY14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ14" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="BA14" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="BB14" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="BC14" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="BD14" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="BE14" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="BF14" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="BG14" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="AR14" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="AS14" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="AT14" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="AU14" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="AV14" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="AW14" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="AX14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY14" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="AZ14" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="BA14" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="BB14" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="BC14" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="BD14" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="BE14" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="BF14" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="BG14" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="BH14" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="BI14" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="BJ14" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="BK14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL14" s="9" t="s">
+      <c r="BH14" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="BI14" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="BM14" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="BN14" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="BO14" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="BP14" s="9" t="s">
-        <v>601</v>
-      </c>
-      <c r="BQ14" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="BR14" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="BS14" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="BT14" s="3" t="s">
-        <v>148</v>
+      <c r="BJ14" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="BK14" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="BL14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM14" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="BN14" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="BO14" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="BP14" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="BQ14" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="BR14" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="BS14" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="BT14" s="8" t="s">
+        <v>614</v>
       </c>
       <c r="BU14" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="BV14" s="9" t="s">
         <v>150</v>
+      </c>
+      <c r="BV14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BW14" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="15" ht="30.0" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>616</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="2" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="P15" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="AG15" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="AH15" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="AI15" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="AJ15" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AK15" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="AL15" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="AM15" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="AN15" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="AO15" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="AP15" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="AQ15" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="AR15" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="AS15" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="AT15" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="AU15" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="AV15" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="AW15" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="AX15" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="AY15" s="8"/>
+      <c r="AZ15" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="BA15" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="BB15" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="BC15" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="BD15" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="BE15" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="BF15" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="BG15" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="BH15" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="BI15" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="BJ15" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="BK15" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="BL15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM15" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="BN15" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="BO15" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="BP15" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="BQ15" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="BR15" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="BS15" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="BT15" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="Q15" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="T15" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="U15" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="V15" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="W15" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="X15" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="Y15" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="Z15" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="AA15" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB15" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="AC15" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="AD15" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="AE15" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF15" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="AG15" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="AH15" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="AI15" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="AJ15" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="AK15" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="AL15" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="AM15" s="9" t="s">
-        <v>631</v>
-      </c>
-      <c r="AN15" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="AO15" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="AP15" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="AQ15" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="AR15" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="AS15" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="AT15" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="AU15" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="AV15" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="AW15" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="AX15" s="9"/>
-      <c r="AY15" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="AZ15" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="BA15" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="BB15" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="BC15" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="BD15" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="BE15" s="9" t="s">
-        <v>647</v>
-      </c>
-      <c r="BF15" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="BG15" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="BH15" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="BI15" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="BJ15" s="9" t="s">
-        <v>652</v>
-      </c>
-      <c r="BK15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL15" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="BM15" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="BN15" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="BO15" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="BP15" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="BQ15" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="BR15" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="BS15" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="BT15" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="BU15" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="BV15" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="BW15" s="15"/>
+        <v>150</v>
+      </c>
+      <c r="BV15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BW15" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="BX15" s="13"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>662</v>
+        <v>672</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>673</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>7</v>
@@ -5658,7 +5733,7 @@
         <v>8</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>10</v>
@@ -5670,185 +5745,188 @@
         <v>12</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="AD16" s="5" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="AE16" s="5" t="s">
         <v>30</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="AH16" s="5" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="AI16" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="AJ16" s="5" t="s">
-        <v>686</v>
+        <v>696</v>
+      </c>
+      <c r="AJ16" s="16" t="s">
+        <v>697</v>
       </c>
       <c r="AK16" s="5" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
       <c r="AL16" s="5" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="AM16" s="5" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="AN16" s="5" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="AO16" s="5" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="AP16" s="5" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="AQ16" s="5" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
       <c r="AR16" s="5" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="AS16" s="5" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
       <c r="AT16" s="5" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="AU16" s="5" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
       <c r="AV16" s="5" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AW16" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="AX16" s="5"/>
-      <c r="AY16" s="5" t="s">
-        <v>700</v>
-      </c>
+        <v>710</v>
+      </c>
+      <c r="AX16" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="AY16" s="5"/>
       <c r="AZ16" s="5" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="BA16" s="5" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="BB16" s="5" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="BC16" s="5" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="BD16" s="5" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="BE16" s="5" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="BF16" s="5" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
       <c r="BG16" s="5" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="BH16" s="5" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="BI16" s="5" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="BJ16" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="BK16" s="3" t="s">
-        <v>62</v>
+        <v>722</v>
+      </c>
+      <c r="BK16" s="5" t="s">
+        <v>723</v>
       </c>
       <c r="BL16" s="3" t="s">
-        <v>712</v>
+        <v>63</v>
       </c>
       <c r="BM16" s="3" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
       <c r="BN16" s="3" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="BO16" s="3" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
       <c r="BP16" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="BQ16" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="BR16" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="BS16" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="BT16" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="BU16" s="5" t="s">
-        <v>719</v>
+        <v>727</v>
+      </c>
+      <c r="BQ16" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="BR16" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="BS16" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="BT16" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="BU16" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="BV16" s="5" t="s">
-        <v>720</v>
+        <v>731</v>
+      </c>
+      <c r="BW16" s="5" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -5926,6 +6004,7 @@
       <c r="BT17" s="5"/>
       <c r="BU17" s="5"/>
       <c r="BV17" s="5"/>
+      <c r="BW17" s="5"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="5"/>
@@ -6002,6 +6081,7 @@
       <c r="BT18" s="5"/>
       <c r="BU18" s="5"/>
       <c r="BV18" s="5"/>
+      <c r="BW18" s="5"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="5"/>
@@ -6078,6 +6158,7 @@
       <c r="BT19" s="5"/>
       <c r="BU19" s="5"/>
       <c r="BV19" s="5"/>
+      <c r="BW19" s="5"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="5"/>
@@ -6154,6 +6235,7 @@
       <c r="BT20" s="5"/>
       <c r="BU20" s="5"/>
       <c r="BV20" s="5"/>
+      <c r="BW20" s="5"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="5"/>
@@ -6230,6 +6312,7 @@
       <c r="BT21" s="5"/>
       <c r="BU21" s="5"/>
       <c r="BV21" s="5"/>
+      <c r="BW21" s="5"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="5"/>
@@ -6306,6 +6389,7 @@
       <c r="BT22" s="5"/>
       <c r="BU22" s="5"/>
       <c r="BV22" s="5"/>
+      <c r="BW22" s="5"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="5"/>
@@ -6382,13 +6466,14 @@
       <c r="BT23" s="5"/>
       <c r="BU23" s="5"/>
       <c r="BV23" s="5"/>
+      <c r="BW23" s="5"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="9"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -6458,6 +6543,7 @@
       <c r="BT24" s="5"/>
       <c r="BU24" s="5"/>
       <c r="BV24" s="5"/>
+      <c r="BW24" s="5"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="5"/>
@@ -6534,6 +6620,7 @@
       <c r="BT25" s="5"/>
       <c r="BU25" s="5"/>
       <c r="BV25" s="5"/>
+      <c r="BW25" s="5"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="5"/>
@@ -6610,6 +6697,7 @@
       <c r="BT26" s="5"/>
       <c r="BU26" s="5"/>
       <c r="BV26" s="5"/>
+      <c r="BW26" s="5"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="5"/>
@@ -6686,6 +6774,7 @@
       <c r="BT27" s="5"/>
       <c r="BU27" s="5"/>
       <c r="BV27" s="5"/>
+      <c r="BW27" s="5"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="5"/>
@@ -6762,6 +6851,7 @@
       <c r="BT28" s="5"/>
       <c r="BU28" s="5"/>
       <c r="BV28" s="5"/>
+      <c r="BW28" s="5"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="5"/>
@@ -6838,6 +6928,7 @@
       <c r="BT29" s="5"/>
       <c r="BU29" s="5"/>
       <c r="BV29" s="5"/>
+      <c r="BW29" s="5"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="5"/>
@@ -6914,6 +7005,7 @@
       <c r="BT30" s="5"/>
       <c r="BU30" s="5"/>
       <c r="BV30" s="5"/>
+      <c r="BW30" s="5"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="5"/>
@@ -6990,6 +7082,7 @@
       <c r="BT31" s="5"/>
       <c r="BU31" s="5"/>
       <c r="BV31" s="5"/>
+      <c r="BW31" s="5"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="5"/>
@@ -7066,6 +7159,7 @@
       <c r="BT32" s="5"/>
       <c r="BU32" s="5"/>
       <c r="BV32" s="5"/>
+      <c r="BW32" s="5"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="5"/>
@@ -7142,6 +7236,7 @@
       <c r="BT33" s="5"/>
       <c r="BU33" s="5"/>
       <c r="BV33" s="5"/>
+      <c r="BW33" s="5"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="5"/>
@@ -7218,6 +7313,7 @@
       <c r="BT34" s="5"/>
       <c r="BU34" s="5"/>
       <c r="BV34" s="5"/>
+      <c r="BW34" s="5"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="5"/>
@@ -7294,6 +7390,7 @@
       <c r="BT35" s="5"/>
       <c r="BU35" s="5"/>
       <c r="BV35" s="5"/>
+      <c r="BW35" s="5"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="5"/>
@@ -7370,6 +7467,7 @@
       <c r="BT36" s="5"/>
       <c r="BU36" s="5"/>
       <c r="BV36" s="5"/>
+      <c r="BW36" s="5"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="5"/>
@@ -7446,6 +7544,7 @@
       <c r="BT37" s="5"/>
       <c r="BU37" s="5"/>
       <c r="BV37" s="5"/>
+      <c r="BW37" s="5"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="5"/>
@@ -7522,6 +7621,7 @@
       <c r="BT38" s="5"/>
       <c r="BU38" s="5"/>
       <c r="BV38" s="5"/>
+      <c r="BW38" s="5"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="5"/>
@@ -7598,6 +7698,7 @@
       <c r="BT39" s="5"/>
       <c r="BU39" s="5"/>
       <c r="BV39" s="5"/>
+      <c r="BW39" s="5"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="5"/>
@@ -7674,6 +7775,7 @@
       <c r="BT40" s="5"/>
       <c r="BU40" s="5"/>
       <c r="BV40" s="5"/>
+      <c r="BW40" s="5"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="5"/>
@@ -7750,6 +7852,7 @@
       <c r="BT41" s="5"/>
       <c r="BU41" s="5"/>
       <c r="BV41" s="5"/>
+      <c r="BW41" s="5"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="5"/>
@@ -7826,6 +7929,7 @@
       <c r="BT42" s="5"/>
       <c r="BU42" s="5"/>
       <c r="BV42" s="5"/>
+      <c r="BW42" s="5"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="5"/>
@@ -7902,6 +8006,7 @@
       <c r="BT43" s="5"/>
       <c r="BU43" s="5"/>
       <c r="BV43" s="5"/>
+      <c r="BW43" s="5"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="5"/>
@@ -7978,6 +8083,7 @@
       <c r="BT44" s="5"/>
       <c r="BU44" s="5"/>
       <c r="BV44" s="5"/>
+      <c r="BW44" s="5"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="5"/>
@@ -8054,6 +8160,7 @@
       <c r="BT45" s="5"/>
       <c r="BU45" s="5"/>
       <c r="BV45" s="5"/>
+      <c r="BW45" s="5"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="5"/>
@@ -8130,6 +8237,7 @@
       <c r="BT46" s="5"/>
       <c r="BU46" s="5"/>
       <c r="BV46" s="5"/>
+      <c r="BW46" s="5"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="5"/>
@@ -8206,6 +8314,7 @@
       <c r="BT47" s="5"/>
       <c r="BU47" s="5"/>
       <c r="BV47" s="5"/>
+      <c r="BW47" s="5"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="5"/>
@@ -8282,6 +8391,7 @@
       <c r="BT48" s="5"/>
       <c r="BU48" s="5"/>
       <c r="BV48" s="5"/>
+      <c r="BW48" s="5"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="5"/>
@@ -8358,6 +8468,7 @@
       <c r="BT49" s="5"/>
       <c r="BU49" s="5"/>
       <c r="BV49" s="5"/>
+      <c r="BW49" s="5"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="5"/>
@@ -8434,6 +8545,7 @@
       <c r="BT50" s="5"/>
       <c r="BU50" s="5"/>
       <c r="BV50" s="5"/>
+      <c r="BW50" s="5"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="5"/>
@@ -8510,6 +8622,7 @@
       <c r="BT51" s="5"/>
       <c r="BU51" s="5"/>
       <c r="BV51" s="5"/>
+      <c r="BW51" s="5"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="5"/>
@@ -8586,6 +8699,7 @@
       <c r="BT52" s="5"/>
       <c r="BU52" s="5"/>
       <c r="BV52" s="5"/>
+      <c r="BW52" s="5"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="5"/>
@@ -8662,6 +8776,7 @@
       <c r="BT53" s="5"/>
       <c r="BU53" s="5"/>
       <c r="BV53" s="5"/>
+      <c r="BW53" s="5"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="5"/>
@@ -8738,6 +8853,7 @@
       <c r="BT54" s="5"/>
       <c r="BU54" s="5"/>
       <c r="BV54" s="5"/>
+      <c r="BW54" s="5"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="5"/>
@@ -8814,6 +8930,7 @@
       <c r="BT55" s="5"/>
       <c r="BU55" s="5"/>
       <c r="BV55" s="5"/>
+      <c r="BW55" s="5"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="5"/>
@@ -8890,6 +9007,7 @@
       <c r="BT56" s="5"/>
       <c r="BU56" s="5"/>
       <c r="BV56" s="5"/>
+      <c r="BW56" s="5"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="5"/>
@@ -8966,6 +9084,7 @@
       <c r="BT57" s="5"/>
       <c r="BU57" s="5"/>
       <c r="BV57" s="5"/>
+      <c r="BW57" s="5"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="5"/>
@@ -9042,6 +9161,7 @@
       <c r="BT58" s="5"/>
       <c r="BU58" s="5"/>
       <c r="BV58" s="5"/>
+      <c r="BW58" s="5"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="5"/>
@@ -9118,6 +9238,7 @@
       <c r="BT59" s="5"/>
       <c r="BU59" s="5"/>
       <c r="BV59" s="5"/>
+      <c r="BW59" s="5"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="5"/>
@@ -9194,6 +9315,7 @@
       <c r="BT60" s="5"/>
       <c r="BU60" s="5"/>
       <c r="BV60" s="5"/>
+      <c r="BW60" s="5"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="5"/>
@@ -9270,6 +9392,7 @@
       <c r="BT61" s="5"/>
       <c r="BU61" s="5"/>
       <c r="BV61" s="5"/>
+      <c r="BW61" s="5"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="5"/>
@@ -9346,6 +9469,7 @@
       <c r="BT62" s="5"/>
       <c r="BU62" s="5"/>
       <c r="BV62" s="5"/>
+      <c r="BW62" s="5"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="5"/>
@@ -9422,6 +9546,7 @@
       <c r="BT63" s="5"/>
       <c r="BU63" s="5"/>
       <c r="BV63" s="5"/>
+      <c r="BW63" s="5"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="5"/>
@@ -9498,6 +9623,7 @@
       <c r="BT64" s="5"/>
       <c r="BU64" s="5"/>
       <c r="BV64" s="5"/>
+      <c r="BW64" s="5"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="5"/>
@@ -9574,6 +9700,7 @@
       <c r="BT65" s="5"/>
       <c r="BU65" s="5"/>
       <c r="BV65" s="5"/>
+      <c r="BW65" s="5"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="5"/>
@@ -9650,6 +9777,7 @@
       <c r="BT66" s="5"/>
       <c r="BU66" s="5"/>
       <c r="BV66" s="5"/>
+      <c r="BW66" s="5"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="5"/>
@@ -9726,6 +9854,7 @@
       <c r="BT67" s="5"/>
       <c r="BU67" s="5"/>
       <c r="BV67" s="5"/>
+      <c r="BW67" s="5"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="5"/>
@@ -9802,6 +9931,7 @@
       <c r="BT68" s="5"/>
       <c r="BU68" s="5"/>
       <c r="BV68" s="5"/>
+      <c r="BW68" s="5"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="5"/>
@@ -9878,6 +10008,7 @@
       <c r="BT69" s="5"/>
       <c r="BU69" s="5"/>
       <c r="BV69" s="5"/>
+      <c r="BW69" s="5"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="5"/>
@@ -9954,6 +10085,7 @@
       <c r="BT70" s="5"/>
       <c r="BU70" s="5"/>
       <c r="BV70" s="5"/>
+      <c r="BW70" s="5"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="5"/>
@@ -10030,6 +10162,7 @@
       <c r="BT71" s="5"/>
       <c r="BU71" s="5"/>
       <c r="BV71" s="5"/>
+      <c r="BW71" s="5"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="5"/>
@@ -10106,6 +10239,7 @@
       <c r="BT72" s="5"/>
       <c r="BU72" s="5"/>
       <c r="BV72" s="5"/>
+      <c r="BW72" s="5"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="5"/>
@@ -10182,6 +10316,7 @@
       <c r="BT73" s="5"/>
       <c r="BU73" s="5"/>
       <c r="BV73" s="5"/>
+      <c r="BW73" s="5"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="5"/>
@@ -10258,6 +10393,7 @@
       <c r="BT74" s="5"/>
       <c r="BU74" s="5"/>
       <c r="BV74" s="5"/>
+      <c r="BW74" s="5"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="5"/>
@@ -10334,6 +10470,7 @@
       <c r="BT75" s="5"/>
       <c r="BU75" s="5"/>
       <c r="BV75" s="5"/>
+      <c r="BW75" s="5"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="5"/>
@@ -10410,6 +10547,7 @@
       <c r="BT76" s="5"/>
       <c r="BU76" s="5"/>
       <c r="BV76" s="5"/>
+      <c r="BW76" s="5"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="5"/>
@@ -10486,6 +10624,7 @@
       <c r="BT77" s="5"/>
       <c r="BU77" s="5"/>
       <c r="BV77" s="5"/>
+      <c r="BW77" s="5"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="5"/>
@@ -10562,6 +10701,7 @@
       <c r="BT78" s="5"/>
       <c r="BU78" s="5"/>
       <c r="BV78" s="5"/>
+      <c r="BW78" s="5"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="5"/>
@@ -10638,6 +10778,7 @@
       <c r="BT79" s="5"/>
       <c r="BU79" s="5"/>
       <c r="BV79" s="5"/>
+      <c r="BW79" s="5"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="5"/>
@@ -10714,6 +10855,7 @@
       <c r="BT80" s="5"/>
       <c r="BU80" s="5"/>
       <c r="BV80" s="5"/>
+      <c r="BW80" s="5"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="5"/>
@@ -10790,6 +10932,7 @@
       <c r="BT81" s="5"/>
       <c r="BU81" s="5"/>
       <c r="BV81" s="5"/>
+      <c r="BW81" s="5"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="5"/>
@@ -10866,6 +11009,7 @@
       <c r="BT82" s="5"/>
       <c r="BU82" s="5"/>
       <c r="BV82" s="5"/>
+      <c r="BW82" s="5"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="5"/>
@@ -10942,6 +11086,7 @@
       <c r="BT83" s="5"/>
       <c r="BU83" s="5"/>
       <c r="BV83" s="5"/>
+      <c r="BW83" s="5"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="5"/>
@@ -11018,6 +11163,7 @@
       <c r="BT84" s="5"/>
       <c r="BU84" s="5"/>
       <c r="BV84" s="5"/>
+      <c r="BW84" s="5"/>
     </row>
     <row r="85" ht="12.75" customHeight="1">
       <c r="A85" s="5"/>
@@ -11094,6 +11240,7 @@
       <c r="BT85" s="5"/>
       <c r="BU85" s="5"/>
       <c r="BV85" s="5"/>
+      <c r="BW85" s="5"/>
     </row>
     <row r="86" ht="12.75" customHeight="1">
       <c r="A86" s="5"/>
@@ -11170,6 +11317,7 @@
       <c r="BT86" s="5"/>
       <c r="BU86" s="5"/>
       <c r="BV86" s="5"/>
+      <c r="BW86" s="5"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
       <c r="A87" s="5"/>
@@ -11246,6 +11394,7 @@
       <c r="BT87" s="5"/>
       <c r="BU87" s="5"/>
       <c r="BV87" s="5"/>
+      <c r="BW87" s="5"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
       <c r="A88" s="5"/>
@@ -11322,6 +11471,7 @@
       <c r="BT88" s="5"/>
       <c r="BU88" s="5"/>
       <c r="BV88" s="5"/>
+      <c r="BW88" s="5"/>
     </row>
     <row r="89" ht="12.75" customHeight="1">
       <c r="A89" s="5"/>
@@ -11398,6 +11548,7 @@
       <c r="BT89" s="5"/>
       <c r="BU89" s="5"/>
       <c r="BV89" s="5"/>
+      <c r="BW89" s="5"/>
     </row>
     <row r="90" ht="12.75" customHeight="1">
       <c r="A90" s="5"/>
@@ -11474,6 +11625,7 @@
       <c r="BT90" s="5"/>
       <c r="BU90" s="5"/>
       <c r="BV90" s="5"/>
+      <c r="BW90" s="5"/>
     </row>
     <row r="91" ht="12.75" customHeight="1">
       <c r="A91" s="5"/>
@@ -11550,6 +11702,7 @@
       <c r="BT91" s="5"/>
       <c r="BU91" s="5"/>
       <c r="BV91" s="5"/>
+      <c r="BW91" s="5"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
       <c r="A92" s="5"/>
@@ -11626,6 +11779,7 @@
       <c r="BT92" s="5"/>
       <c r="BU92" s="5"/>
       <c r="BV92" s="5"/>
+      <c r="BW92" s="5"/>
     </row>
     <row r="93" ht="12.75" customHeight="1">
       <c r="A93" s="5"/>
@@ -11702,6 +11856,7 @@
       <c r="BT93" s="5"/>
       <c r="BU93" s="5"/>
       <c r="BV93" s="5"/>
+      <c r="BW93" s="5"/>
     </row>
     <row r="94" ht="12.75" customHeight="1">
       <c r="A94" s="5"/>
@@ -11778,6 +11933,7 @@
       <c r="BT94" s="5"/>
       <c r="BU94" s="5"/>
       <c r="BV94" s="5"/>
+      <c r="BW94" s="5"/>
     </row>
     <row r="95" ht="12.75" customHeight="1">
       <c r="A95" s="5"/>
@@ -11854,6 +12010,7 @@
       <c r="BT95" s="5"/>
       <c r="BU95" s="5"/>
       <c r="BV95" s="5"/>
+      <c r="BW95" s="5"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
       <c r="A96" s="5"/>
@@ -11930,6 +12087,7 @@
       <c r="BT96" s="5"/>
       <c r="BU96" s="5"/>
       <c r="BV96" s="5"/>
+      <c r="BW96" s="5"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
       <c r="A97" s="5"/>
@@ -12006,6 +12164,7 @@
       <c r="BT97" s="5"/>
       <c r="BU97" s="5"/>
       <c r="BV97" s="5"/>
+      <c r="BW97" s="5"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
       <c r="A98" s="5"/>
@@ -12082,6 +12241,7 @@
       <c r="BT98" s="5"/>
       <c r="BU98" s="5"/>
       <c r="BV98" s="5"/>
+      <c r="BW98" s="5"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
       <c r="A99" s="5"/>
@@ -12158,6 +12318,7 @@
       <c r="BT99" s="5"/>
       <c r="BU99" s="5"/>
       <c r="BV99" s="5"/>
+      <c r="BW99" s="5"/>
     </row>
     <row r="100" ht="12.75" customHeight="1">
       <c r="A100" s="5"/>
@@ -12234,6 +12395,7 @@
       <c r="BT100" s="5"/>
       <c r="BU100" s="5"/>
       <c r="BV100" s="5"/>
+      <c r="BW100" s="5"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
       <c r="A101" s="5"/>
@@ -12310,6 +12472,7 @@
       <c r="BT101" s="5"/>
       <c r="BU101" s="5"/>
       <c r="BV101" s="5"/>
+      <c r="BW101" s="5"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
       <c r="A102" s="5"/>
@@ -12386,6 +12549,7 @@
       <c r="BT102" s="5"/>
       <c r="BU102" s="5"/>
       <c r="BV102" s="5"/>
+      <c r="BW102" s="5"/>
     </row>
     <row r="103" ht="12.75" customHeight="1">
       <c r="A103" s="5"/>
@@ -12462,6 +12626,7 @@
       <c r="BT103" s="5"/>
       <c r="BU103" s="5"/>
       <c r="BV103" s="5"/>
+      <c r="BW103" s="5"/>
     </row>
     <row r="104" ht="12.75" customHeight="1">
       <c r="A104" s="5"/>
@@ -12538,6 +12703,7 @@
       <c r="BT104" s="5"/>
       <c r="BU104" s="5"/>
       <c r="BV104" s="5"/>
+      <c r="BW104" s="5"/>
     </row>
     <row r="105" ht="12.75" customHeight="1">
       <c r="A105" s="5"/>
@@ -12614,6 +12780,7 @@
       <c r="BT105" s="5"/>
       <c r="BU105" s="5"/>
       <c r="BV105" s="5"/>
+      <c r="BW105" s="5"/>
     </row>
     <row r="106" ht="12.75" customHeight="1">
       <c r="A106" s="5"/>
@@ -12690,6 +12857,7 @@
       <c r="BT106" s="5"/>
       <c r="BU106" s="5"/>
       <c r="BV106" s="5"/>
+      <c r="BW106" s="5"/>
     </row>
     <row r="107" ht="12.75" customHeight="1">
       <c r="A107" s="5"/>
@@ -12766,6 +12934,7 @@
       <c r="BT107" s="5"/>
       <c r="BU107" s="5"/>
       <c r="BV107" s="5"/>
+      <c r="BW107" s="5"/>
     </row>
     <row r="108" ht="12.75" customHeight="1">
       <c r="A108" s="5"/>
@@ -12842,6 +13011,7 @@
       <c r="BT108" s="5"/>
       <c r="BU108" s="5"/>
       <c r="BV108" s="5"/>
+      <c r="BW108" s="5"/>
     </row>
     <row r="109" ht="12.75" customHeight="1">
       <c r="A109" s="5"/>
@@ -12918,6 +13088,7 @@
       <c r="BT109" s="5"/>
       <c r="BU109" s="5"/>
       <c r="BV109" s="5"/>
+      <c r="BW109" s="5"/>
     </row>
     <row r="110" ht="12.75" customHeight="1">
       <c r="A110" s="5"/>
@@ -12994,6 +13165,7 @@
       <c r="BT110" s="5"/>
       <c r="BU110" s="5"/>
       <c r="BV110" s="5"/>
+      <c r="BW110" s="5"/>
     </row>
     <row r="111" ht="12.75" customHeight="1">
       <c r="A111" s="5"/>
@@ -13070,6 +13242,7 @@
       <c r="BT111" s="5"/>
       <c r="BU111" s="5"/>
       <c r="BV111" s="5"/>
+      <c r="BW111" s="5"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
       <c r="A112" s="5"/>
@@ -13146,6 +13319,7 @@
       <c r="BT112" s="5"/>
       <c r="BU112" s="5"/>
       <c r="BV112" s="5"/>
+      <c r="BW112" s="5"/>
     </row>
     <row r="113" ht="12.75" customHeight="1">
       <c r="A113" s="5"/>
@@ -13222,6 +13396,7 @@
       <c r="BT113" s="5"/>
       <c r="BU113" s="5"/>
       <c r="BV113" s="5"/>
+      <c r="BW113" s="5"/>
     </row>
     <row r="114" ht="12.75" customHeight="1">
       <c r="A114" s="5"/>
@@ -13298,6 +13473,7 @@
       <c r="BT114" s="5"/>
       <c r="BU114" s="5"/>
       <c r="BV114" s="5"/>
+      <c r="BW114" s="5"/>
     </row>
     <row r="115" ht="12.75" customHeight="1">
       <c r="A115" s="5"/>
@@ -13374,6 +13550,7 @@
       <c r="BT115" s="5"/>
       <c r="BU115" s="5"/>
       <c r="BV115" s="5"/>
+      <c r="BW115" s="5"/>
     </row>
     <row r="116" ht="12.75" customHeight="1">
       <c r="A116" s="5"/>
@@ -13450,6 +13627,7 @@
       <c r="BT116" s="5"/>
       <c r="BU116" s="5"/>
       <c r="BV116" s="5"/>
+      <c r="BW116" s="5"/>
     </row>
     <row r="117" ht="12.75" customHeight="1">
       <c r="A117" s="5"/>
@@ -13526,6 +13704,7 @@
       <c r="BT117" s="5"/>
       <c r="BU117" s="5"/>
       <c r="BV117" s="5"/>
+      <c r="BW117" s="5"/>
     </row>
     <row r="118" ht="12.75" customHeight="1">
       <c r="A118" s="5"/>
@@ -13602,6 +13781,7 @@
       <c r="BT118" s="5"/>
       <c r="BU118" s="5"/>
       <c r="BV118" s="5"/>
+      <c r="BW118" s="5"/>
     </row>
     <row r="119" ht="12.75" customHeight="1">
       <c r="A119" s="5"/>
@@ -13678,6 +13858,7 @@
       <c r="BT119" s="5"/>
       <c r="BU119" s="5"/>
       <c r="BV119" s="5"/>
+      <c r="BW119" s="5"/>
     </row>
     <row r="120" ht="12.75" customHeight="1">
       <c r="A120" s="5"/>
@@ -13754,6 +13935,7 @@
       <c r="BT120" s="5"/>
       <c r="BU120" s="5"/>
       <c r="BV120" s="5"/>
+      <c r="BW120" s="5"/>
     </row>
     <row r="121" ht="12.75" customHeight="1">
       <c r="A121" s="5"/>
@@ -13830,6 +14012,7 @@
       <c r="BT121" s="5"/>
       <c r="BU121" s="5"/>
       <c r="BV121" s="5"/>
+      <c r="BW121" s="5"/>
     </row>
     <row r="122" ht="12.75" customHeight="1">
       <c r="A122" s="5"/>
@@ -13906,6 +14089,7 @@
       <c r="BT122" s="5"/>
       <c r="BU122" s="5"/>
       <c r="BV122" s="5"/>
+      <c r="BW122" s="5"/>
     </row>
     <row r="123" ht="12.75" customHeight="1">
       <c r="A123" s="5"/>
@@ -13982,6 +14166,7 @@
       <c r="BT123" s="5"/>
       <c r="BU123" s="5"/>
       <c r="BV123" s="5"/>
+      <c r="BW123" s="5"/>
     </row>
     <row r="124" ht="12.75" customHeight="1">
       <c r="A124" s="5"/>
@@ -14058,6 +14243,7 @@
       <c r="BT124" s="5"/>
       <c r="BU124" s="5"/>
       <c r="BV124" s="5"/>
+      <c r="BW124" s="5"/>
     </row>
     <row r="125" ht="12.75" customHeight="1">
       <c r="A125" s="5"/>
@@ -14134,6 +14320,7 @@
       <c r="BT125" s="5"/>
       <c r="BU125" s="5"/>
       <c r="BV125" s="5"/>
+      <c r="BW125" s="5"/>
     </row>
     <row r="126" ht="12.75" customHeight="1">
       <c r="A126" s="5"/>
@@ -14210,6 +14397,7 @@
       <c r="BT126" s="5"/>
       <c r="BU126" s="5"/>
       <c r="BV126" s="5"/>
+      <c r="BW126" s="5"/>
     </row>
     <row r="127" ht="12.75" customHeight="1">
       <c r="A127" s="5"/>
@@ -14286,6 +14474,7 @@
       <c r="BT127" s="5"/>
       <c r="BU127" s="5"/>
       <c r="BV127" s="5"/>
+      <c r="BW127" s="5"/>
     </row>
     <row r="128" ht="12.75" customHeight="1">
       <c r="A128" s="5"/>
@@ -14362,6 +14551,7 @@
       <c r="BT128" s="5"/>
       <c r="BU128" s="5"/>
       <c r="BV128" s="5"/>
+      <c r="BW128" s="5"/>
     </row>
     <row r="129" ht="12.75" customHeight="1">
       <c r="A129" s="5"/>
@@ -14438,6 +14628,7 @@
       <c r="BT129" s="5"/>
       <c r="BU129" s="5"/>
       <c r="BV129" s="5"/>
+      <c r="BW129" s="5"/>
     </row>
     <row r="130" ht="12.75" customHeight="1">
       <c r="A130" s="5"/>
@@ -14514,6 +14705,7 @@
       <c r="BT130" s="5"/>
       <c r="BU130" s="5"/>
       <c r="BV130" s="5"/>
+      <c r="BW130" s="5"/>
     </row>
     <row r="131" ht="12.75" customHeight="1">
       <c r="A131" s="5"/>
@@ -14590,6 +14782,7 @@
       <c r="BT131" s="5"/>
       <c r="BU131" s="5"/>
       <c r="BV131" s="5"/>
+      <c r="BW131" s="5"/>
     </row>
     <row r="132" ht="12.75" customHeight="1">
       <c r="A132" s="5"/>
@@ -14666,6 +14859,7 @@
       <c r="BT132" s="5"/>
       <c r="BU132" s="5"/>
       <c r="BV132" s="5"/>
+      <c r="BW132" s="5"/>
     </row>
     <row r="133" ht="12.75" customHeight="1">
       <c r="A133" s="5"/>
@@ -14742,6 +14936,7 @@
       <c r="BT133" s="5"/>
       <c r="BU133" s="5"/>
       <c r="BV133" s="5"/>
+      <c r="BW133" s="5"/>
     </row>
     <row r="134" ht="12.75" customHeight="1">
       <c r="A134" s="5"/>
@@ -14818,6 +15013,7 @@
       <c r="BT134" s="5"/>
       <c r="BU134" s="5"/>
       <c r="BV134" s="5"/>
+      <c r="BW134" s="5"/>
     </row>
     <row r="135" ht="12.75" customHeight="1">
       <c r="A135" s="5"/>
@@ -14894,6 +15090,7 @@
       <c r="BT135" s="5"/>
       <c r="BU135" s="5"/>
       <c r="BV135" s="5"/>
+      <c r="BW135" s="5"/>
     </row>
     <row r="136" ht="12.75" customHeight="1">
       <c r="A136" s="5"/>
@@ -14970,6 +15167,7 @@
       <c r="BT136" s="5"/>
       <c r="BU136" s="5"/>
       <c r="BV136" s="5"/>
+      <c r="BW136" s="5"/>
     </row>
     <row r="137" ht="12.75" customHeight="1">
       <c r="A137" s="5"/>
@@ -15046,6 +15244,7 @@
       <c r="BT137" s="5"/>
       <c r="BU137" s="5"/>
       <c r="BV137" s="5"/>
+      <c r="BW137" s="5"/>
     </row>
     <row r="138" ht="12.75" customHeight="1">
       <c r="A138" s="5"/>
@@ -15122,6 +15321,7 @@
       <c r="BT138" s="5"/>
       <c r="BU138" s="5"/>
       <c r="BV138" s="5"/>
+      <c r="BW138" s="5"/>
     </row>
     <row r="139" ht="12.75" customHeight="1">
       <c r="A139" s="5"/>
@@ -15198,6 +15398,7 @@
       <c r="BT139" s="5"/>
       <c r="BU139" s="5"/>
       <c r="BV139" s="5"/>
+      <c r="BW139" s="5"/>
     </row>
     <row r="140" ht="12.75" customHeight="1">
       <c r="A140" s="5"/>
@@ -15274,6 +15475,7 @@
       <c r="BT140" s="5"/>
       <c r="BU140" s="5"/>
       <c r="BV140" s="5"/>
+      <c r="BW140" s="5"/>
     </row>
     <row r="141" ht="12.75" customHeight="1">
       <c r="A141" s="5"/>
@@ -15350,6 +15552,7 @@
       <c r="BT141" s="5"/>
       <c r="BU141" s="5"/>
       <c r="BV141" s="5"/>
+      <c r="BW141" s="5"/>
     </row>
     <row r="142" ht="12.75" customHeight="1">
       <c r="A142" s="5"/>
@@ -15426,6 +15629,7 @@
       <c r="BT142" s="5"/>
       <c r="BU142" s="5"/>
       <c r="BV142" s="5"/>
+      <c r="BW142" s="5"/>
     </row>
     <row r="143" ht="12.75" customHeight="1">
       <c r="A143" s="5"/>
@@ -15502,6 +15706,7 @@
       <c r="BT143" s="5"/>
       <c r="BU143" s="5"/>
       <c r="BV143" s="5"/>
+      <c r="BW143" s="5"/>
     </row>
     <row r="144" ht="12.75" customHeight="1">
       <c r="A144" s="5"/>
@@ -15578,6 +15783,7 @@
       <c r="BT144" s="5"/>
       <c r="BU144" s="5"/>
       <c r="BV144" s="5"/>
+      <c r="BW144" s="5"/>
     </row>
     <row r="145" ht="12.75" customHeight="1">
       <c r="A145" s="5"/>
@@ -15654,6 +15860,7 @@
       <c r="BT145" s="5"/>
       <c r="BU145" s="5"/>
       <c r="BV145" s="5"/>
+      <c r="BW145" s="5"/>
     </row>
     <row r="146" ht="12.75" customHeight="1">
       <c r="A146" s="5"/>
@@ -15730,6 +15937,7 @@
       <c r="BT146" s="5"/>
       <c r="BU146" s="5"/>
       <c r="BV146" s="5"/>
+      <c r="BW146" s="5"/>
     </row>
     <row r="147" ht="12.75" customHeight="1">
       <c r="A147" s="5"/>
@@ -15806,6 +16014,7 @@
       <c r="BT147" s="5"/>
       <c r="BU147" s="5"/>
       <c r="BV147" s="5"/>
+      <c r="BW147" s="5"/>
     </row>
     <row r="148" ht="12.75" customHeight="1">
       <c r="A148" s="5"/>
@@ -15882,6 +16091,7 @@
       <c r="BT148" s="5"/>
       <c r="BU148" s="5"/>
       <c r="BV148" s="5"/>
+      <c r="BW148" s="5"/>
     </row>
     <row r="149" ht="12.75" customHeight="1">
       <c r="A149" s="5"/>
@@ -15958,6 +16168,7 @@
       <c r="BT149" s="5"/>
       <c r="BU149" s="5"/>
       <c r="BV149" s="5"/>
+      <c r="BW149" s="5"/>
     </row>
     <row r="150" ht="12.75" customHeight="1">
       <c r="A150" s="5"/>
@@ -16034,6 +16245,7 @@
       <c r="BT150" s="5"/>
       <c r="BU150" s="5"/>
       <c r="BV150" s="5"/>
+      <c r="BW150" s="5"/>
     </row>
     <row r="151" ht="12.75" customHeight="1">
       <c r="A151" s="5"/>
@@ -16110,6 +16322,7 @@
       <c r="BT151" s="5"/>
       <c r="BU151" s="5"/>
       <c r="BV151" s="5"/>
+      <c r="BW151" s="5"/>
     </row>
     <row r="152" ht="12.75" customHeight="1">
       <c r="A152" s="5"/>
@@ -16186,6 +16399,7 @@
       <c r="BT152" s="5"/>
       <c r="BU152" s="5"/>
       <c r="BV152" s="5"/>
+      <c r="BW152" s="5"/>
     </row>
     <row r="153" ht="12.75" customHeight="1">
       <c r="A153" s="5"/>
@@ -16262,6 +16476,7 @@
       <c r="BT153" s="5"/>
       <c r="BU153" s="5"/>
       <c r="BV153" s="5"/>
+      <c r="BW153" s="5"/>
     </row>
     <row r="154" ht="12.75" customHeight="1">
       <c r="A154" s="5"/>
@@ -16338,6 +16553,7 @@
       <c r="BT154" s="5"/>
       <c r="BU154" s="5"/>
       <c r="BV154" s="5"/>
+      <c r="BW154" s="5"/>
     </row>
     <row r="155" ht="12.75" customHeight="1">
       <c r="A155" s="5"/>
@@ -16414,6 +16630,7 @@
       <c r="BT155" s="5"/>
       <c r="BU155" s="5"/>
       <c r="BV155" s="5"/>
+      <c r="BW155" s="5"/>
     </row>
     <row r="156" ht="12.75" customHeight="1">
       <c r="A156" s="5"/>
@@ -16490,6 +16707,7 @@
       <c r="BT156" s="5"/>
       <c r="BU156" s="5"/>
       <c r="BV156" s="5"/>
+      <c r="BW156" s="5"/>
     </row>
     <row r="157" ht="12.75" customHeight="1">
       <c r="A157" s="5"/>
@@ -16566,6 +16784,7 @@
       <c r="BT157" s="5"/>
       <c r="BU157" s="5"/>
       <c r="BV157" s="5"/>
+      <c r="BW157" s="5"/>
     </row>
     <row r="158" ht="12.75" customHeight="1">
       <c r="A158" s="5"/>
@@ -16642,6 +16861,7 @@
       <c r="BT158" s="5"/>
       <c r="BU158" s="5"/>
       <c r="BV158" s="5"/>
+      <c r="BW158" s="5"/>
     </row>
     <row r="159" ht="12.75" customHeight="1">
       <c r="A159" s="5"/>
@@ -16718,6 +16938,7 @@
       <c r="BT159" s="5"/>
       <c r="BU159" s="5"/>
       <c r="BV159" s="5"/>
+      <c r="BW159" s="5"/>
     </row>
     <row r="160" ht="12.75" customHeight="1">
       <c r="A160" s="5"/>
@@ -16794,6 +17015,7 @@
       <c r="BT160" s="5"/>
       <c r="BU160" s="5"/>
       <c r="BV160" s="5"/>
+      <c r="BW160" s="5"/>
     </row>
     <row r="161" ht="12.75" customHeight="1">
       <c r="A161" s="5"/>
@@ -16870,6 +17092,7 @@
       <c r="BT161" s="5"/>
       <c r="BU161" s="5"/>
       <c r="BV161" s="5"/>
+      <c r="BW161" s="5"/>
     </row>
     <row r="162" ht="12.75" customHeight="1">
       <c r="A162" s="5"/>
@@ -16946,6 +17169,7 @@
       <c r="BT162" s="5"/>
       <c r="BU162" s="5"/>
       <c r="BV162" s="5"/>
+      <c r="BW162" s="5"/>
     </row>
     <row r="163" ht="12.75" customHeight="1">
       <c r="A163" s="5"/>
@@ -17022,6 +17246,7 @@
       <c r="BT163" s="5"/>
       <c r="BU163" s="5"/>
       <c r="BV163" s="5"/>
+      <c r="BW163" s="5"/>
     </row>
     <row r="164" ht="12.75" customHeight="1">
       <c r="A164" s="5"/>
@@ -17098,6 +17323,7 @@
       <c r="BT164" s="5"/>
       <c r="BU164" s="5"/>
       <c r="BV164" s="5"/>
+      <c r="BW164" s="5"/>
     </row>
     <row r="165" ht="12.75" customHeight="1">
       <c r="A165" s="5"/>
@@ -17174,6 +17400,7 @@
       <c r="BT165" s="5"/>
       <c r="BU165" s="5"/>
       <c r="BV165" s="5"/>
+      <c r="BW165" s="5"/>
     </row>
     <row r="166" ht="12.75" customHeight="1">
       <c r="A166" s="5"/>
@@ -17250,6 +17477,7 @@
       <c r="BT166" s="5"/>
       <c r="BU166" s="5"/>
       <c r="BV166" s="5"/>
+      <c r="BW166" s="5"/>
     </row>
     <row r="167" ht="12.75" customHeight="1">
       <c r="A167" s="5"/>
@@ -17326,6 +17554,7 @@
       <c r="BT167" s="5"/>
       <c r="BU167" s="5"/>
       <c r="BV167" s="5"/>
+      <c r="BW167" s="5"/>
     </row>
     <row r="168" ht="12.75" customHeight="1">
       <c r="A168" s="5"/>
@@ -17402,6 +17631,7 @@
       <c r="BT168" s="5"/>
       <c r="BU168" s="5"/>
       <c r="BV168" s="5"/>
+      <c r="BW168" s="5"/>
     </row>
     <row r="169" ht="12.75" customHeight="1">
       <c r="A169" s="5"/>
@@ -17478,6 +17708,7 @@
       <c r="BT169" s="5"/>
       <c r="BU169" s="5"/>
       <c r="BV169" s="5"/>
+      <c r="BW169" s="5"/>
     </row>
     <row r="170" ht="12.75" customHeight="1">
       <c r="A170" s="5"/>
@@ -17554,6 +17785,7 @@
       <c r="BT170" s="5"/>
       <c r="BU170" s="5"/>
       <c r="BV170" s="5"/>
+      <c r="BW170" s="5"/>
     </row>
     <row r="171" ht="12.75" customHeight="1">
       <c r="A171" s="5"/>
@@ -17630,6 +17862,7 @@
       <c r="BT171" s="5"/>
       <c r="BU171" s="5"/>
       <c r="BV171" s="5"/>
+      <c r="BW171" s="5"/>
     </row>
     <row r="172" ht="12.75" customHeight="1">
       <c r="A172" s="5"/>
@@ -17706,6 +17939,7 @@
       <c r="BT172" s="5"/>
       <c r="BU172" s="5"/>
       <c r="BV172" s="5"/>
+      <c r="BW172" s="5"/>
     </row>
     <row r="173" ht="12.75" customHeight="1">
       <c r="A173" s="5"/>
@@ -17782,6 +18016,7 @@
       <c r="BT173" s="5"/>
       <c r="BU173" s="5"/>
       <c r="BV173" s="5"/>
+      <c r="BW173" s="5"/>
     </row>
     <row r="174" ht="12.75" customHeight="1">
       <c r="A174" s="5"/>
@@ -17858,6 +18093,7 @@
       <c r="BT174" s="5"/>
       <c r="BU174" s="5"/>
       <c r="BV174" s="5"/>
+      <c r="BW174" s="5"/>
     </row>
     <row r="175" ht="12.75" customHeight="1">
       <c r="A175" s="5"/>
@@ -17934,6 +18170,7 @@
       <c r="BT175" s="5"/>
       <c r="BU175" s="5"/>
       <c r="BV175" s="5"/>
+      <c r="BW175" s="5"/>
     </row>
     <row r="176" ht="12.75" customHeight="1">
       <c r="A176" s="5"/>
@@ -18010,6 +18247,7 @@
       <c r="BT176" s="5"/>
       <c r="BU176" s="5"/>
       <c r="BV176" s="5"/>
+      <c r="BW176" s="5"/>
     </row>
     <row r="177" ht="12.75" customHeight="1">
       <c r="A177" s="5"/>
@@ -18086,6 +18324,7 @@
       <c r="BT177" s="5"/>
       <c r="BU177" s="5"/>
       <c r="BV177" s="5"/>
+      <c r="BW177" s="5"/>
     </row>
     <row r="178" ht="12.75" customHeight="1">
       <c r="A178" s="5"/>
@@ -18162,6 +18401,7 @@
       <c r="BT178" s="5"/>
       <c r="BU178" s="5"/>
       <c r="BV178" s="5"/>
+      <c r="BW178" s="5"/>
     </row>
     <row r="179" ht="12.75" customHeight="1">
       <c r="A179" s="5"/>
@@ -18238,6 +18478,7 @@
       <c r="BT179" s="5"/>
       <c r="BU179" s="5"/>
       <c r="BV179" s="5"/>
+      <c r="BW179" s="5"/>
     </row>
     <row r="180" ht="12.75" customHeight="1">
       <c r="A180" s="5"/>
@@ -18314,6 +18555,7 @@
       <c r="BT180" s="5"/>
       <c r="BU180" s="5"/>
       <c r="BV180" s="5"/>
+      <c r="BW180" s="5"/>
     </row>
     <row r="181" ht="12.75" customHeight="1">
       <c r="A181" s="5"/>
@@ -18390,6 +18632,7 @@
       <c r="BT181" s="5"/>
       <c r="BU181" s="5"/>
       <c r="BV181" s="5"/>
+      <c r="BW181" s="5"/>
     </row>
     <row r="182" ht="12.75" customHeight="1">
       <c r="A182" s="5"/>
@@ -18466,6 +18709,7 @@
       <c r="BT182" s="5"/>
       <c r="BU182" s="5"/>
       <c r="BV182" s="5"/>
+      <c r="BW182" s="5"/>
     </row>
     <row r="183" ht="12.75" customHeight="1">
       <c r="A183" s="5"/>
@@ -18542,6 +18786,7 @@
       <c r="BT183" s="5"/>
       <c r="BU183" s="5"/>
       <c r="BV183" s="5"/>
+      <c r="BW183" s="5"/>
     </row>
     <row r="184" ht="12.75" customHeight="1">
       <c r="A184" s="5"/>
@@ -18618,6 +18863,7 @@
       <c r="BT184" s="5"/>
       <c r="BU184" s="5"/>
       <c r="BV184" s="5"/>
+      <c r="BW184" s="5"/>
     </row>
     <row r="185" ht="12.75" customHeight="1">
       <c r="A185" s="5"/>
@@ -18694,6 +18940,7 @@
       <c r="BT185" s="5"/>
       <c r="BU185" s="5"/>
       <c r="BV185" s="5"/>
+      <c r="BW185" s="5"/>
     </row>
     <row r="186" ht="12.75" customHeight="1">
       <c r="A186" s="5"/>
@@ -18770,6 +19017,7 @@
       <c r="BT186" s="5"/>
       <c r="BU186" s="5"/>
       <c r="BV186" s="5"/>
+      <c r="BW186" s="5"/>
     </row>
     <row r="187" ht="12.75" customHeight="1">
       <c r="A187" s="5"/>
@@ -18846,6 +19094,7 @@
       <c r="BT187" s="5"/>
       <c r="BU187" s="5"/>
       <c r="BV187" s="5"/>
+      <c r="BW187" s="5"/>
     </row>
     <row r="188" ht="12.75" customHeight="1">
       <c r="A188" s="5"/>
@@ -18922,6 +19171,7 @@
       <c r="BT188" s="5"/>
       <c r="BU188" s="5"/>
       <c r="BV188" s="5"/>
+      <c r="BW188" s="5"/>
     </row>
     <row r="189" ht="12.75" customHeight="1">
       <c r="A189" s="5"/>
@@ -18998,6 +19248,7 @@
       <c r="BT189" s="5"/>
       <c r="BU189" s="5"/>
       <c r="BV189" s="5"/>
+      <c r="BW189" s="5"/>
     </row>
     <row r="190" ht="12.75" customHeight="1">
       <c r="A190" s="5"/>
@@ -19074,6 +19325,7 @@
       <c r="BT190" s="5"/>
       <c r="BU190" s="5"/>
       <c r="BV190" s="5"/>
+      <c r="BW190" s="5"/>
     </row>
     <row r="191" ht="12.75" customHeight="1">
       <c r="A191" s="5"/>
@@ -19150,6 +19402,7 @@
       <c r="BT191" s="5"/>
       <c r="BU191" s="5"/>
       <c r="BV191" s="5"/>
+      <c r="BW191" s="5"/>
     </row>
     <row r="192" ht="12.75" customHeight="1">
       <c r="A192" s="5"/>
@@ -19226,6 +19479,7 @@
       <c r="BT192" s="5"/>
       <c r="BU192" s="5"/>
       <c r="BV192" s="5"/>
+      <c r="BW192" s="5"/>
     </row>
     <row r="193" ht="12.75" customHeight="1">
       <c r="A193" s="5"/>
@@ -19302,6 +19556,7 @@
       <c r="BT193" s="5"/>
       <c r="BU193" s="5"/>
       <c r="BV193" s="5"/>
+      <c r="BW193" s="5"/>
     </row>
     <row r="194" ht="12.75" customHeight="1">
       <c r="A194" s="5"/>
@@ -19378,6 +19633,7 @@
       <c r="BT194" s="5"/>
       <c r="BU194" s="5"/>
       <c r="BV194" s="5"/>
+      <c r="BW194" s="5"/>
     </row>
     <row r="195" ht="12.75" customHeight="1">
       <c r="A195" s="5"/>
@@ -19454,6 +19710,7 @@
       <c r="BT195" s="5"/>
       <c r="BU195" s="5"/>
       <c r="BV195" s="5"/>
+      <c r="BW195" s="5"/>
     </row>
     <row r="196" ht="12.75" customHeight="1">
       <c r="A196" s="5"/>
@@ -19530,6 +19787,7 @@
       <c r="BT196" s="5"/>
       <c r="BU196" s="5"/>
       <c r="BV196" s="5"/>
+      <c r="BW196" s="5"/>
     </row>
     <row r="197" ht="12.75" customHeight="1">
       <c r="A197" s="5"/>
@@ -19606,6 +19864,7 @@
       <c r="BT197" s="5"/>
       <c r="BU197" s="5"/>
       <c r="BV197" s="5"/>
+      <c r="BW197" s="5"/>
     </row>
     <row r="198" ht="12.75" customHeight="1">
       <c r="A198" s="5"/>
@@ -19682,6 +19941,7 @@
       <c r="BT198" s="5"/>
       <c r="BU198" s="5"/>
       <c r="BV198" s="5"/>
+      <c r="BW198" s="5"/>
     </row>
     <row r="199" ht="12.75" customHeight="1">
       <c r="A199" s="5"/>
@@ -19758,6 +20018,7 @@
       <c r="BT199" s="5"/>
       <c r="BU199" s="5"/>
       <c r="BV199" s="5"/>
+      <c r="BW199" s="5"/>
     </row>
     <row r="200" ht="12.75" customHeight="1">
       <c r="A200" s="5"/>
@@ -19834,6 +20095,7 @@
       <c r="BT200" s="5"/>
       <c r="BU200" s="5"/>
       <c r="BV200" s="5"/>
+      <c r="BW200" s="5"/>
     </row>
     <row r="201" ht="12.75" customHeight="1">
       <c r="A201" s="5"/>
@@ -19910,6 +20172,7 @@
       <c r="BT201" s="5"/>
       <c r="BU201" s="5"/>
       <c r="BV201" s="5"/>
+      <c r="BW201" s="5"/>
     </row>
     <row r="202" ht="12.75" customHeight="1">
       <c r="A202" s="5"/>
@@ -19986,6 +20249,7 @@
       <c r="BT202" s="5"/>
       <c r="BU202" s="5"/>
       <c r="BV202" s="5"/>
+      <c r="BW202" s="5"/>
     </row>
     <row r="203" ht="12.75" customHeight="1">
       <c r="A203" s="5"/>
@@ -20062,6 +20326,7 @@
       <c r="BT203" s="5"/>
       <c r="BU203" s="5"/>
       <c r="BV203" s="5"/>
+      <c r="BW203" s="5"/>
     </row>
     <row r="204" ht="12.75" customHeight="1">
       <c r="A204" s="5"/>
@@ -20138,6 +20403,7 @@
       <c r="BT204" s="5"/>
       <c r="BU204" s="5"/>
       <c r="BV204" s="5"/>
+      <c r="BW204" s="5"/>
     </row>
     <row r="205" ht="12.75" customHeight="1">
       <c r="A205" s="5"/>
@@ -20214,6 +20480,7 @@
       <c r="BT205" s="5"/>
       <c r="BU205" s="5"/>
       <c r="BV205" s="5"/>
+      <c r="BW205" s="5"/>
     </row>
     <row r="206" ht="12.75" customHeight="1">
       <c r="A206" s="5"/>
@@ -20290,6 +20557,7 @@
       <c r="BT206" s="5"/>
       <c r="BU206" s="5"/>
       <c r="BV206" s="5"/>
+      <c r="BW206" s="5"/>
     </row>
     <row r="207" ht="12.75" customHeight="1">
       <c r="A207" s="5"/>
@@ -20366,6 +20634,7 @@
       <c r="BT207" s="5"/>
       <c r="BU207" s="5"/>
       <c r="BV207" s="5"/>
+      <c r="BW207" s="5"/>
     </row>
     <row r="208" ht="12.75" customHeight="1">
       <c r="A208" s="5"/>
@@ -20442,6 +20711,7 @@
       <c r="BT208" s="5"/>
       <c r="BU208" s="5"/>
       <c r="BV208" s="5"/>
+      <c r="BW208" s="5"/>
     </row>
     <row r="209" ht="12.75" customHeight="1">
       <c r="A209" s="5"/>
@@ -20518,6 +20788,7 @@
       <c r="BT209" s="5"/>
       <c r="BU209" s="5"/>
       <c r="BV209" s="5"/>
+      <c r="BW209" s="5"/>
     </row>
     <row r="210" ht="12.75" customHeight="1">
       <c r="A210" s="5"/>
@@ -20594,6 +20865,7 @@
       <c r="BT210" s="5"/>
       <c r="BU210" s="5"/>
       <c r="BV210" s="5"/>
+      <c r="BW210" s="5"/>
     </row>
     <row r="211" ht="12.75" customHeight="1">
       <c r="A211" s="5"/>
@@ -20670,6 +20942,7 @@
       <c r="BT211" s="5"/>
       <c r="BU211" s="5"/>
       <c r="BV211" s="5"/>
+      <c r="BW211" s="5"/>
     </row>
     <row r="212" ht="12.75" customHeight="1">
       <c r="A212" s="5"/>
@@ -20746,6 +21019,7 @@
       <c r="BT212" s="5"/>
       <c r="BU212" s="5"/>
       <c r="BV212" s="5"/>
+      <c r="BW212" s="5"/>
     </row>
     <row r="213" ht="12.75" customHeight="1">
       <c r="A213" s="5"/>
@@ -20822,6 +21096,7 @@
       <c r="BT213" s="5"/>
       <c r="BU213" s="5"/>
       <c r="BV213" s="5"/>
+      <c r="BW213" s="5"/>
     </row>
     <row r="214" ht="12.75" customHeight="1">
       <c r="A214" s="5"/>
@@ -20898,6 +21173,7 @@
       <c r="BT214" s="5"/>
       <c r="BU214" s="5"/>
       <c r="BV214" s="5"/>
+      <c r="BW214" s="5"/>
     </row>
     <row r="215" ht="12.75" customHeight="1">
       <c r="A215" s="5"/>
@@ -20974,6 +21250,7 @@
       <c r="BT215" s="5"/>
       <c r="BU215" s="5"/>
       <c r="BV215" s="5"/>
+      <c r="BW215" s="5"/>
     </row>
     <row r="216" ht="12.75" customHeight="1">
       <c r="A216" s="5"/>
@@ -21050,6 +21327,7 @@
       <c r="BT216" s="5"/>
       <c r="BU216" s="5"/>
       <c r="BV216" s="5"/>
+      <c r="BW216" s="5"/>
     </row>
     <row r="217" ht="12.75" customHeight="1">
       <c r="A217" s="5"/>
@@ -21126,6 +21404,7 @@
       <c r="BT217" s="5"/>
       <c r="BU217" s="5"/>
       <c r="BV217" s="5"/>
+      <c r="BW217" s="5"/>
     </row>
     <row r="218" ht="12.75" customHeight="1">
       <c r="A218" s="5"/>
@@ -21202,6 +21481,7 @@
       <c r="BT218" s="5"/>
       <c r="BU218" s="5"/>
       <c r="BV218" s="5"/>
+      <c r="BW218" s="5"/>
     </row>
     <row r="219" ht="12.75" customHeight="1">
       <c r="A219" s="5"/>
@@ -21278,6 +21558,7 @@
       <c r="BT219" s="5"/>
       <c r="BU219" s="5"/>
       <c r="BV219" s="5"/>
+      <c r="BW219" s="5"/>
     </row>
     <row r="220" ht="12.75" customHeight="1">
       <c r="A220" s="5"/>
@@ -21354,6 +21635,7 @@
       <c r="BT220" s="5"/>
       <c r="BU220" s="5"/>
       <c r="BV220" s="5"/>
+      <c r="BW220" s="5"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>

--- a/Mod_Korean/Lang/KR/Data/chara_tone.xlsx
+++ b/Mod_Korean/Lang/KR/Data/chara_tone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="983">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t xml:space="preserve">낳아라</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무서워</t>
   </si>
   <si>
     <t xml:space="preserve">default</t>
@@ -727,6 +730,10 @@
     <t xml:space="preserve">낳으세요</t>
   </si>
   <si>
+    <t xml:space="preserve">무섭습니다,두렵습니다
+무서워요,두려워요</t>
+  </si>
+  <si>
     <t xml:space="preserve">rude</t>
   </si>
   <si>
@@ -807,7 +814,7 @@
 마</t>
   </si>
   <si>
-    <t xml:space="preserve">줘,라
+    <t xml:space="preserve">줘
 줘</t>
   </si>
   <si>
@@ -1072,6 +1079,9 @@
     <t xml:space="preserve">없나,없어,없냐</t>
   </si>
   <si>
+    <t xml:space="preserve">무서워,겁나</t>
+  </si>
+  <si>
     <t xml:space="preserve">friendly</t>
   </si>
   <si>
@@ -2103,6 +2113,28 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">없나…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">무서워</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="0"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">…</t>
     </r>
   </si>
   <si>
@@ -2447,6 +2479,9 @@
     <t xml:space="preserve">낳거라</t>
   </si>
   <si>
+    <t xml:space="preserve">두렵도다</t>
+  </si>
+  <si>
     <t xml:space="preserve">bushi</t>
   </si>
   <si>
@@ -2792,6 +2827,10 @@
 낳으시옵소서</t>
   </si>
   <si>
+    <t xml:space="preserve">두렵소
+두렵사옵니다</t>
+  </si>
+  <si>
     <t xml:space="preserve">su</t>
   </si>
   <si>
@@ -2967,6 +3006,9 @@
   </si>
   <si>
     <t xml:space="preserve">낳으십쇼,낳으쇼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">쫄림다,겁남다</t>
   </si>
   <si>
     <t xml:space="preserve">cat</t>
@@ -4233,6 +4275,9 @@
     <t xml:space="preserve">낳아라냐</t>
   </si>
   <si>
+    <t xml:space="preserve">무서워냐</t>
+  </si>
+  <si>
     <t xml:space="preserve">nano</t>
   </si>
   <si>
@@ -4390,6 +4435,9 @@
   </si>
   <si>
     <t xml:space="preserve">없나요</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무서운 것이에요</t>
   </si>
   <si>
     <t xml:space="preserve">noble</t>
@@ -4686,6 +4734,10 @@
 낳으세요</t>
   </si>
   <si>
+    <t xml:space="preserve">무섭습니다,두렵습니다
+무서워요,두렵사와요</t>
+  </si>
+  <si>
     <t xml:space="preserve">peko</t>
   </si>
   <si>
@@ -4702,6 +4754,18 @@
   </si>
   <si>
     <t xml:space="preserve">페코,우리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#me쨩은</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#me쨩을</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#me쨩의,내</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#me쨩이</t>
   </si>
   <si>
     <t xml:space="preserve">다페코,야페코</t>
@@ -4906,6 +4970,9 @@
     <t xml:space="preserve">낳아라-</t>
   </si>
   <si>
+    <t xml:space="preserve">무섭다페코</t>
+  </si>
+  <si>
     <t xml:space="preserve">VIP2</t>
   </si>
   <si>
@@ -5151,6 +5218,9 @@
     <t xml:space="preserve">없어요</t>
   </si>
   <si>
+    <t xml:space="preserve">무서워요,겁나요</t>
+  </si>
+  <si>
     <t xml:space="preserve">princess</t>
   </si>
   <si>
@@ -5450,6 +5520,9 @@
   </si>
   <si>
     <t xml:space="preserve">낳아뉴우-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무서워뉴</t>
   </si>
 </sst>
 </file>
@@ -5640,7 +5713,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5682,6 +5755,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5918,14 +5995,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CA1000"/>
+  <dimension ref="A1:CB1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="BW1" activeCellId="0" sqref="BW1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="CC20" activeCellId="0" sqref="CC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6183,6 +6260,9 @@
       </c>
       <c r="CA1" s="1" t="s">
         <v>78</v>
+      </c>
+      <c r="CB1" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6418,20 +6498,20 @@
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>6</v>
@@ -6443,7 +6523,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>10</v>
@@ -6458,7 +6538,7 @@
         <v>13</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>15</v>
@@ -6482,16 +6562,16 @@
         <v>21</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA5" s="5" t="s">
         <v>26</v>
@@ -6500,7 +6580,7 @@
         <v>27</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD5" s="5" t="s">
         <v>29</v>
@@ -6527,7 +6607,7 @@
         <v>36</v>
       </c>
       <c r="AL5" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM5" s="5" t="s">
         <v>38</v>
@@ -6539,13 +6619,13 @@
         <v>40</v>
       </c>
       <c r="AP5" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AQ5" s="5" t="s">
         <v>42</v>
       </c>
       <c r="AR5" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AS5" s="5" t="s">
         <v>44</v>
@@ -6572,7 +6652,7 @@
         <v>51</v>
       </c>
       <c r="BA5" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="BB5" s="5" t="s">
         <v>53</v>
@@ -6584,10 +6664,10 @@
         <v>55</v>
       </c>
       <c r="BE5" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BF5" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BG5" s="5" t="s">
         <v>58</v>
@@ -6596,7 +6676,7 @@
         <v>59</v>
       </c>
       <c r="BI5" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BJ5" s="5" t="s">
         <v>61</v>
@@ -6620,328 +6700,334 @@
         <v>67</v>
       </c>
       <c r="BQ5" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BR5" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BS5" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BT5" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BU5" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BV5" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BW5" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BX5" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BY5" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="CA5" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="CB5" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM6" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AP6" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AQ6" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AR6" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AS6" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AU6" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AY6" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AZ6" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BA6" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BC6" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BD6" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BE6" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BF6" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BG6" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BH6" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BJ6" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BK6" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BL6" s="5" t="s">
         <v>63</v>
       </c>
       <c r="BM6" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BN6" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BO6" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BP6" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BQ6" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BR6" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BS6" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BT6" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="BU6" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="BV6" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BW6" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BX6" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BY6" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BZ6" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CA6" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="CB6" s="11" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>18</v>
@@ -6956,28 +7042,28 @@
         <v>21</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AE7" s="4" t="s">
         <v>30</v>
@@ -6986,55 +7072,55 @@
         <v>31</v>
       </c>
       <c r="AG7" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AH7" s="4" t="s">
         <v>33</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AK7" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM7" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AO7" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AP7" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AQ7" s="4" t="s">
         <v>42</v>
       </c>
       <c r="AR7" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AS7" s="4" t="s">
         <v>44</v>
       </c>
       <c r="AT7" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AU7" s="4" t="s">
         <v>46</v>
       </c>
       <c r="AV7" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AW7" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AX7" s="4" t="s">
         <v>49</v>
@@ -7043,49 +7129,49 @@
         <v>50</v>
       </c>
       <c r="AZ7" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="BA7" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="BB7" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="BC7" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="BD7" s="4" t="s">
         <v>55</v>
       </c>
       <c r="BE7" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BF7" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BG7" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="BH7" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="BI7" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="BJ7" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="BK7" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="BL7" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="BM7" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="BN7" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="BO7" s="5" t="s">
         <v>66</v>
@@ -7094,55 +7180,58 @@
         <v>67</v>
       </c>
       <c r="BQ7" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="BR7" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="BS7" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BT7" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BU7" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BV7" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="BW7" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="BX7" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="BY7" s="10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="BZ7" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="CA7" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="CB7" s="0" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="9" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -7154,28 +7243,28 @@
         <v>8</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="R8" s="4" t="s">
         <v>17</v>
@@ -7193,28 +7282,28 @@
         <v>21</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AE8" s="4" t="s">
         <v>30</v>
@@ -7223,22 +7312,22 @@
         <v>31</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AH8" s="4" t="s">
         <v>33</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AJ8" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AK8" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AM8" s="4" t="s">
         <v>38</v>
@@ -7247,13 +7336,13 @@
         <v>39</v>
       </c>
       <c r="AO8" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AP8" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AQ8" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AR8" s="4" t="s">
         <v>42</v>
@@ -7295,10 +7384,10 @@
         <v>55</v>
       </c>
       <c r="BE8" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="BF8" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="BG8" s="4" t="s">
         <v>58</v>
@@ -7307,79 +7396,82 @@
         <v>59</v>
       </c>
       <c r="BI8" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BJ8" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="BK8" s="4" t="s">
         <v>62</v>
       </c>
       <c r="BL8" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="BM8" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="BN8" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="BO8" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="BP8" s="5" t="s">
         <v>67</v>
       </c>
       <c r="BQ8" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="BR8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="BS8" s="5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="BT8" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="BU8" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="BV8" s="5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="BW8" s="4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="BX8" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="BY8" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="BZ8" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="CA8" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
+      </c>
+      <c r="CB8" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>6</v>
@@ -7391,7 +7483,7 @@
         <v>8</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>10</v>
@@ -7403,262 +7495,265 @@
         <v>12</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="W9" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="X9" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y9" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="Z9" s="11" t="s">
+      <c r="W9" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="AA9" s="12" t="s">
+      <c r="X9" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="AB9" s="12" t="s">
+      <c r="Y9" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="AC9" s="12" t="s">
+      <c r="Z9" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="AD9" s="12" t="s">
+      <c r="AA9" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="AE9" s="11" t="s">
+      <c r="AB9" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC9" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD9" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AF9" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="AG9" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="AH9" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="AI9" s="11" t="s">
+      <c r="AF9" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="AJ9" s="11" t="s">
+      <c r="AG9" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="AK9" s="12" t="s">
+      <c r="AH9" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="AL9" s="11" t="s">
+      <c r="AI9" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="AM9" s="11" t="s">
+      <c r="AJ9" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="AN9" s="11" t="s">
+      <c r="AK9" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="AO9" s="11" t="s">
+      <c r="AL9" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="AP9" s="11" t="s">
+      <c r="AM9" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="AQ9" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="AR9" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="AS9" s="11" t="s">
+      <c r="AN9" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="AT9" s="11" t="s">
+      <c r="AO9" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="AU9" s="11" t="s">
+      <c r="AP9" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="AV9" s="11" t="s">
+      <c r="AQ9" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="AR9" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS9" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="AW9" s="11" t="s">
+      <c r="AT9" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="AX9" s="11" t="s">
+      <c r="AU9" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="AY9" s="11" t="s">
+      <c r="AV9" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="AZ9" s="11" t="s">
+      <c r="AW9" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="BA9" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="BB9" s="11" t="s">
+      <c r="AX9" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="BC9" s="11" t="s">
+      <c r="AY9" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="BD9" s="11" t="s">
+      <c r="AZ9" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="BE9" s="11" t="s">
+      <c r="BA9" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="BB9" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="BF9" s="11" t="s">
+      <c r="BC9" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="BG9" s="11" t="s">
+      <c r="BD9" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="BH9" s="11" t="s">
+      <c r="BE9" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="BI9" s="11" t="s">
+      <c r="BF9" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="BJ9" s="11" t="s">
+      <c r="BG9" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="BK9" s="11" t="s">
+      <c r="BH9" s="12" t="s">
         <v>330</v>
       </c>
+      <c r="BI9" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="BJ9" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="BK9" s="12" t="s">
+        <v>333</v>
+      </c>
       <c r="BL9" s="5" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="BM9" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="BN9" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="BO9" s="5" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="BP9" s="5" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="BQ9" s="5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="BR9" s="5" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="BS9" s="5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="BT9" s="5" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="BU9" s="5" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="BV9" s="5" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="BW9" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="BX9" s="10" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="BY9" s="10" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="BZ9" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="CA9" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
+      </c>
+      <c r="CB9" s="0" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="9" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="S10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="U10" s="5" t="s">
         <v>20</v>
@@ -7667,430 +7762,436 @@
         <v>21</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AC10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="AD10" s="5" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AE10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="AF10" s="5" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AH10" s="5" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AI10" s="5" t="s">
         <v>34</v>
       </c>
       <c r="AJ10" s="5" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AK10" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AL10" s="5" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AM10" s="5" t="s">
         <v>38</v>
       </c>
       <c r="AN10" s="5" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AO10" s="5" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AP10" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AQ10" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="AR10" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="AS10" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="AT10" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="AU10" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="AV10" s="13" t="s">
+      <c r="AQ10" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="AR10" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="AW10" s="13" t="s">
+      <c r="AS10" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="AX10" s="13" t="s">
+      <c r="AT10" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="AY10" s="13" t="s">
+      <c r="AU10" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="AV10" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="AW10" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="AX10" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="AY10" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AZ10" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="BA10" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="BB10" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="BC10" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="BD10" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="BE10" s="13" t="s">
+      <c r="AZ10" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="BF10" s="13" t="s">
+      <c r="BA10" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="BG10" s="13" t="s">
+      <c r="BB10" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="BC10" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="BH10" s="13" t="s">
+      <c r="BD10" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="BI10" s="13" t="s">
+      <c r="BE10" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="BJ10" s="13" t="s">
+      <c r="BF10" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="BK10" s="13" t="s">
+      <c r="BG10" s="14" t="s">
         <v>395</v>
       </c>
+      <c r="BH10" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="BI10" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="BJ10" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="BK10" s="14" t="s">
+        <v>399</v>
+      </c>
       <c r="BL10" s="5" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="BM10" s="5" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="BN10" s="5" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="BO10" s="5" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="BP10" s="5" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="BQ10" s="5" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="BR10" s="5" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="BS10" s="5" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="BT10" s="4" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="BU10" s="5" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="BV10" s="5" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="BW10" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="BX10" s="14" t="s">
-        <v>408</v>
+        <v>411</v>
+      </c>
+      <c r="BX10" s="15" t="s">
+        <v>412</v>
       </c>
       <c r="BY10" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="BZ10" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="CA10" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
+      </c>
+      <c r="CB10" s="0" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="9" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="AF11" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="AH11" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="AI11" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="AJ11" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="AK11" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="AL11" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="AM11" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="AN11" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="AO11" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="AP11" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="AQ11" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="AR11" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="AS11" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="AT11" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="AU11" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="AV11" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="AW11" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="AX11" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="AY11" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="AZ11" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="BA11" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="BB11" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="BC11" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="BD11" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="BE11" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="BF11" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="BG11" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="BH11" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="BI11" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="AG11" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="AH11" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="AI11" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="AJ11" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="AK11" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="AL11" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="AM11" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="AN11" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="AO11" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="AP11" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="AQ11" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="AR11" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="AS11" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="AT11" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="AU11" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="AV11" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="AW11" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="AX11" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="AY11" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="AZ11" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="BA11" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="BB11" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="BC11" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="BD11" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="BE11" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="BF11" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="BG11" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="BH11" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="BI11" s="4" t="s">
-        <v>437</v>
-      </c>
       <c r="BJ11" s="4" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="BK11" s="4" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="BL11" s="5" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="BM11" s="5" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="BN11" s="5" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="BO11" s="5" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="BP11" s="5" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="BQ11" s="5" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="BR11" s="5" t="s">
         <v>69</v>
       </c>
       <c r="BS11" s="5" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="BT11" s="5" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="BU11" s="5" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="BV11" s="5" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="BW11" s="4" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="BX11" s="10" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="BY11" s="10" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="BZ11" s="10" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="CA11" s="10" t="s">
-        <v>486</v>
+        <v>491</v>
+      </c>
+      <c r="CB11" s="11" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="9" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>6</v>
@@ -8102,960 +8203,972 @@
         <v>8</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="U12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="AD12" s="5" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="AE12" s="5" t="s">
         <v>30</v>
       </c>
       <c r="AF12" s="5" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="AG12" s="5" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="AH12" s="5" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="AI12" s="5" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="AJ12" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="AK12" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="AL12" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="AM12" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="AN12" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="AO12" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="AP12" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="AQ12" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="AR12" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="AS12" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="AT12" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="AU12" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="AV12" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="AK12" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="AL12" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="AM12" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="AN12" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="AO12" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="AP12" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="AQ12" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="AR12" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="AS12" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="AT12" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="AU12" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="AV12" s="5" t="s">
-        <v>503</v>
-      </c>
       <c r="AW12" s="5" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="AX12" s="5" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="AY12" s="5" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="AZ12" s="5" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="BA12" s="5" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="BB12" s="5" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="BC12" s="5" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="BD12" s="5" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="BE12" s="5" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="BF12" s="5" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="BG12" s="5" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="BH12" s="5" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="BI12" s="5" t="s">
         <v>60</v>
       </c>
       <c r="BJ12" s="5" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="BK12" s="5" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="BL12" s="5" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="BM12" s="5" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="BN12" s="5" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="BO12" s="5" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="BP12" s="5" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="BQ12" s="5" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="BR12" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="BS12" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BT12" s="5" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="BU12" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BV12" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="BW12" s="5" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="BX12" s="1" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="BY12" s="1" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="BZ12" s="1" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="CA12" s="1" t="s">
-        <v>545</v>
+        <v>551</v>
+      </c>
+      <c r="CB12" s="0" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="9" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="AE13" s="4" t="s">
         <v>30</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="AG13" s="4" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="AH13" s="4" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="AI13" s="4" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="AJ13" s="4" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="AK13" s="4" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="AL13" s="4" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="AM13" s="4" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="AN13" s="4" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="AO13" s="4" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="AP13" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="AQ13" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="AR13" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="AS13" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="AT13" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="AU13" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="AV13" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="AW13" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="AX13" s="11" t="s">
+      <c r="AQ13" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="AY13" s="11" t="s">
+      <c r="AR13" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="AS13" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="AT13" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="AU13" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="AV13" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="AW13" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX13" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="AY13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AZ13" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="BA13" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="BB13" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="BC13" s="11" t="s">
-        <v>596</v>
-      </c>
-      <c r="BD13" s="11" t="s">
-        <v>597</v>
-      </c>
-      <c r="BE13" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="BF13" s="11" t="s">
-        <v>599</v>
-      </c>
-      <c r="BG13" s="11" t="s">
+      <c r="AZ13" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="BH13" s="11" t="s">
+      <c r="BA13" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="BI13" s="11" t="s">
+      <c r="BB13" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="BJ13" s="11" t="s">
+      <c r="BC13" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="BK13" s="11" t="s">
+      <c r="BD13" s="12" t="s">
         <v>604</v>
       </c>
+      <c r="BE13" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="BF13" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="BG13" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="BH13" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="BI13" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="BJ13" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="BK13" s="12" t="s">
+        <v>611</v>
+      </c>
       <c r="BL13" s="5" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="BM13" s="5" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="BN13" s="5" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="BO13" s="5" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="BP13" s="5" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="BQ13" s="5" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="BR13" s="5" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="BS13" s="5" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="BT13" s="4" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="BU13" s="5" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="BV13" s="5" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="BW13" s="5" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="BX13" s="1" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="BY13" s="1" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="BZ13" s="1" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="CA13" s="1" t="s">
-        <v>620</v>
+        <v>627</v>
+      </c>
+      <c r="CB13" s="0" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>622</v>
+        <v>629</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>630</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="16" t="s">
-        <v>623</v>
+      <c r="D14" s="17" t="s">
+        <v>631</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="AD14" s="4" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="AE14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="AG14" s="4" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="AH14" s="4" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="AI14" s="4" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="AJ14" s="4" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="AK14" s="4" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="AL14" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="AM14" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="AN14" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="AO14" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="AP14" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="AQ14" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="AR14" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="AS14" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="AT14" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="AU14" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="AM14" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="AN14" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="AO14" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="AP14" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="AQ14" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="AR14" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="AS14" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="AT14" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="AU14" s="4" t="s">
-        <v>634</v>
-      </c>
       <c r="AV14" s="4" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="AW14" s="4" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="AX14" s="4" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="AY14" s="4" t="s">
         <v>50</v>
       </c>
       <c r="AZ14" s="4" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="BA14" s="4" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="BB14" s="4" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="BC14" s="4" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="BD14" s="4" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="BE14" s="4" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="BF14" s="4" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="BG14" s="4" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="BH14" s="4" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="BI14" s="4" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="BJ14" s="4" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="BK14" s="4" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="BL14" s="4" t="s">
         <v>63</v>
       </c>
       <c r="BM14" s="4" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="BN14" s="4" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="BO14" s="4" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="BP14" s="4" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="BQ14" s="4" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="BR14" s="4" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="BS14" s="4" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="BT14" s="4" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="BU14" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="BV14" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BW14" s="4" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="BX14" s="1" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="BY14" s="1" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="BZ14" s="1" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="CA14" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="CB14" s="0" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="9" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="AG15" s="4" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="AH15" s="4" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="AI15" s="4" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="AJ15" s="4" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="AK15" s="4" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="AL15" s="4" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="AM15" s="4" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="AN15" s="4" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="AO15" s="4" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="AP15" s="4" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="AQ15" s="4" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="AR15" s="4" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="AS15" s="4" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="AT15" s="4" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="AU15" s="4" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="AV15" s="4" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="AW15" s="4" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="AX15" s="4" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="AY15" s="4" t="s">
         <v>50</v>
       </c>
       <c r="AZ15" s="4" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="BA15" s="4" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="BB15" s="4" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="BC15" s="4" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="BD15" s="4" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="BE15" s="4" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="BF15" s="4" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="BG15" s="4" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="BH15" s="4" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="BI15" s="4" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="BJ15" s="4" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="BK15" s="4" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="BL15" s="5" t="s">
         <v>63</v>
       </c>
       <c r="BM15" s="5" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="BN15" s="5" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="BO15" s="5" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="BP15" s="5" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="BQ15" s="5" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="BR15" s="5" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="BS15" s="5" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="BT15" s="4" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="BU15" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="BV15" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BW15" s="4" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="BX15" s="10" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="BY15" s="10" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="BZ15" s="10" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="CA15" s="10" t="s">
-        <v>735</v>
+        <v>744</v>
+      </c>
+      <c r="CB15" s="11" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>739</v>
+        <v>748</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>749</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>7</v>
+        <v>752</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>8</v>
+        <v>753</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>84</v>
+        <v>754</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>10</v>
+        <v>755</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>11</v>
@@ -9064,305 +9177,308 @@
         <v>12</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>742</v>
+        <v>756</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>743</v>
+        <v>757</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>744</v>
+        <v>758</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>745</v>
+        <v>759</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>746</v>
+        <v>760</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>747</v>
+        <v>761</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>748</v>
+        <v>762</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>749</v>
+        <v>763</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>750</v>
+        <v>764</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>751</v>
+        <v>765</v>
       </c>
       <c r="X16" s="6" t="s">
-        <v>752</v>
+        <v>766</v>
       </c>
       <c r="Y16" s="6" t="s">
-        <v>753</v>
+        <v>767</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>754</v>
+        <v>768</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>755</v>
+        <v>769</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>756</v>
+        <v>770</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>757</v>
+        <v>771</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>758</v>
+        <v>772</v>
       </c>
       <c r="AE16" s="6" t="s">
         <v>30</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>759</v>
+        <v>773</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>760</v>
+        <v>774</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>761</v>
+        <v>775</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>762</v>
+        <v>776</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>763</v>
+        <v>777</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>764</v>
+        <v>778</v>
       </c>
       <c r="AL16" s="6" t="s">
-        <v>765</v>
+        <v>779</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="AN16" s="6" t="s">
-        <v>767</v>
+        <v>781</v>
       </c>
       <c r="AO16" s="6" t="s">
-        <v>768</v>
+        <v>782</v>
       </c>
       <c r="AP16" s="6" t="s">
-        <v>769</v>
+        <v>783</v>
       </c>
       <c r="AQ16" s="6" t="s">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="AR16" s="6" t="s">
-        <v>771</v>
+        <v>785</v>
       </c>
       <c r="AS16" s="6" t="s">
-        <v>772</v>
+        <v>786</v>
       </c>
       <c r="AT16" s="6" t="s">
-        <v>773</v>
+        <v>787</v>
       </c>
       <c r="AU16" s="6" t="s">
-        <v>774</v>
+        <v>788</v>
       </c>
       <c r="AV16" s="6" t="s">
-        <v>775</v>
+        <v>789</v>
       </c>
       <c r="AW16" s="6" t="s">
-        <v>776</v>
+        <v>790</v>
       </c>
       <c r="AX16" s="6" t="s">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="AY16" s="6" t="s">
         <v>50</v>
       </c>
       <c r="AZ16" s="6" t="s">
-        <v>778</v>
+        <v>792</v>
       </c>
       <c r="BA16" s="6" t="s">
-        <v>779</v>
+        <v>793</v>
       </c>
       <c r="BB16" s="6" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="BC16" s="6" t="s">
-        <v>781</v>
+        <v>795</v>
       </c>
       <c r="BD16" s="6" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="BE16" s="6" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="BF16" s="6" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="BG16" s="6" t="s">
-        <v>785</v>
+        <v>799</v>
       </c>
       <c r="BH16" s="6" t="s">
-        <v>786</v>
+        <v>800</v>
       </c>
       <c r="BI16" s="6" t="s">
-        <v>787</v>
+        <v>801</v>
       </c>
       <c r="BJ16" s="6" t="s">
-        <v>788</v>
+        <v>802</v>
       </c>
       <c r="BK16" s="6" t="s">
-        <v>789</v>
+        <v>803</v>
       </c>
       <c r="BL16" s="5" t="s">
         <v>63</v>
       </c>
       <c r="BM16" s="5" t="s">
-        <v>790</v>
+        <v>804</v>
       </c>
       <c r="BN16" s="5" t="s">
-        <v>791</v>
+        <v>805</v>
       </c>
       <c r="BO16" s="5" t="s">
-        <v>792</v>
+        <v>806</v>
       </c>
       <c r="BP16" s="5" t="s">
-        <v>793</v>
+        <v>807</v>
       </c>
       <c r="BQ16" s="5" t="s">
-        <v>794</v>
+        <v>808</v>
       </c>
       <c r="BR16" s="4" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="BS16" s="4" t="s">
-        <v>795</v>
+        <v>809</v>
       </c>
       <c r="BT16" s="6" t="s">
-        <v>796</v>
+        <v>810</v>
       </c>
       <c r="BU16" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="BV16" s="6" t="s">
-        <v>797</v>
+        <v>811</v>
       </c>
       <c r="BW16" s="6" t="s">
-        <v>798</v>
+        <v>812</v>
       </c>
       <c r="BX16" s="1" t="s">
-        <v>799</v>
+        <v>813</v>
       </c>
       <c r="BY16" s="1" t="s">
-        <v>800</v>
+        <v>814</v>
       </c>
       <c r="BZ16" s="1" t="s">
-        <v>801</v>
+        <v>815</v>
       </c>
       <c r="CA16" s="1" t="s">
-        <v>802</v>
+        <v>816</v>
+      </c>
+      <c r="CB16" s="0" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>803</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>803</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>738</v>
+        <v>818</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>818</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>748</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>804</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>805</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="G17" s="18" t="s">
+        <v>819</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>820</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="19" t="s">
-        <v>806</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>807</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>808</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>809</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="N17" s="16" t="s">
+      <c r="H17" s="20" t="s">
+        <v>821</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>822</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>823</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>824</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="N17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O17" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="P17" s="18" t="s">
+      <c r="O17" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q17" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="R17" s="18" t="s">
+      <c r="Q17" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="R17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="S17" s="18" t="s">
+      <c r="S17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T17" s="18" t="s">
+      <c r="T17" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="U17" s="18" t="s">
+      <c r="U17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="V17" s="18" t="s">
+      <c r="V17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="W17" s="18" t="s">
+      <c r="W17" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="X17" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y17" s="16" t="s">
+      <c r="X17" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="Z17" s="18" t="s">
-        <v>810</v>
-      </c>
-      <c r="AA17" s="18" t="s">
+      <c r="Z17" s="19" t="s">
+        <v>825</v>
+      </c>
+      <c r="AA17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AB17" s="18" t="s">
+      <c r="AB17" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AC17" s="18" t="s">
+      <c r="AC17" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="AD17" s="18" t="s">
+      <c r="AD17" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AE17" s="18" t="s">
+      <c r="AE17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AF17" s="18" t="s">
+      <c r="AF17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AG17" s="18" t="s">
+      <c r="AG17" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AH17" s="18" t="s">
+      <c r="AH17" s="19" t="s">
         <v>33</v>
       </c>
       <c r="AI17" s="1" t="s">
@@ -9375,7 +9491,7 @@
         <v>36</v>
       </c>
       <c r="AL17" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM17" s="1" t="s">
         <v>38</v>
@@ -9383,8 +9499,8 @@
       <c r="AN17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO17" s="18" t="s">
-        <v>262</v>
+      <c r="AO17" s="19" t="s">
+        <v>265</v>
       </c>
       <c r="AP17" s="1" t="s">
         <v>42</v>
@@ -9432,7 +9548,7 @@
         <v>55</v>
       </c>
       <c r="BE17" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="BF17" s="1" t="s">
         <v>57</v>
@@ -9452,14 +9568,14 @@
       <c r="BK17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL17" s="18" t="s">
-        <v>811</v>
+      <c r="BL17" s="19" t="s">
+        <v>826</v>
       </c>
       <c r="BM17" s="1" t="s">
         <v>64</v>
       </c>
       <c r="BN17" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="BO17" s="1" t="s">
         <v>66</v>
@@ -9468,392 +9584,398 @@
         <v>67</v>
       </c>
       <c r="BQ17" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="BR17" s="18" t="s">
-        <v>813</v>
+        <v>827</v>
+      </c>
+      <c r="BR17" s="19" t="s">
+        <v>828</v>
       </c>
       <c r="BS17" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="BT17" s="18" t="s">
-        <v>815</v>
-      </c>
-      <c r="BU17" s="18" t="s">
-        <v>816</v>
-      </c>
-      <c r="BV17" s="18" t="s">
-        <v>817</v>
-      </c>
-      <c r="BW17" s="18" t="s">
-        <v>818</v>
+        <v>829</v>
+      </c>
+      <c r="BT17" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="BU17" s="19" t="s">
+        <v>831</v>
+      </c>
+      <c r="BV17" s="19" t="s">
+        <v>832</v>
+      </c>
+      <c r="BW17" s="19" t="s">
+        <v>833</v>
       </c>
       <c r="BX17" s="1" t="s">
-        <v>819</v>
+        <v>834</v>
       </c>
       <c r="BY17" s="1" t="s">
-        <v>820</v>
+        <v>835</v>
       </c>
       <c r="BZ17" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="CA17" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="CB17" s="0" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
-        <v>821</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>822</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>738</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>804</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>823</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" s="17" t="s">
+      <c r="A18" s="18" t="s">
+        <v>836</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>748</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>819</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="F18" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="H18" s="20" t="s">
-        <v>824</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>825</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>826</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>827</v>
-      </c>
-      <c r="L18" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="M18" s="17" t="s">
+      <c r="G18" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>841</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>842</v>
+      </c>
+      <c r="L18" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="N18" s="17" t="s">
-        <v>828</v>
-      </c>
-      <c r="O18" s="17" t="s">
-        <v>829</v>
-      </c>
-      <c r="P18" s="17" t="s">
-        <v>830</v>
-      </c>
-      <c r="Q18" s="17" t="s">
-        <v>831</v>
-      </c>
-      <c r="R18" s="17" t="s">
-        <v>628</v>
-      </c>
-      <c r="S18" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="T18" s="17" t="s">
-        <v>832</v>
-      </c>
-      <c r="U18" s="17" t="s">
-        <v>833</v>
-      </c>
-      <c r="V18" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="W18" s="17" t="s">
-        <v>834</v>
-      </c>
-      <c r="X18" s="17" t="s">
-        <v>630</v>
-      </c>
-      <c r="Y18" s="17" t="s">
-        <v>835</v>
-      </c>
-      <c r="Z18" s="17" t="s">
-        <v>836</v>
-      </c>
-      <c r="AA18" s="17" t="s">
+      <c r="M18" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>844</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>845</v>
+      </c>
+      <c r="Q18" s="18" t="s">
+        <v>846</v>
+      </c>
+      <c r="R18" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="S18" s="18" t="s">
         <v>501</v>
       </c>
-      <c r="AB18" s="17" t="s">
-        <v>837</v>
-      </c>
-      <c r="AC18" s="18" t="s">
-        <v>634</v>
-      </c>
-      <c r="AD18" s="17" t="s">
-        <v>838</v>
-      </c>
-      <c r="AE18" s="18" t="s">
+      <c r="T18" s="18" t="s">
+        <v>847</v>
+      </c>
+      <c r="U18" s="18" t="s">
+        <v>848</v>
+      </c>
+      <c r="V18" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="W18" s="18" t="s">
+        <v>849</v>
+      </c>
+      <c r="X18" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y18" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="Z18" s="18" t="s">
+        <v>851</v>
+      </c>
+      <c r="AA18" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="AB18" s="18" t="s">
+        <v>852</v>
+      </c>
+      <c r="AC18" s="19" t="s">
+        <v>642</v>
+      </c>
+      <c r="AD18" s="18" t="s">
+        <v>853</v>
+      </c>
+      <c r="AE18" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AF18" s="17" t="s">
-        <v>839</v>
-      </c>
-      <c r="AG18" s="17" t="s">
-        <v>840</v>
-      </c>
-      <c r="AH18" s="17" t="s">
-        <v>841</v>
+      <c r="AF18" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="AG18" s="18" t="s">
+        <v>855</v>
+      </c>
+      <c r="AH18" s="18" t="s">
+        <v>856</v>
       </c>
       <c r="AI18" s="1" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>842</v>
+        <v>857</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="AM18" s="1" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="AN18" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="AO18" s="17" t="s">
-        <v>845</v>
+        <v>859</v>
+      </c>
+      <c r="AO18" s="18" t="s">
+        <v>860</v>
       </c>
       <c r="AP18" s="1" t="s">
-        <v>846</v>
+        <v>861</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>846</v>
+        <v>861</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>848</v>
+        <v>863</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>849</v>
+        <v>864</v>
       </c>
       <c r="AU18" s="1" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="AV18" s="1" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="AW18" s="1" t="s">
-        <v>850</v>
+        <v>865</v>
       </c>
       <c r="AX18" s="1" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="AY18" s="1" t="s">
-        <v>851</v>
+        <v>866</v>
       </c>
       <c r="AZ18" s="1" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="BA18" s="1" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="BB18" s="1" t="s">
-        <v>853</v>
+        <v>868</v>
       </c>
       <c r="BC18" s="1" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="BD18" s="1" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="BE18" s="1" t="s">
-        <v>854</v>
+        <v>869</v>
       </c>
       <c r="BF18" s="1" t="s">
-        <v>855</v>
+        <v>870</v>
       </c>
       <c r="BG18" s="1" t="s">
-        <v>856</v>
+        <v>871</v>
       </c>
       <c r="BH18" s="1" t="s">
-        <v>857</v>
+        <v>872</v>
       </c>
       <c r="BI18" s="1" t="s">
-        <v>858</v>
+        <v>873</v>
       </c>
       <c r="BJ18" s="1" t="s">
         <v>61</v>
       </c>
       <c r="BK18" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="BL18" s="18" t="s">
+        <v>874</v>
+      </c>
+      <c r="BL18" s="19" t="s">
         <v>63</v>
       </c>
       <c r="BM18" s="1" t="s">
-        <v>860</v>
+        <v>875</v>
       </c>
       <c r="BN18" s="1" t="s">
-        <v>861</v>
+        <v>876</v>
       </c>
       <c r="BO18" s="1" t="s">
         <v>66</v>
       </c>
       <c r="BP18" s="1" t="s">
-        <v>862</v>
+        <v>877</v>
       </c>
       <c r="BQ18" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="BR18" s="17" t="s">
-        <v>864</v>
+        <v>878</v>
+      </c>
+      <c r="BR18" s="18" t="s">
+        <v>879</v>
       </c>
       <c r="BS18" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="BT18" s="17" t="s">
-        <v>865</v>
-      </c>
-      <c r="BU18" s="17" t="s">
-        <v>866</v>
-      </c>
-      <c r="BV18" s="17" t="s">
-        <v>867</v>
-      </c>
-      <c r="BW18" s="17" t="s">
-        <v>868</v>
+        <v>809</v>
+      </c>
+      <c r="BT18" s="18" t="s">
+        <v>880</v>
+      </c>
+      <c r="BU18" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="BV18" s="18" t="s">
+        <v>882</v>
+      </c>
+      <c r="BW18" s="18" t="s">
+        <v>883</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>869</v>
+        <v>884</v>
       </c>
       <c r="BY18" s="1" t="s">
-        <v>870</v>
+        <v>885</v>
       </c>
       <c r="BZ18" s="1" t="s">
-        <v>871</v>
+        <v>886</v>
       </c>
       <c r="CA18" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="CB18" s="0" t="s">
+        <v>887</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
-        <v>872</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>873</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>738</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>804</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>805</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="17" t="s">
+      <c r="A19" s="18" t="s">
+        <v>888</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>889</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>748</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>819</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>820</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="21" t="s">
-        <v>806</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>807</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>808</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>809</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>874</v>
-      </c>
-      <c r="M19" s="17" t="s">
+      <c r="H19" s="22" t="s">
+        <v>821</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>822</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>823</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>824</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>890</v>
+      </c>
+      <c r="M19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O19" s="17" t="s">
+      <c r="O19" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="P19" s="17" t="s">
+      <c r="P19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q19" s="17" t="s">
+      <c r="Q19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R19" s="17" t="s">
+      <c r="R19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="S19" s="17" t="s">
+      <c r="S19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="T19" s="17" t="s">
+      <c r="T19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="U19" s="17" t="s">
+      <c r="U19" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="V19" s="17" t="s">
+      <c r="V19" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="W19" s="17" t="s">
-        <v>875</v>
-      </c>
-      <c r="X19" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y19" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="Z19" s="17" t="s">
-        <v>876</v>
-      </c>
-      <c r="AA19" s="17" t="s">
+      <c r="W19" s="18" t="s">
+        <v>891</v>
+      </c>
+      <c r="X19" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y19" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="Z19" s="18" t="s">
+        <v>892</v>
+      </c>
+      <c r="AA19" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AB19" s="17" t="s">
-        <v>877</v>
-      </c>
-      <c r="AC19" s="17" t="s">
-        <v>878</v>
-      </c>
-      <c r="AD19" s="18" t="s">
+      <c r="AB19" s="18" t="s">
+        <v>893</v>
+      </c>
+      <c r="AC19" s="18" t="s">
+        <v>894</v>
+      </c>
+      <c r="AD19" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AE19" s="18" t="s">
+      <c r="AE19" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AF19" s="18" t="s">
+      <c r="AF19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AG19" s="18" t="s">
-        <v>879</v>
-      </c>
-      <c r="AH19" s="18" t="s">
+      <c r="AG19" s="19" t="s">
+        <v>895</v>
+      </c>
+      <c r="AH19" s="19" t="s">
         <v>33</v>
       </c>
       <c r="AI19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>880</v>
+        <v>896</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>881</v>
+        <v>897</v>
       </c>
       <c r="AM19" s="1" t="s">
         <v>38</v>
@@ -9861,7 +9983,7 @@
       <c r="AN19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO19" s="18" t="s">
+      <c r="AO19" s="19" t="s">
         <v>40</v>
       </c>
       <c r="AP19" s="1" t="s">
@@ -9895,13 +10017,13 @@
         <v>50</v>
       </c>
       <c r="AZ19" s="1" t="s">
-        <v>882</v>
+        <v>898</v>
       </c>
       <c r="BA19" s="1" t="s">
-        <v>882</v>
+        <v>898</v>
       </c>
       <c r="BB19" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="BC19" s="1" t="s">
         <v>54</v>
@@ -9910,10 +10032,10 @@
         <v>55</v>
       </c>
       <c r="BE19" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="BF19" s="1" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="BG19" s="1" t="s">
         <v>58</v>
@@ -9922,7 +10044,7 @@
         <v>59</v>
       </c>
       <c r="BI19" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BJ19" s="1" t="s">
         <v>61</v>
@@ -9930,290 +10052,296 @@
       <c r="BK19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL19" s="18" t="s">
+      <c r="BL19" s="19" t="s">
         <v>63</v>
       </c>
       <c r="BM19" s="1" t="s">
-        <v>884</v>
+        <v>900</v>
       </c>
       <c r="BN19" s="1" t="s">
-        <v>885</v>
+        <v>901</v>
       </c>
       <c r="BO19" s="1" t="s">
-        <v>886</v>
+        <v>902</v>
       </c>
       <c r="BP19" s="1" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="BQ19" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="BR19" s="18" t="s">
-        <v>889</v>
+        <v>904</v>
+      </c>
+      <c r="BR19" s="19" t="s">
+        <v>905</v>
       </c>
       <c r="BS19" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="BT19" s="17" t="s">
-        <v>890</v>
-      </c>
-      <c r="BU19" s="18" t="s">
-        <v>891</v>
-      </c>
-      <c r="BV19" s="18" t="s">
-        <v>892</v>
-      </c>
-      <c r="BW19" s="17" t="s">
-        <v>893</v>
+        <v>829</v>
+      </c>
+      <c r="BT19" s="18" t="s">
+        <v>906</v>
+      </c>
+      <c r="BU19" s="19" t="s">
+        <v>907</v>
+      </c>
+      <c r="BV19" s="19" t="s">
+        <v>908</v>
+      </c>
+      <c r="BW19" s="18" t="s">
+        <v>909</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>894</v>
+        <v>910</v>
       </c>
       <c r="BY19" s="1" t="s">
-        <v>895</v>
+        <v>911</v>
       </c>
       <c r="BZ19" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="CA19" s="1" t="s">
-        <v>896</v>
+        <v>912</v>
+      </c>
+      <c r="CB19" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
-        <v>897</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>898</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
-        <v>489</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>899</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>900</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>901</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>902</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>903</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>904</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>905</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>906</v>
-      </c>
-      <c r="M20" s="18" t="s">
-        <v>907</v>
-      </c>
-      <c r="N20" s="16" t="s">
-        <v>908</v>
-      </c>
-      <c r="O20" s="16" t="s">
-        <v>909</v>
-      </c>
-      <c r="P20" s="18" t="s">
-        <v>910</v>
-      </c>
-      <c r="Q20" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="R20" s="18" t="s">
+      <c r="A20" s="18" t="s">
+        <v>913</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>914</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>915</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>916</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>917</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>918</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>919</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>920</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>921</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>922</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>923</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>924</v>
+      </c>
+      <c r="O20" s="17" t="s">
+        <v>925</v>
+      </c>
+      <c r="P20" s="19" t="s">
+        <v>926</v>
+      </c>
+      <c r="Q20" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="R20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="S20" s="18" t="s">
+      <c r="S20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T20" s="18" t="s">
-        <v>911</v>
-      </c>
-      <c r="U20" s="18" t="s">
-        <v>912</v>
-      </c>
-      <c r="V20" s="18" t="s">
-        <v>913</v>
-      </c>
-      <c r="W20" s="18" t="s">
-        <v>914</v>
-      </c>
-      <c r="X20" s="16" t="s">
-        <v>915</v>
-      </c>
-      <c r="Y20" s="16" t="s">
-        <v>916</v>
-      </c>
-      <c r="Z20" s="18" t="s">
-        <v>917</v>
-      </c>
-      <c r="AA20" s="18" t="s">
-        <v>918</v>
-      </c>
-      <c r="AB20" s="18" t="s">
-        <v>919</v>
-      </c>
-      <c r="AC20" s="18" t="s">
-        <v>920</v>
-      </c>
-      <c r="AD20" s="18" t="s">
-        <v>921</v>
-      </c>
-      <c r="AE20" s="18" t="s">
+      <c r="T20" s="19" t="s">
+        <v>927</v>
+      </c>
+      <c r="U20" s="19" t="s">
+        <v>928</v>
+      </c>
+      <c r="V20" s="19" t="s">
+        <v>929</v>
+      </c>
+      <c r="W20" s="19" t="s">
+        <v>930</v>
+      </c>
+      <c r="X20" s="17" t="s">
+        <v>931</v>
+      </c>
+      <c r="Y20" s="17" t="s">
+        <v>932</v>
+      </c>
+      <c r="Z20" s="19" t="s">
+        <v>933</v>
+      </c>
+      <c r="AA20" s="19" t="s">
+        <v>934</v>
+      </c>
+      <c r="AB20" s="19" t="s">
+        <v>935</v>
+      </c>
+      <c r="AC20" s="19" t="s">
+        <v>936</v>
+      </c>
+      <c r="AD20" s="19" t="s">
+        <v>937</v>
+      </c>
+      <c r="AE20" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AF20" s="18" t="s">
-        <v>922</v>
-      </c>
-      <c r="AG20" s="18" t="s">
-        <v>923</v>
-      </c>
-      <c r="AH20" s="18" t="s">
-        <v>924</v>
+      <c r="AF20" s="19" t="s">
+        <v>938</v>
+      </c>
+      <c r="AG20" s="19" t="s">
+        <v>939</v>
+      </c>
+      <c r="AH20" s="19" t="s">
+        <v>940</v>
       </c>
       <c r="AI20" s="1" t="s">
-        <v>925</v>
+        <v>941</v>
       </c>
       <c r="AJ20" s="1" t="s">
-        <v>926</v>
+        <v>942</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>927</v>
+        <v>943</v>
       </c>
       <c r="AL20" s="1" t="s">
-        <v>928</v>
+        <v>944</v>
       </c>
       <c r="AM20" s="1" t="s">
-        <v>929</v>
+        <v>945</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="AO20" s="18" t="s">
-        <v>931</v>
+        <v>946</v>
+      </c>
+      <c r="AO20" s="19" t="s">
+        <v>947</v>
       </c>
       <c r="AP20" s="1" t="s">
-        <v>932</v>
+        <v>948</v>
       </c>
       <c r="AQ20" s="1" t="s">
-        <v>933</v>
+        <v>949</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>934</v>
+        <v>950</v>
       </c>
       <c r="AS20" s="1" t="s">
-        <v>935</v>
+        <v>951</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>936</v>
+        <v>952</v>
       </c>
       <c r="AU20" s="1" t="s">
-        <v>937</v>
+        <v>953</v>
       </c>
       <c r="AV20" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AW20" s="1" t="s">
-        <v>938</v>
+        <v>954</v>
       </c>
       <c r="AX20" s="1" t="s">
-        <v>933</v>
+        <v>949</v>
       </c>
       <c r="AY20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AZ20" s="1" t="s">
-        <v>939</v>
+        <v>955</v>
       </c>
       <c r="BA20" s="1" t="s">
-        <v>940</v>
+        <v>956</v>
       </c>
       <c r="BB20" s="1" t="s">
-        <v>941</v>
+        <v>957</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>942</v>
+        <v>958</v>
       </c>
       <c r="BD20" s="1" t="s">
-        <v>943</v>
+        <v>959</v>
       </c>
       <c r="BE20" s="1" t="s">
-        <v>944</v>
+        <v>960</v>
       </c>
       <c r="BF20" s="1" t="s">
-        <v>945</v>
+        <v>961</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>946</v>
+        <v>962</v>
       </c>
       <c r="BH20" s="1" t="s">
-        <v>947</v>
+        <v>963</v>
       </c>
       <c r="BI20" s="1" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
       <c r="BJ20" s="1" t="s">
         <v>61</v>
       </c>
       <c r="BK20" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="BL20" s="18" t="s">
-        <v>950</v>
+        <v>965</v>
+      </c>
+      <c r="BL20" s="19" t="s">
+        <v>966</v>
       </c>
       <c r="BM20" s="1" t="s">
-        <v>951</v>
+        <v>967</v>
       </c>
       <c r="BN20" s="1" t="s">
-        <v>952</v>
+        <v>968</v>
       </c>
       <c r="BO20" s="1" t="s">
-        <v>953</v>
+        <v>969</v>
       </c>
       <c r="BP20" s="1" t="s">
-        <v>954</v>
+        <v>970</v>
       </c>
       <c r="BQ20" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="BR20" s="18" t="s">
-        <v>956</v>
+        <v>971</v>
+      </c>
+      <c r="BR20" s="19" t="s">
+        <v>972</v>
       </c>
       <c r="BS20" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="BT20" s="19" t="s">
-        <v>958</v>
-      </c>
-      <c r="BU20" s="18" t="s">
-        <v>959</v>
-      </c>
-      <c r="BV20" s="18" t="s">
-        <v>960</v>
-      </c>
-      <c r="BW20" s="18" t="s">
-        <v>961</v>
+        <v>973</v>
+      </c>
+      <c r="BT20" s="20" t="s">
+        <v>974</v>
+      </c>
+      <c r="BU20" s="19" t="s">
+        <v>975</v>
+      </c>
+      <c r="BV20" s="19" t="s">
+        <v>976</v>
+      </c>
+      <c r="BW20" s="19" t="s">
+        <v>977</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>962</v>
+        <v>978</v>
       </c>
       <c r="BY20" s="1" t="s">
-        <v>963</v>
+        <v>979</v>
       </c>
       <c r="BZ20" s="1" t="s">
-        <v>964</v>
+        <v>980</v>
       </c>
       <c r="CA20" s="1" t="s">
-        <v>965</v>
+        <v>981</v>
+      </c>
+      <c r="CB20" s="0" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Mod_Korean/Lang/KR/Data/chara_tone.xlsx
+++ b/Mod_Korean/Lang/KR/Data/chara_tone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="1015">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">나를</t>
   </si>
   <si>
+    <t xml:space="preserve">날</t>
+  </si>
+  <si>
     <t xml:space="preserve">나의</t>
   </si>
   <si>
@@ -154,6 +157,12 @@
     <t xml:space="preserve">해라</t>
   </si>
   <si>
+    <t xml:space="preserve">했다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">했겠다</t>
+  </si>
+  <si>
     <t xml:space="preserve">돼</t>
   </si>
   <si>
@@ -305,6 +314,9 @@
   </si>
   <si>
     <t xml:space="preserve">해라,해</t>
+  </si>
+  <si>
+    <t xml:space="preserve">했다,했어</t>
   </si>
   <si>
     <t xml:space="preserve">거냐,거야</t>
@@ -377,6 +389,9 @@
     <t xml:space="preserve">저를</t>
   </si>
   <si>
+    <t xml:space="preserve">절</t>
+  </si>
+  <si>
     <t xml:space="preserve">저의,제</t>
   </si>
   <si>
@@ -495,6 +510,14 @@
   <si>
     <t xml:space="preserve">하십시오
 하세요</t>
+  </si>
+  <si>
+    <t xml:space="preserve">했습니다,하셨습니다
+했어요,하셨어요</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하시는군요
+하시네요,하시는군요</t>
   </si>
   <si>
     <t xml:space="preserve">됩니다
@@ -756,6 +779,10 @@
   <si>
     <t xml:space="preserve">나를,이몸을
 나를</t>
+  </si>
+  <si>
+    <t xml:space="preserve">날,이몸을
+날</t>
   </si>
   <si>
     <t xml:space="preserve">내,이몸의
@@ -1161,6 +1188,9 @@
 해</t>
   </si>
   <si>
+    <t xml:space="preserve">했어</t>
+  </si>
+  <si>
     <t xml:space="preserve">어때</t>
   </si>
   <si>
@@ -1612,30 +1642,6 @@
     <t xml:space="preserve">해…</t>
   </si>
   <si>
-    <t xml:space="preserve">돼…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">와…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">알아…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지만…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">거야…</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1644,17 +1650,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">봐…</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
+      <t xml:space="preserve">했어</t>
     </r>
     <r>
       <rPr>
@@ -1662,19 +1658,21 @@
         <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
         <family val="0"/>
-        <charset val="1"/>
+        <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">봐요…</t>
+      <t xml:space="preserve">…</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="游ゴシック"/>
         <family val="0"/>
-        <charset val="1"/>
+        <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">,</t>
+      <t xml:space="preserve">했겠다</t>
     </r>
     <r>
       <rPr>
@@ -1682,10 +1680,37 @@
         <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
         <family val="0"/>
-        <charset val="1"/>
+        <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">보세요…</t>
+      <t xml:space="preserve">…</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">돼…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">와…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">알아…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지만…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">거야…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">봐…</t>
   </si>
   <si>
     <t xml:space="preserve">이야…</t>
@@ -1729,36 +1754,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">질게…</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">질게요…</t>
-    </r>
+    <t xml:space="preserve">질게…</t>
   </si>
   <si>
     <r>
@@ -1828,36 +1824,7 @@
     <t xml:space="preserve">텐데…</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">둬…</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">둬요…</t>
-    </r>
+    <t xml:space="preserve">둬…</t>
   </si>
   <si>
     <t xml:space="preserve">저기…,어이…,응…</t>
@@ -2159,6 +2126,10 @@
 첩을,나를</t>
   </si>
   <si>
+    <t xml:space="preserve">본인을
+첩을,날</t>
+  </si>
+  <si>
     <t xml:space="preserve">본인의
 첩의,내</t>
   </si>
@@ -2240,6 +2211,9 @@
   </si>
   <si>
     <t xml:space="preserve">하거라</t>
+  </si>
+  <si>
+    <t xml:space="preserve">했느니라,했도다</t>
   </si>
   <si>
     <t xml:space="preserve">되느니라,된다</t>
@@ -2511,6 +2485,10 @@
 소인을,저를</t>
   </si>
   <si>
+    <t xml:space="preserve">소인을,소생을
+소인을,절</t>
+  </si>
+  <si>
     <t xml:space="preserve">소인의,소생의
 소인의,저의</t>
   </si>
@@ -2644,6 +2622,14 @@
   <si>
     <t xml:space="preserve">하시오
 하십시오</t>
+  </si>
+  <si>
+    <t xml:space="preserve">했소,하셨소
+하셨사옵니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하시는구려,하시는구료
+하시는군요</t>
   </si>
   <si>
     <t xml:space="preserve">되오
@@ -2921,6 +2907,12 @@
     <t xml:space="preserve">하십쇼</t>
   </si>
   <si>
+    <t xml:space="preserve">했슴다,하셨슴다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하셨지 말임다</t>
+  </si>
+  <si>
     <t xml:space="preserve">됨다</t>
   </si>
   <si>
@@ -3030,6 +3022,9 @@
   </si>
   <si>
     <t xml:space="preserve">뮤-를,나를</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뮤-를,날</t>
   </si>
   <si>
     <t xml:space="preserve">뮤-의,내</t>
@@ -3230,6 +3225,12 @@
       </rPr>
       <t xml:space="preserve">해라냐</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">했다냐아-,했다먀-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">했겠다냐-</t>
   </si>
   <si>
     <r>
@@ -4356,6 +4357,12 @@
     <t xml:space="preserve">하는 것이에요</t>
   </si>
   <si>
+    <t xml:space="preserve">하신 것이에요</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하시네요</t>
+  </si>
+  <si>
     <t xml:space="preserve">되는 것이에요</t>
   </si>
   <si>
@@ -4458,6 +4465,10 @@
 소녀를</t>
   </si>
   <si>
+    <t xml:space="preserve">절
+소녀를</t>
+  </si>
+  <si>
     <t xml:space="preserve">저의
 소녀의</t>
   </si>
@@ -4560,6 +4571,14 @@
   <si>
     <t xml:space="preserve">하십시오
 하시와요</t>
+  </si>
+  <si>
+    <t xml:space="preserve">했습니다
+하셨사와요</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하시는군요
+하시네요</t>
   </si>
   <si>
     <t xml:space="preserve">됩니다
@@ -4858,6 +4877,12 @@
     <t xml:space="preserve">페코해라,해라페코</t>
   </si>
   <si>
+    <t xml:space="preserve">했다페코</t>
+  </si>
+  <si>
+    <t xml:space="preserve">했겠다페코</t>
+  </si>
+  <si>
     <t xml:space="preserve">된다페코</t>
   </si>
   <si>
@@ -5127,6 +5152,9 @@
     <t xml:space="preserve">하셰요</t>
   </si>
   <si>
+    <t xml:space="preserve">하셨셔요</t>
+  </si>
+  <si>
     <t xml:space="preserve">돼요</t>
   </si>
   <si>
@@ -5336,6 +5364,9 @@
     <t xml:space="preserve">뉴-를,나를</t>
   </si>
   <si>
+    <t xml:space="preserve">뉴-를,날</t>
+  </si>
+  <si>
     <t xml:space="preserve">뉴-의,내</t>
   </si>
   <si>
@@ -5427,6 +5458,12 @@
   </si>
   <si>
     <t xml:space="preserve">해라뉴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">했어뉴우-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">했겠다뉴-</t>
   </si>
   <si>
     <t xml:space="preserve">된다뉴우</t>
@@ -5533,7 +5570,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5602,6 +5639,20 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="0"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS PGothic"/>
+      <family val="0"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
@@ -5616,7 +5667,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="0"/>
@@ -5713,7 +5764,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5758,19 +5809,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5782,27 +5837,27 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5995,32 +6050,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CB1000"/>
+  <dimension ref="A1:CE1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="BW1" activeCellId="0" sqref="BW1"/>
+      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CC20" activeCellId="0" sqref="CC20"/>
+      <selection pane="bottomRight" activeCell="P27" activeCellId="0" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="1" width="30.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="15" style="1" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="64" style="1" width="31.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="70" style="1" width="48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="1" width="35.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="1" width="39.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="1" width="44.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="1" width="38.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="6" style="1" width="30.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="16" style="1" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="67" style="1" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="73" style="1" width="48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="1" width="35.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="1" width="39.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="1" width="44.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="1" width="38.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6063,7 +6118,7 @@
       <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -6249,20 +6304,29 @@
       <c r="BW1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BX1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BY1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="BZ1" s="5" t="s">
         <v>77</v>
       </c>
       <c r="CA1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="0" t="s">
+      <c r="CB1" s="1" t="s">
         <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6341,6 +6405,9 @@
       <c r="BU2" s="6"/>
       <c r="BV2" s="6"/>
       <c r="BW2" s="6"/>
+      <c r="BX2" s="6"/>
+      <c r="BY2" s="6"/>
+      <c r="BZ2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6"/>
@@ -6418,6 +6485,9 @@
       <c r="BU3" s="6"/>
       <c r="BV3" s="6"/>
       <c r="BW3" s="6"/>
+      <c r="BX3" s="6"/>
+      <c r="BY3" s="6"/>
+      <c r="BZ3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
@@ -6495,23 +6565,26 @@
       <c r="BU4" s="6"/>
       <c r="BV4" s="6"/>
       <c r="BW4" s="6"/>
+      <c r="BX4" s="6"/>
+      <c r="BY4" s="6"/>
+      <c r="BZ4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>6</v>
@@ -6523,10 +6596,10 @@
         <v>8</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>11</v>
@@ -6534,14 +6607,14 @@
       <c r="M5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>16</v>
@@ -6562,28 +6635,28 @@
         <v>21</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="AB5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="AE5" s="5" t="s">
         <v>30</v>
@@ -6607,10 +6680,10 @@
         <v>36</v>
       </c>
       <c r="AL5" s="5" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="AM5" s="5" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AN5" s="5" t="s">
         <v>39</v>
@@ -6619,19 +6692,19 @@
         <v>40</v>
       </c>
       <c r="AP5" s="5" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="AQ5" s="5" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="AR5" s="5" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="AS5" s="5" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="AT5" s="5" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="AU5" s="5" t="s">
         <v>46</v>
@@ -6652,7 +6725,7 @@
         <v>51</v>
       </c>
       <c r="BA5" s="5" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="BB5" s="5" t="s">
         <v>53</v>
@@ -6661,22 +6734,22 @@
         <v>54</v>
       </c>
       <c r="BD5" s="5" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="BE5" s="5" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="BF5" s="5" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="BG5" s="5" t="s">
         <v>58</v>
       </c>
       <c r="BH5" s="5" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="BI5" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="BJ5" s="5" t="s">
         <v>61</v>
@@ -6685,7 +6758,7 @@
         <v>62</v>
       </c>
       <c r="BL5" s="5" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="BM5" s="5" t="s">
         <v>64</v>
@@ -6700,337 +6773,355 @@
         <v>67</v>
       </c>
       <c r="BQ5" s="5" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="BR5" s="5" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="BS5" s="5" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="BT5" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BU5" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BV5" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BW5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="BX5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BY5" s="1" t="s">
+      <c r="BX5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="BZ5" s="1" t="s">
+      <c r="BY5" s="5" t="s">
         <v>108</v>
       </c>
+      <c r="BZ5" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="CA5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="CB5" s="0" t="s">
-        <v>79</v>
+        <v>110</v>
+      </c>
+      <c r="CB5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CC5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CD5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CE5" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AM6" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AP6" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AQ6" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AR6" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AS6" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AU6" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AY6" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AZ6" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="BA6" s="4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="BC6" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="BD6" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="BE6" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="BF6" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="BG6" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="BH6" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="BJ6" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="BK6" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="BL6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM6" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="BN6" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
+      </c>
+      <c r="BL6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BM6" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="BN6" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="BO6" s="5" t="s">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="BP6" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="BQ6" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="BR6" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BS6" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BT6" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
+      </c>
+      <c r="BT6" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="BU6" s="5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="BV6" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="BW6" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="BX6" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BY6" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="BZ6" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="BX6" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="BY6" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="BZ6" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="CA6" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="CB6" s="11" t="s">
-        <v>186</v>
+        <v>189</v>
+      </c>
+      <c r="CB6" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="CC6" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="CD6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CE6" s="10" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="9" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>199</v>
+        <v>205</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>19</v>
@@ -7042,196 +7133,205 @@
         <v>21</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>88</v>
+        <v>211</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>204</v>
+        <v>92</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c r="AF7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AG7" s="4" t="s">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>33</v>
+        <v>217</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>210</v>
+        <v>34</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AK7" s="4" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>214</v>
+        <v>39</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="AP7" s="4" t="s">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="AQ7" s="4" t="s">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c r="AR7" s="4" t="s">
-        <v>216</v>
+        <v>43</v>
       </c>
       <c r="AS7" s="4" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="AT7" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="AU7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU7" s="11" t="s">
         <v>46</v>
       </c>
       <c r="AV7" s="4" t="s">
-        <v>218</v>
+        <v>47</v>
       </c>
       <c r="AW7" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="AX7" s="4" t="s">
         <v>49</v>
       </c>
       <c r="AY7" s="4" t="s">
-        <v>50</v>
+        <v>226</v>
       </c>
       <c r="AZ7" s="4" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="BA7" s="4" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="BB7" s="4" t="s">
-        <v>221</v>
+        <v>53</v>
       </c>
       <c r="BC7" s="4" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="BD7" s="4" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="BE7" s="4" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="BF7" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="BG7" s="4" t="s">
-        <v>225</v>
+        <v>58</v>
       </c>
       <c r="BH7" s="4" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="BI7" s="4" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="BJ7" s="4" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="BK7" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="BL7" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="BM7" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="BN7" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
+      </c>
+      <c r="BL7" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="BM7" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="BN7" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="BO7" s="5" t="s">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c r="BP7" s="5" t="s">
-        <v>67</v>
+        <v>239</v>
       </c>
       <c r="BQ7" s="5" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BR7" s="5" t="s">
-        <v>234</v>
+        <v>69</v>
       </c>
       <c r="BS7" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="BT7" s="4" t="s">
-        <v>236</v>
+        <v>70</v>
+      </c>
+      <c r="BT7" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="BU7" s="5" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="BV7" s="5" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="BW7" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="BX7" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BY7" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="BZ7" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="BX7" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="BY7" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="BZ7" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="CA7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="CB7" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
+      </c>
+      <c r="CB7" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="CC7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="CD7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CE7" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="9" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>6</v>
@@ -7243,31 +7343,31 @@
         <v>8</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>252</v>
+        <v>258</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>18</v>
@@ -7282,78 +7382,78 @@
         <v>21</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>253</v>
+        <v>22</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>30</v>
+        <v>268</v>
       </c>
       <c r="AF8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>261</v>
+        <v>32</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>33</v>
+        <v>269</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>210</v>
+        <v>34</v>
       </c>
       <c r="AJ8" s="4" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="AK8" s="4" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="AN8" s="4" t="s">
         <v>39</v>
       </c>
       <c r="AO8" s="4" t="s">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="AP8" s="4" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="AQ8" s="4" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="AR8" s="4" t="s">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="AS8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AT8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU8" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="AU8" s="11" t="s">
         <v>46</v>
       </c>
       <c r="AV8" s="4" t="s">
@@ -7372,7 +7472,7 @@
         <v>51</v>
       </c>
       <c r="BA8" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB8" s="4" t="s">
         <v>53</v>
@@ -7381,97 +7481,106 @@
         <v>54</v>
       </c>
       <c r="BD8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BE8" s="4" t="s">
-        <v>267</v>
+        <v>56</v>
       </c>
       <c r="BF8" s="4" t="s">
-        <v>268</v>
+        <v>57</v>
       </c>
       <c r="BG8" s="4" t="s">
         <v>58</v>
       </c>
       <c r="BH8" s="4" t="s">
-        <v>59</v>
+        <v>276</v>
       </c>
       <c r="BI8" s="4" t="s">
-        <v>98</v>
+        <v>277</v>
       </c>
       <c r="BJ8" s="4" t="s">
-        <v>269</v>
+        <v>61</v>
       </c>
       <c r="BK8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BL8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="BM8" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="BN8" s="5" t="s">
-        <v>272</v>
+      <c r="BL8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM8" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="BN8" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="BO8" s="5" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="BP8" s="5" t="s">
-        <v>67</v>
+        <v>280</v>
       </c>
       <c r="BQ8" s="5" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="BR8" s="5" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="BS8" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="BT8" s="4" t="s">
-        <v>277</v>
+        <v>70</v>
+      </c>
+      <c r="BT8" s="5" t="s">
+        <v>283</v>
       </c>
       <c r="BU8" s="5" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="BV8" s="5" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="BW8" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="BX8" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="BY8" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="BZ8" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
+      </c>
+      <c r="BX8" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="BY8" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="BZ8" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="CA8" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="CB8" s="0" t="s">
-        <v>79</v>
+        <v>290</v>
+      </c>
+      <c r="CB8" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="CC8" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="CD8" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="CE8" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>6</v>
@@ -7482,11 +7591,11 @@
       <c r="I9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>85</v>
+      <c r="J9" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>11</v>
@@ -7495,703 +7604,730 @@
         <v>12</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>289</v>
+        <v>13</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="S9" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="X9" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y9" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z9" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA9" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB9" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC9" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD9" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE9" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG9" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="AH9" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="AI9" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="AJ9" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AK9" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="AL9" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="AM9" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="AN9" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="AO9" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="AP9" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="AQ9" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="AR9" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="AS9" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="AT9" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="AU9" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="AV9" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="AW9" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="AX9" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="AY9" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="AZ9" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="BA9" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="BB9" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="BC9" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="BD9" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="BE9" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="BF9" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="BG9" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="BH9" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="BI9" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="BJ9" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="BK9" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="BL9" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="BM9" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="BN9" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="BO9" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="BP9" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="BQ9" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="BR9" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="BS9" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="BT9" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="BU9" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="BV9" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="BW9" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="BX9" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="BY9" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="BZ9" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="CA9" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="CB9" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="CC9" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="CD9" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="T9" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="W9" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="X9" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y9" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="Z9" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="AA9" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="AB9" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="AC9" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD9" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="AE9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF9" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG9" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="AH9" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="AI9" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="AJ9" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="AK9" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="AL9" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="AM9" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AN9" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="AO9" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="AP9" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="AQ9" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="AR9" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="AS9" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="AT9" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="AU9" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="AV9" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="AW9" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="AX9" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="AY9" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="AZ9" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="BA9" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="BB9" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="BC9" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="BD9" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="BE9" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="BF9" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="BG9" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="BH9" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="BI9" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="BJ9" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="BK9" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="BL9" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="BM9" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="BN9" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="BO9" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="BP9" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="BQ9" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="BR9" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="BS9" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="BT9" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="BU9" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="BV9" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="BW9" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="BX9" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="BY9" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="BZ9" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="CA9" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="CB9" s="0" t="s">
-        <v>349</v>
+      <c r="CE9" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="9" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>18</v>
+        <v>376</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>365</v>
+        <v>19</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>20</v>
+        <v>377</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>366</v>
+        <v>22</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>28</v>
+        <v>383</v>
       </c>
       <c r="AD10" s="5" t="s">
-        <v>372</v>
+        <v>29</v>
       </c>
       <c r="AE10" s="5" t="s">
-        <v>30</v>
+        <v>384</v>
       </c>
       <c r="AF10" s="5" t="s">
-        <v>373</v>
+        <v>31</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="AH10" s="5" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="AI10" s="5" t="s">
-        <v>34</v>
+        <v>387</v>
       </c>
       <c r="AJ10" s="5" t="s">
-        <v>376</v>
+        <v>35</v>
       </c>
       <c r="AK10" s="5" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="AL10" s="5" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="AM10" s="5" t="s">
-        <v>38</v>
+        <v>390</v>
       </c>
       <c r="AN10" s="5" t="s">
-        <v>379</v>
+        <v>39</v>
       </c>
       <c r="AO10" s="5" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="AP10" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="AQ10" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="AR10" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="AS10" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="AT10" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="AU10" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="AV10" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="AQ10" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="AR10" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="AS10" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="AT10" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="AU10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV10" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="AW10" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="AX10" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="AY10" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="AZ10" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="BA10" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="BB10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC10" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="BD10" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="BE10" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="AW10" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="AX10" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="AY10" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ10" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="BA10" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="BB10" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="BC10" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="BD10" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="BE10" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="BF10" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="BG10" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="BH10" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="BI10" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="BJ10" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="BK10" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="BL10" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="BM10" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="BN10" s="5" t="s">
-        <v>402</v>
+      <c r="BF10" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="BG10" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="BH10" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="BI10" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="BJ10" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="BK10" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="BL10" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="BM10" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="BN10" s="15" t="s">
+        <v>412</v>
       </c>
       <c r="BO10" s="5" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="BP10" s="5" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="BQ10" s="5" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="BR10" s="5" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="BS10" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="BT10" s="4" t="s">
-        <v>408</v>
+        <v>417</v>
+      </c>
+      <c r="BT10" s="5" t="s">
+        <v>418</v>
       </c>
       <c r="BU10" s="5" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="BV10" s="5" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="BW10" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="BX10" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="BY10" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="BZ10" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="CA10" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="CB10" s="0" t="s">
-        <v>416</v>
+        <v>421</v>
+      </c>
+      <c r="BX10" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="BY10" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="BZ10" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="CA10" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="CB10" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="CC10" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="CD10" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="CE10" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="9" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>430</v>
+        <v>442</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="AG11" s="4" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="AH11" s="4" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="AI11" s="4" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="AJ11" s="4" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="AK11" s="4" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="AL11" s="4" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="AM11" s="4" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="AO11" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="AP11" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="AQ11" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="AR11" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="AS11" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="AT11" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="AU11" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="AV11" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="AW11" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="AX11" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="AY11" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="AZ11" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BA11" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="BB11" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="BC11" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="BD11" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="BE11" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="BF11" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="BG11" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="BH11" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="BI11" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="BJ11" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="BK11" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="BL11" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="AP11" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="AQ11" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="AR11" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="AS11" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="AT11" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="AU11" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="AV11" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="AW11" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="AX11" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="AY11" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="AZ11" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="BA11" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="BB11" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="BC11" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="BD11" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="BE11" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="BF11" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="BG11" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="BH11" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="BI11" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="BJ11" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="BK11" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="BL11" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="BM11" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="BN11" s="5" t="s">
-        <v>479</v>
+      <c r="BM11" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="BN11" s="4" t="s">
+        <v>492</v>
       </c>
       <c r="BO11" s="5" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="BP11" s="5" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="BQ11" s="5" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="BR11" s="5" t="s">
-        <v>69</v>
+        <v>496</v>
       </c>
       <c r="BS11" s="5" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="BT11" s="5" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="BU11" s="5" t="s">
-        <v>485</v>
+        <v>72</v>
       </c>
       <c r="BV11" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="BW11" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="BX11" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="BY11" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="BZ11" s="10" t="s">
-        <v>490</v>
+        <v>499</v>
+      </c>
+      <c r="BW11" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="BX11" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="BY11" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="BZ11" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="CA11" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="CB11" s="11" t="s">
-        <v>492</v>
+        <v>504</v>
+      </c>
+      <c r="CB11" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="CC11" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="CD11" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="CE11" s="10" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="9" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>6</v>
@@ -8203,1310 +8339,1355 @@
         <v>8</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>496</v>
+        <v>126</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>20</v>
+        <v>518</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>503</v>
+        <v>135</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="AD12" s="5" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="AE12" s="5" t="s">
-        <v>30</v>
+        <v>526</v>
       </c>
       <c r="AF12" s="5" t="s">
-        <v>511</v>
+        <v>31</v>
       </c>
       <c r="AG12" s="5" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="AH12" s="5" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="AI12" s="5" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="AJ12" s="5" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="AK12" s="5" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="AL12" s="5" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="AM12" s="5" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="AN12" s="5" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="AO12" s="5" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="AP12" s="5" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="AQ12" s="5" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="AR12" s="5" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="AS12" s="5" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="AT12" s="5" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="AU12" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="AV12" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="AW12" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="AX12" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="AY12" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="AV12" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="AW12" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="AX12" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="AY12" s="5" t="s">
-        <v>528</v>
-      </c>
       <c r="AZ12" s="5" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="BA12" s="5" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="BB12" s="5" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="BC12" s="5" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="BD12" s="5" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="BE12" s="5" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="BF12" s="5" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="BG12" s="5" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="BH12" s="5" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="BI12" s="5" t="s">
-        <v>60</v>
+        <v>553</v>
       </c>
       <c r="BJ12" s="5" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="BK12" s="5" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="BL12" s="5" t="s">
-        <v>540</v>
+        <v>63</v>
       </c>
       <c r="BM12" s="5" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="BN12" s="5" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="BO12" s="5" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="BP12" s="5" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="BQ12" s="5" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="BR12" s="5" t="s">
-        <v>234</v>
+        <v>561</v>
       </c>
       <c r="BS12" s="5" t="s">
-        <v>235</v>
+        <v>562</v>
       </c>
       <c r="BT12" s="5" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="BU12" s="5" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="BV12" s="5" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="BW12" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="BX12" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="BY12" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="BZ12" s="1" t="s">
-        <v>550</v>
+        <v>564</v>
+      </c>
+      <c r="BX12" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="BY12" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="BZ12" s="5" t="s">
+        <v>565</v>
       </c>
       <c r="CA12" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="CB12" s="0" t="s">
-        <v>552</v>
+        <v>566</v>
+      </c>
+      <c r="CB12" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="CC12" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="CD12" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="CE12" s="1" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="9" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>565</v>
+        <v>582</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>583</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>579</v>
+        <v>597</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>30</v>
+        <v>599</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>581</v>
+        <v>31</v>
       </c>
       <c r="AG13" s="4" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="AH13" s="4" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
       <c r="AI13" s="4" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="AJ13" s="4" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="AK13" s="4" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="AL13" s="4" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="AM13" s="4" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="AN13" s="4" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="AO13" s="4" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
       <c r="AP13" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="AQ13" s="12" t="s">
-        <v>592</v>
-      </c>
-      <c r="AR13" s="12" t="s">
-        <v>593</v>
-      </c>
-      <c r="AS13" s="12" t="s">
-        <v>594</v>
-      </c>
-      <c r="AT13" s="12" t="s">
-        <v>595</v>
-      </c>
-      <c r="AU13" s="12" t="s">
-        <v>596</v>
-      </c>
-      <c r="AV13" s="12" t="s">
-        <v>597</v>
-      </c>
-      <c r="AW13" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="AX13" s="12" t="s">
-        <v>599</v>
-      </c>
-      <c r="AY13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ13" s="12" t="s">
-        <v>600</v>
-      </c>
-      <c r="BA13" s="12" t="s">
-        <v>601</v>
-      </c>
-      <c r="BB13" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="BC13" s="12" t="s">
-        <v>603</v>
-      </c>
-      <c r="BD13" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="BE13" s="12" t="s">
-        <v>605</v>
-      </c>
-      <c r="BF13" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="BG13" s="12" t="s">
-        <v>607</v>
-      </c>
-      <c r="BH13" s="12" t="s">
-        <v>608</v>
-      </c>
-      <c r="BI13" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="BJ13" s="12" t="s">
+      <c r="AQ13" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="BK13" s="12" t="s">
+      <c r="AR13" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="BL13" s="5" t="s">
+      <c r="AS13" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="BM13" s="5" t="s">
+      <c r="AT13" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="BN13" s="5" t="s">
+      <c r="AU13" s="13" t="s">
         <v>614</v>
       </c>
+      <c r="AV13" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="AW13" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="AX13" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="AY13" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="AZ13" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="BA13" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="BB13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC13" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="BD13" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="BE13" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="BF13" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="BG13" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="BH13" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="BI13" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="BJ13" s="13" t="s">
+        <v>628</v>
+      </c>
+      <c r="BK13" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="BL13" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="BM13" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="BN13" s="13" t="s">
+        <v>632</v>
+      </c>
       <c r="BO13" s="5" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="BP13" s="5" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="BQ13" s="5" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="BR13" s="5" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="BS13" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="BT13" s="4" t="s">
-        <v>620</v>
+        <v>637</v>
+      </c>
+      <c r="BT13" s="5" t="s">
+        <v>638</v>
       </c>
       <c r="BU13" s="5" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="BV13" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="BW13" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="BX13" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="BY13" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="BZ13" s="1" t="s">
-        <v>626</v>
+        <v>640</v>
+      </c>
+      <c r="BW13" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="BX13" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="BY13" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="BZ13" s="5" t="s">
+        <v>644</v>
       </c>
       <c r="CA13" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="CB13" s="0" t="s">
-        <v>628</v>
+        <v>645</v>
+      </c>
+      <c r="CB13" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="CC13" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="CD13" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="CE13" s="1" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>630</v>
+        <v>650</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>651</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="17" t="s">
-        <v>631</v>
+      <c r="D14" s="18" t="s">
+        <v>652</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>632</v>
+        <v>121</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>119</v>
+        <v>653</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>633</v>
+        <v>126</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>633</v>
+        <v>654</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>636</v>
+        <v>656</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>501</v>
+        <v>657</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>128</v>
+        <v>517</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>637</v>
+        <v>135</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>639</v>
+        <v>659</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>507</v>
+        <v>661</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>641</v>
+        <v>523</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>642</v>
+        <v>662</v>
       </c>
       <c r="AD14" s="4" t="s">
-        <v>643</v>
+        <v>663</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>30</v>
+        <v>664</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>644</v>
+        <v>31</v>
       </c>
       <c r="AG14" s="4" t="s">
-        <v>645</v>
+        <v>665</v>
       </c>
       <c r="AH14" s="4" t="s">
-        <v>646</v>
+        <v>666</v>
       </c>
       <c r="AI14" s="4" t="s">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="AJ14" s="4" t="s">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="AK14" s="4" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
       <c r="AL14" s="4" t="s">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="AM14" s="4" t="s">
-        <v>518</v>
+        <v>671</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>651</v>
+        <v>534</v>
       </c>
       <c r="AO14" s="4" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="AP14" s="4" t="s">
-        <v>653</v>
+        <v>673</v>
       </c>
       <c r="AQ14" s="4" t="s">
-        <v>653</v>
+        <v>674</v>
       </c>
       <c r="AR14" s="4" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="AS14" s="4" t="s">
-        <v>655</v>
+        <v>675</v>
       </c>
       <c r="AT14" s="4" t="s">
-        <v>656</v>
+        <v>676</v>
       </c>
       <c r="AU14" s="4" t="s">
-        <v>642</v>
+        <v>677</v>
       </c>
       <c r="AV14" s="4" t="s">
-        <v>657</v>
+        <v>678</v>
       </c>
       <c r="AW14" s="4" t="s">
-        <v>658</v>
+        <v>679</v>
       </c>
       <c r="AX14" s="4" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="AY14" s="4" t="s">
-        <v>50</v>
+        <v>680</v>
       </c>
       <c r="AZ14" s="4" t="s">
-        <v>660</v>
+        <v>681</v>
       </c>
       <c r="BA14" s="4" t="s">
-        <v>661</v>
+        <v>682</v>
       </c>
       <c r="BB14" s="4" t="s">
-        <v>662</v>
+        <v>53</v>
       </c>
       <c r="BC14" s="4" t="s">
-        <v>663</v>
+        <v>683</v>
       </c>
       <c r="BD14" s="4" t="s">
-        <v>664</v>
+        <v>684</v>
       </c>
       <c r="BE14" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="BF14" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="BG14" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="BH14" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="BI14" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="BJ14" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="BF14" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="BG14" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="BH14" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="BI14" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="BJ14" s="4" t="s">
-        <v>668</v>
-      </c>
       <c r="BK14" s="4" t="s">
-        <v>669</v>
+        <v>690</v>
       </c>
       <c r="BL14" s="4" t="s">
-        <v>63</v>
+        <v>683</v>
       </c>
       <c r="BM14" s="4" t="s">
-        <v>670</v>
+        <v>691</v>
       </c>
       <c r="BN14" s="4" t="s">
-        <v>671</v>
+        <v>692</v>
       </c>
       <c r="BO14" s="4" t="s">
-        <v>672</v>
+        <v>66</v>
       </c>
       <c r="BP14" s="4" t="s">
-        <v>673</v>
+        <v>693</v>
       </c>
       <c r="BQ14" s="4" t="s">
-        <v>674</v>
+        <v>694</v>
       </c>
       <c r="BR14" s="4" t="s">
-        <v>675</v>
+        <v>695</v>
       </c>
       <c r="BS14" s="4" t="s">
-        <v>676</v>
+        <v>696</v>
       </c>
       <c r="BT14" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="BU14" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="BV14" s="5" t="s">
-        <v>180</v>
+        <v>697</v>
+      </c>
+      <c r="BU14" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="BV14" s="4" t="s">
+        <v>699</v>
       </c>
       <c r="BW14" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="BX14" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="BY14" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="BZ14" s="1" t="s">
-        <v>681</v>
+        <v>700</v>
+      </c>
+      <c r="BX14" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="BY14" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="BZ14" s="4" t="s">
+        <v>701</v>
       </c>
       <c r="CA14" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="CB14" s="0" t="s">
-        <v>682</v>
+        <v>702</v>
+      </c>
+      <c r="CB14" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="CC14" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="CD14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CE14" s="1" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>683</v>
+        <v>706</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>684</v>
+        <v>707</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="9" t="s">
-        <v>631</v>
+        <v>652</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>685</v>
+        <v>708</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>686</v>
+        <v>709</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>687</v>
+        <v>710</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>688</v>
+        <v>711</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>689</v>
+        <v>712</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>120</v>
+        <v>713</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>691</v>
+        <v>126</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>714</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>692</v>
+        <v>715</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>693</v>
+        <v>716</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>694</v>
+        <v>717</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>695</v>
+        <v>718</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>128</v>
+        <v>719</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>696</v>
+        <v>135</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>697</v>
+        <v>720</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>698</v>
+        <v>721</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>699</v>
+        <v>722</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>135</v>
+        <v>723</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>700</v>
+        <v>140</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>701</v>
+        <v>724</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>702</v>
+        <v>725</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>139</v>
+        <v>726</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>703</v>
+        <v>144</v>
       </c>
       <c r="AG15" s="4" t="s">
-        <v>704</v>
+        <v>727</v>
       </c>
       <c r="AH15" s="4" t="s">
-        <v>705</v>
+        <v>728</v>
       </c>
       <c r="AI15" s="4" t="s">
-        <v>706</v>
+        <v>729</v>
       </c>
       <c r="AJ15" s="4" t="s">
-        <v>707</v>
+        <v>730</v>
       </c>
       <c r="AK15" s="4" t="s">
-        <v>708</v>
+        <v>731</v>
       </c>
       <c r="AL15" s="4" t="s">
-        <v>650</v>
+        <v>732</v>
       </c>
       <c r="AM15" s="4" t="s">
-        <v>709</v>
+        <v>671</v>
       </c>
       <c r="AN15" s="4" t="s">
-        <v>710</v>
+        <v>733</v>
       </c>
       <c r="AO15" s="4" t="s">
-        <v>711</v>
+        <v>734</v>
       </c>
       <c r="AP15" s="4" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
       <c r="AQ15" s="4" t="s">
-        <v>712</v>
+        <v>736</v>
       </c>
       <c r="AR15" s="4" t="s">
-        <v>713</v>
+        <v>736</v>
       </c>
       <c r="AS15" s="4" t="s">
-        <v>714</v>
+        <v>737</v>
       </c>
       <c r="AT15" s="4" t="s">
-        <v>715</v>
+        <v>738</v>
       </c>
       <c r="AU15" s="4" t="s">
-        <v>716</v>
+        <v>739</v>
       </c>
       <c r="AV15" s="4" t="s">
-        <v>717</v>
+        <v>740</v>
       </c>
       <c r="AW15" s="4" t="s">
-        <v>718</v>
+        <v>741</v>
       </c>
       <c r="AX15" s="4" t="s">
-        <v>719</v>
+        <v>742</v>
       </c>
       <c r="AY15" s="4" t="s">
-        <v>50</v>
+        <v>743</v>
       </c>
       <c r="AZ15" s="4" t="s">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="BA15" s="4" t="s">
-        <v>721</v>
+        <v>745</v>
       </c>
       <c r="BB15" s="4" t="s">
-        <v>722</v>
+        <v>53</v>
       </c>
       <c r="BC15" s="4" t="s">
-        <v>723</v>
+        <v>746</v>
       </c>
       <c r="BD15" s="4" t="s">
-        <v>724</v>
+        <v>747</v>
       </c>
       <c r="BE15" s="4" t="s">
-        <v>725</v>
+        <v>748</v>
       </c>
       <c r="BF15" s="4" t="s">
-        <v>726</v>
+        <v>749</v>
       </c>
       <c r="BG15" s="4" t="s">
-        <v>727</v>
+        <v>750</v>
       </c>
       <c r="BH15" s="4" t="s">
-        <v>728</v>
+        <v>751</v>
       </c>
       <c r="BI15" s="4" t="s">
-        <v>729</v>
+        <v>752</v>
       </c>
       <c r="BJ15" s="4" t="s">
-        <v>730</v>
+        <v>753</v>
       </c>
       <c r="BK15" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="BL15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM15" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="BN15" s="5" t="s">
-        <v>733</v>
+        <v>754</v>
+      </c>
+      <c r="BL15" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="BM15" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="BN15" s="4" t="s">
+        <v>757</v>
       </c>
       <c r="BO15" s="5" t="s">
-        <v>734</v>
+        <v>66</v>
       </c>
       <c r="BP15" s="5" t="s">
-        <v>735</v>
+        <v>758</v>
       </c>
       <c r="BQ15" s="5" t="s">
-        <v>736</v>
+        <v>759</v>
       </c>
       <c r="BR15" s="5" t="s">
-        <v>737</v>
+        <v>760</v>
       </c>
       <c r="BS15" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="BT15" s="4" t="s">
-        <v>739</v>
+        <v>761</v>
+      </c>
+      <c r="BT15" s="5" t="s">
+        <v>762</v>
       </c>
       <c r="BU15" s="5" t="s">
-        <v>179</v>
+        <v>763</v>
       </c>
       <c r="BV15" s="5" t="s">
-        <v>180</v>
+        <v>764</v>
       </c>
       <c r="BW15" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="BX15" s="10" t="s">
-        <v>741</v>
-      </c>
-      <c r="BY15" s="10" t="s">
-        <v>742</v>
-      </c>
-      <c r="BZ15" s="10" t="s">
-        <v>743</v>
+        <v>765</v>
+      </c>
+      <c r="BX15" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="BY15" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="BZ15" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="CA15" s="10" t="s">
-        <v>744</v>
-      </c>
-      <c r="CB15" s="11" t="s">
-        <v>745</v>
+        <v>767</v>
+      </c>
+      <c r="CB15" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="CC15" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="CD15" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="CE15" s="10" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>746</v>
+        <v>772</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>747</v>
+        <v>773</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>749</v>
+        <v>774</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>775</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>750</v>
+        <v>776</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>751</v>
+        <v>777</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>752</v>
+        <v>778</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>753</v>
+        <v>779</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>754</v>
+        <v>779</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>755</v>
+        <v>780</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>11</v>
+        <v>781</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>756</v>
+        <v>13</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>757</v>
+        <v>782</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>758</v>
+        <v>783</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>759</v>
+        <v>784</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>760</v>
+        <v>785</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>761</v>
+        <v>786</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>762</v>
+        <v>787</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>763</v>
+        <v>788</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>764</v>
+        <v>789</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>765</v>
+        <v>790</v>
       </c>
       <c r="X16" s="6" t="s">
-        <v>766</v>
+        <v>791</v>
       </c>
       <c r="Y16" s="6" t="s">
-        <v>767</v>
+        <v>792</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>768</v>
+        <v>793</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>769</v>
+        <v>794</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>770</v>
+        <v>795</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>771</v>
+        <v>796</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>772</v>
+        <v>797</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>30</v>
+        <v>798</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>773</v>
+        <v>31</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>774</v>
+        <v>799</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>775</v>
+        <v>800</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>776</v>
+        <v>801</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>777</v>
+        <v>802</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>778</v>
+        <v>803</v>
       </c>
       <c r="AL16" s="6" t="s">
-        <v>779</v>
+        <v>804</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>780</v>
+        <v>805</v>
       </c>
       <c r="AN16" s="6" t="s">
-        <v>781</v>
+        <v>806</v>
       </c>
       <c r="AO16" s="6" t="s">
-        <v>782</v>
+        <v>807</v>
       </c>
       <c r="AP16" s="6" t="s">
-        <v>783</v>
+        <v>808</v>
       </c>
       <c r="AQ16" s="6" t="s">
-        <v>784</v>
+        <v>809</v>
       </c>
       <c r="AR16" s="6" t="s">
-        <v>785</v>
+        <v>810</v>
       </c>
       <c r="AS16" s="6" t="s">
-        <v>786</v>
+        <v>811</v>
       </c>
       <c r="AT16" s="6" t="s">
-        <v>787</v>
+        <v>812</v>
       </c>
       <c r="AU16" s="6" t="s">
-        <v>788</v>
+        <v>813</v>
       </c>
       <c r="AV16" s="6" t="s">
-        <v>789</v>
+        <v>814</v>
       </c>
       <c r="AW16" s="6" t="s">
-        <v>790</v>
+        <v>815</v>
       </c>
       <c r="AX16" s="6" t="s">
-        <v>791</v>
+        <v>816</v>
       </c>
       <c r="AY16" s="6" t="s">
-        <v>50</v>
+        <v>817</v>
       </c>
       <c r="AZ16" s="6" t="s">
-        <v>792</v>
+        <v>818</v>
       </c>
       <c r="BA16" s="6" t="s">
-        <v>793</v>
+        <v>819</v>
       </c>
       <c r="BB16" s="6" t="s">
-        <v>794</v>
+        <v>53</v>
       </c>
       <c r="BC16" s="6" t="s">
-        <v>795</v>
+        <v>820</v>
       </c>
       <c r="BD16" s="6" t="s">
-        <v>796</v>
+        <v>821</v>
       </c>
       <c r="BE16" s="6" t="s">
-        <v>797</v>
+        <v>822</v>
       </c>
       <c r="BF16" s="6" t="s">
-        <v>798</v>
+        <v>823</v>
       </c>
       <c r="BG16" s="6" t="s">
-        <v>799</v>
+        <v>824</v>
       </c>
       <c r="BH16" s="6" t="s">
-        <v>800</v>
+        <v>825</v>
       </c>
       <c r="BI16" s="6" t="s">
-        <v>801</v>
+        <v>826</v>
       </c>
       <c r="BJ16" s="6" t="s">
-        <v>802</v>
+        <v>827</v>
       </c>
       <c r="BK16" s="6" t="s">
-        <v>803</v>
-      </c>
-      <c r="BL16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM16" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="BN16" s="5" t="s">
-        <v>805</v>
+        <v>828</v>
+      </c>
+      <c r="BL16" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="BM16" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="BN16" s="6" t="s">
+        <v>831</v>
       </c>
       <c r="BO16" s="5" t="s">
-        <v>806</v>
+        <v>66</v>
       </c>
       <c r="BP16" s="5" t="s">
-        <v>807</v>
+        <v>832</v>
       </c>
       <c r="BQ16" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="BR16" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="BS16" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="BT16" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="BU16" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="BV16" s="6" t="s">
-        <v>811</v>
+        <v>833</v>
+      </c>
+      <c r="BR16" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="BS16" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="BT16" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="BU16" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="BV16" s="4" t="s">
+        <v>837</v>
       </c>
       <c r="BW16" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="BX16" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="BY16" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="BZ16" s="1" t="s">
-        <v>815</v>
+        <v>838</v>
+      </c>
+      <c r="BX16" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="BY16" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="BZ16" s="6" t="s">
+        <v>840</v>
       </c>
       <c r="CA16" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="CB16" s="0" t="s">
-        <v>817</v>
+        <v>841</v>
+      </c>
+      <c r="CB16" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="CC16" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="CD16" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="CE16" s="1" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>818</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>818</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>748</v>
+        <v>846</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>846</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>774</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>819</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>820</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="G17" s="19" t="s">
+        <v>847</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>848</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="G17" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="20" t="s">
-        <v>821</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>822</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>823</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>824</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="N17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="P17" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q17" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="R17" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="S17" s="19" t="s">
+      <c r="H17" s="21" t="s">
+        <v>849</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>850</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>850</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>851</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>852</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="S17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="T17" s="19" t="s">
+      <c r="T17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="U17" s="19" t="s">
+      <c r="U17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="V17" s="19" t="s">
+      <c r="V17" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="W17" s="19" t="s">
+      <c r="W17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="X17" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y17" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z17" s="19" t="s">
-        <v>825</v>
-      </c>
-      <c r="AA17" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB17" s="19" t="s">
+      <c r="X17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y17" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA17" s="20" t="s">
+        <v>853</v>
+      </c>
+      <c r="AB17" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AC17" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD17" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE17" s="19" t="s">
+      <c r="AC17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD17" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE17" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="AF17" s="19" t="s">
+      <c r="AF17" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AG17" s="19" t="s">
+      <c r="AG17" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="AH17" s="19" t="s">
+      <c r="AH17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="AI17" s="1" t="s">
-        <v>32</v>
+      <c r="AI17" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AL17" s="1" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="AM17" s="1" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AN17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO17" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="AP17" s="1" t="s">
-        <v>42</v>
+      <c r="AO17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP17" s="20" t="s">
+        <v>273</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AR17" s="1" t="s">
         <v>43</v>
@@ -9515,7 +9696,7 @@
         <v>44</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="AU17" s="1" t="s">
         <v>46</v>
@@ -9548,7 +9729,7 @@
         <v>55</v>
       </c>
       <c r="BE17" s="1" t="s">
-        <v>267</v>
+        <v>56</v>
       </c>
       <c r="BF17" s="1" t="s">
         <v>57</v>
@@ -9557,7 +9738,7 @@
         <v>58</v>
       </c>
       <c r="BH17" s="1" t="s">
-        <v>59</v>
+        <v>276</v>
       </c>
       <c r="BI17" s="1" t="s">
         <v>60</v>
@@ -9568,438 +9749,456 @@
       <c r="BK17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL17" s="19" t="s">
-        <v>826</v>
+      <c r="BL17" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="BM17" s="1" t="s">
         <v>64</v>
       </c>
       <c r="BN17" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BO17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="BO17" s="20" t="s">
+        <v>854</v>
       </c>
       <c r="BP17" s="1" t="s">
         <v>67</v>
       </c>
       <c r="BQ17" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="BR17" s="19" t="s">
-        <v>828</v>
+        <v>240</v>
+      </c>
+      <c r="BR17" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="BS17" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="BT17" s="19" t="s">
-        <v>830</v>
-      </c>
-      <c r="BU17" s="19" t="s">
-        <v>831</v>
-      </c>
-      <c r="BV17" s="19" t="s">
-        <v>832</v>
-      </c>
-      <c r="BW17" s="19" t="s">
-        <v>833</v>
-      </c>
-      <c r="BX17" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="BY17" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="BZ17" s="1" t="s">
-        <v>283</v>
+        <v>70</v>
+      </c>
+      <c r="BT17" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="BU17" s="20" t="s">
+        <v>856</v>
+      </c>
+      <c r="BV17" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="BW17" s="20" t="s">
+        <v>858</v>
+      </c>
+      <c r="BX17" s="20" t="s">
+        <v>859</v>
+      </c>
+      <c r="BY17" s="20" t="s">
+        <v>860</v>
+      </c>
+      <c r="BZ17" s="20" t="s">
+        <v>861</v>
       </c>
       <c r="CA17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB17" s="0" t="s">
-        <v>79</v>
+        <v>862</v>
+      </c>
+      <c r="CB17" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="CC17" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="CD17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE17" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
-        <v>836</v>
-      </c>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="19" t="s">
+        <v>864</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>865</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>774</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>847</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>866</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>867</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>868</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>868</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>869</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>870</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>871</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>872</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>873</v>
+      </c>
+      <c r="R18" s="19" t="s">
+        <v>874</v>
+      </c>
+      <c r="S18" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="T18" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="U18" s="19" t="s">
+        <v>875</v>
+      </c>
+      <c r="V18" s="19" t="s">
+        <v>876</v>
+      </c>
+      <c r="W18" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="X18" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="Y18" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="Z18" s="19" t="s">
+        <v>878</v>
+      </c>
+      <c r="AA18" s="19" t="s">
+        <v>879</v>
+      </c>
+      <c r="AB18" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="AC18" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="AD18" s="20" t="s">
+        <v>663</v>
+      </c>
+      <c r="AE18" s="19" t="s">
+        <v>881</v>
+      </c>
+      <c r="AF18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG18" s="19" t="s">
+        <v>882</v>
+      </c>
+      <c r="AH18" s="19" t="s">
+        <v>883</v>
+      </c>
+      <c r="AI18" s="19" t="s">
+        <v>884</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="AM18" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="AP18" s="19" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="AR18" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="AS18" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="AT18" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="AU18" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="AV18" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="AW18" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="AX18" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="AY18" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="AZ18" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="BA18" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="BB18" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="BC18" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="BD18" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="BE18" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="BF18" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="BG18" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="BH18" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="BI18" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="BJ18" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="BK18" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="BL18" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="BM18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN18" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="BO18" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP18" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="BQ18" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="BR18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS18" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="BT18" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="BU18" s="19" t="s">
+        <v>908</v>
+      </c>
+      <c r="BV18" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>748</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>819</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>838</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>840</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>841</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>842</v>
-      </c>
-      <c r="L18" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="M18" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>843</v>
-      </c>
-      <c r="O18" s="18" t="s">
-        <v>844</v>
-      </c>
-      <c r="P18" s="18" t="s">
-        <v>845</v>
-      </c>
-      <c r="Q18" s="18" t="s">
-        <v>846</v>
-      </c>
-      <c r="R18" s="18" t="s">
-        <v>636</v>
-      </c>
-      <c r="S18" s="18" t="s">
-        <v>501</v>
-      </c>
-      <c r="T18" s="18" t="s">
-        <v>847</v>
-      </c>
-      <c r="U18" s="18" t="s">
-        <v>848</v>
-      </c>
-      <c r="V18" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="W18" s="18" t="s">
-        <v>849</v>
-      </c>
-      <c r="X18" s="18" t="s">
-        <v>638</v>
-      </c>
-      <c r="Y18" s="18" t="s">
-        <v>850</v>
-      </c>
-      <c r="Z18" s="18" t="s">
-        <v>851</v>
-      </c>
-      <c r="AA18" s="18" t="s">
-        <v>507</v>
-      </c>
-      <c r="AB18" s="18" t="s">
-        <v>852</v>
-      </c>
-      <c r="AC18" s="19" t="s">
-        <v>642</v>
-      </c>
-      <c r="AD18" s="18" t="s">
-        <v>853</v>
-      </c>
-      <c r="AE18" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF18" s="18" t="s">
-        <v>854</v>
-      </c>
-      <c r="AG18" s="18" t="s">
-        <v>855</v>
-      </c>
-      <c r="AH18" s="18" t="s">
-        <v>856</v>
-      </c>
-      <c r="AI18" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="AJ18" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="AK18" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="AL18" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="AM18" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="AN18" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="AO18" s="18" t="s">
-        <v>860</v>
-      </c>
-      <c r="AP18" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="AQ18" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="AR18" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="AS18" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="AT18" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="AU18" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="AV18" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="AW18" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="AX18" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="AY18" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="AZ18" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="BA18" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="BB18" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="BC18" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="BD18" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="BE18" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="BF18" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="BG18" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="BH18" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="BI18" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="BJ18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK18" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="BL18" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM18" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="BN18" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="BO18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP18" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="BQ18" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="BR18" s="18" t="s">
-        <v>879</v>
-      </c>
-      <c r="BS18" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="BT18" s="18" t="s">
-        <v>880</v>
-      </c>
-      <c r="BU18" s="18" t="s">
-        <v>881</v>
-      </c>
-      <c r="BV18" s="18" t="s">
-        <v>882</v>
-      </c>
-      <c r="BW18" s="18" t="s">
-        <v>883</v>
-      </c>
-      <c r="BX18" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="BY18" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="BZ18" s="1" t="s">
-        <v>886</v>
+      <c r="BW18" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="BX18" s="19" t="s">
+        <v>910</v>
+      </c>
+      <c r="BY18" s="19" t="s">
+        <v>911</v>
+      </c>
+      <c r="BZ18" s="19" t="s">
+        <v>912</v>
       </c>
       <c r="CA18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB18" s="0" t="s">
-        <v>887</v>
+        <v>913</v>
+      </c>
+      <c r="CB18" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="CC18" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="CD18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE18" s="1" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="s">
-        <v>888</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>889</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>748</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>819</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>820</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="18" t="s">
+      <c r="A19" s="19" t="s">
+        <v>917</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>918</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>774</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>847</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>848</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="22" t="s">
-        <v>821</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>822</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>823</v>
-      </c>
-      <c r="K19" s="20" t="s">
-        <v>824</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>890</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19" s="18" t="s">
+      <c r="H19" s="23" t="s">
+        <v>849</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>850</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>850</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>851</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>852</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>919</v>
+      </c>
+      <c r="N19" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O19" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q19" s="18" t="s">
+      <c r="O19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R19" s="18" t="s">
+      <c r="R19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="S19" s="18" t="s">
+      <c r="S19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T19" s="18" t="s">
+      <c r="T19" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="U19" s="18" t="s">
+      <c r="U19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="V19" s="18" t="s">
+      <c r="V19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="W19" s="18" t="s">
-        <v>891</v>
-      </c>
-      <c r="X19" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y19" s="18" t="s">
-        <v>505</v>
-      </c>
-      <c r="Z19" s="18" t="s">
-        <v>892</v>
-      </c>
-      <c r="AA19" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB19" s="18" t="s">
-        <v>893</v>
-      </c>
-      <c r="AC19" s="18" t="s">
-        <v>894</v>
+      <c r="W19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="X19" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="Y19" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z19" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="AA19" s="19" t="s">
+        <v>921</v>
+      </c>
+      <c r="AB19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC19" s="19" t="s">
+        <v>922</v>
       </c>
       <c r="AD19" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE19" s="19" t="s">
+        <v>923</v>
+      </c>
+      <c r="AE19" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="AF19" s="19" t="s">
+      <c r="AF19" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AG19" s="19" t="s">
-        <v>895</v>
-      </c>
-      <c r="AH19" s="19" t="s">
+      <c r="AG19" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH19" s="20" t="s">
+        <v>924</v>
+      </c>
+      <c r="AI19" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ19" s="1" t="s">
-        <v>896</v>
-      </c>
       <c r="AK19" s="1" t="s">
-        <v>36</v>
+        <v>925</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>897</v>
+        <v>37</v>
       </c>
       <c r="AM19" s="1" t="s">
-        <v>38</v>
+        <v>926</v>
       </c>
       <c r="AN19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO19" s="19" t="s">
+      <c r="AO19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP19" s="1" t="s">
-        <v>42</v>
+      <c r="AP19" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AR19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="AU19" s="1" t="s">
         <v>46</v>
@@ -10017,34 +10216,34 @@
         <v>50</v>
       </c>
       <c r="AZ19" s="1" t="s">
-        <v>898</v>
+        <v>51</v>
       </c>
       <c r="BA19" s="1" t="s">
-        <v>898</v>
+        <v>52</v>
       </c>
       <c r="BB19" s="1" t="s">
-        <v>221</v>
+        <v>53</v>
       </c>
       <c r="BC19" s="1" t="s">
-        <v>54</v>
+        <v>927</v>
       </c>
       <c r="BD19" s="1" t="s">
-        <v>55</v>
+        <v>927</v>
       </c>
       <c r="BE19" s="1" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="BF19" s="1" t="s">
-        <v>899</v>
+        <v>57</v>
       </c>
       <c r="BG19" s="1" t="s">
         <v>58</v>
       </c>
       <c r="BH19" s="1" t="s">
-        <v>59</v>
+        <v>276</v>
       </c>
       <c r="BI19" s="1" t="s">
-        <v>98</v>
+        <v>928</v>
       </c>
       <c r="BJ19" s="1" t="s">
         <v>61</v>
@@ -10052,296 +10251,314 @@
       <c r="BK19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL19" s="19" t="s">
-        <v>63</v>
+      <c r="BL19" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="BM19" s="1" t="s">
-        <v>900</v>
+        <v>64</v>
       </c>
       <c r="BN19" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="BO19" s="1" t="s">
-        <v>902</v>
+        <v>65</v>
+      </c>
+      <c r="BO19" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="BP19" s="1" t="s">
-        <v>903</v>
+        <v>929</v>
       </c>
       <c r="BQ19" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="BR19" s="19" t="s">
-        <v>905</v>
+        <v>930</v>
+      </c>
+      <c r="BR19" s="1" t="s">
+        <v>931</v>
       </c>
       <c r="BS19" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="BT19" s="18" t="s">
-        <v>906</v>
-      </c>
-      <c r="BU19" s="19" t="s">
-        <v>907</v>
-      </c>
-      <c r="BV19" s="19" t="s">
-        <v>908</v>
-      </c>
-      <c r="BW19" s="18" t="s">
-        <v>909</v>
-      </c>
-      <c r="BX19" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="BY19" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="BZ19" s="1" t="s">
-        <v>283</v>
+        <v>932</v>
+      </c>
+      <c r="BT19" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="BU19" s="20" t="s">
+        <v>934</v>
+      </c>
+      <c r="BV19" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="BW19" s="19" t="s">
+        <v>935</v>
+      </c>
+      <c r="BX19" s="20" t="s">
+        <v>936</v>
+      </c>
+      <c r="BY19" s="20" t="s">
+        <v>937</v>
+      </c>
+      <c r="BZ19" s="19" t="s">
+        <v>938</v>
       </c>
       <c r="CA19" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="CB19" s="0" t="s">
-        <v>79</v>
+        <v>939</v>
+      </c>
+      <c r="CB19" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="CC19" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="CD19" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="CE19" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="s">
-        <v>913</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>914</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>915</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>916</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>917</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>918</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>919</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>920</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>921</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>922</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>923</v>
-      </c>
-      <c r="N20" s="17" t="s">
-        <v>924</v>
-      </c>
-      <c r="O20" s="17" t="s">
-        <v>925</v>
-      </c>
-      <c r="P20" s="19" t="s">
-        <v>926</v>
-      </c>
-      <c r="Q20" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="R20" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="S20" s="19" t="s">
+      <c r="A20" s="19" t="s">
+        <v>942</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>945</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>946</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>947</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>948</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>949</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>950</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>951</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>952</v>
+      </c>
+      <c r="N20" s="20" t="s">
+        <v>953</v>
+      </c>
+      <c r="O20" s="18" t="s">
+        <v>954</v>
+      </c>
+      <c r="P20" s="18" t="s">
+        <v>955</v>
+      </c>
+      <c r="Q20" s="20" t="s">
+        <v>956</v>
+      </c>
+      <c r="R20" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="S20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="T20" s="19" t="s">
-        <v>927</v>
-      </c>
-      <c r="U20" s="19" t="s">
-        <v>928</v>
-      </c>
-      <c r="V20" s="19" t="s">
-        <v>929</v>
-      </c>
-      <c r="W20" s="19" t="s">
-        <v>930</v>
-      </c>
-      <c r="X20" s="17" t="s">
-        <v>931</v>
-      </c>
-      <c r="Y20" s="17" t="s">
-        <v>932</v>
-      </c>
-      <c r="Z20" s="19" t="s">
-        <v>933</v>
-      </c>
-      <c r="AA20" s="19" t="s">
-        <v>934</v>
-      </c>
-      <c r="AB20" s="19" t="s">
-        <v>935</v>
-      </c>
-      <c r="AC20" s="19" t="s">
-        <v>936</v>
-      </c>
-      <c r="AD20" s="19" t="s">
-        <v>937</v>
-      </c>
-      <c r="AE20" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF20" s="19" t="s">
-        <v>938</v>
-      </c>
-      <c r="AG20" s="19" t="s">
-        <v>939</v>
-      </c>
-      <c r="AH20" s="19" t="s">
-        <v>940</v>
-      </c>
-      <c r="AI20" s="1" t="s">
-        <v>941</v>
+      <c r="T20" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="U20" s="20" t="s">
+        <v>957</v>
+      </c>
+      <c r="V20" s="20" t="s">
+        <v>958</v>
+      </c>
+      <c r="W20" s="20" t="s">
+        <v>959</v>
+      </c>
+      <c r="X20" s="20" t="s">
+        <v>960</v>
+      </c>
+      <c r="Y20" s="18" t="s">
+        <v>961</v>
+      </c>
+      <c r="Z20" s="18" t="s">
+        <v>962</v>
+      </c>
+      <c r="AA20" s="20" t="s">
+        <v>963</v>
+      </c>
+      <c r="AB20" s="20" t="s">
+        <v>964</v>
+      </c>
+      <c r="AC20" s="20" t="s">
+        <v>965</v>
+      </c>
+      <c r="AD20" s="20" t="s">
+        <v>966</v>
+      </c>
+      <c r="AE20" s="20" t="s">
+        <v>967</v>
+      </c>
+      <c r="AF20" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG20" s="20" t="s">
+        <v>968</v>
+      </c>
+      <c r="AH20" s="20" t="s">
+        <v>969</v>
+      </c>
+      <c r="AI20" s="20" t="s">
+        <v>970</v>
       </c>
       <c r="AJ20" s="1" t="s">
-        <v>942</v>
+        <v>971</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>943</v>
+        <v>972</v>
       </c>
       <c r="AL20" s="1" t="s">
-        <v>944</v>
+        <v>973</v>
       </c>
       <c r="AM20" s="1" t="s">
-        <v>945</v>
+        <v>974</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="AO20" s="19" t="s">
-        <v>947</v>
-      </c>
-      <c r="AP20" s="1" t="s">
-        <v>948</v>
+        <v>975</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="AP20" s="20" t="s">
+        <v>977</v>
       </c>
       <c r="AQ20" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>950</v>
+        <v>979</v>
       </c>
       <c r="AS20" s="1" t="s">
-        <v>951</v>
+        <v>980</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>952</v>
+        <v>981</v>
       </c>
       <c r="AU20" s="1" t="s">
-        <v>953</v>
+        <v>982</v>
       </c>
       <c r="AV20" s="1" t="s">
-        <v>47</v>
+        <v>983</v>
       </c>
       <c r="AW20" s="1" t="s">
-        <v>954</v>
+        <v>984</v>
       </c>
       <c r="AX20" s="1" t="s">
-        <v>949</v>
+        <v>985</v>
       </c>
       <c r="AY20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AZ20" s="1" t="s">
-        <v>955</v>
+        <v>986</v>
       </c>
       <c r="BA20" s="1" t="s">
-        <v>956</v>
+        <v>979</v>
       </c>
       <c r="BB20" s="1" t="s">
-        <v>957</v>
+        <v>53</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>958</v>
+        <v>987</v>
       </c>
       <c r="BD20" s="1" t="s">
-        <v>959</v>
+        <v>988</v>
       </c>
       <c r="BE20" s="1" t="s">
-        <v>960</v>
+        <v>989</v>
       </c>
       <c r="BF20" s="1" t="s">
-        <v>961</v>
+        <v>990</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>962</v>
+        <v>991</v>
       </c>
       <c r="BH20" s="1" t="s">
-        <v>963</v>
+        <v>992</v>
       </c>
       <c r="BI20" s="1" t="s">
-        <v>964</v>
+        <v>993</v>
       </c>
       <c r="BJ20" s="1" t="s">
-        <v>61</v>
+        <v>994</v>
       </c>
       <c r="BK20" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="BL20" s="19" t="s">
-        <v>966</v>
+        <v>995</v>
+      </c>
+      <c r="BL20" s="1" t="s">
+        <v>996</v>
       </c>
       <c r="BM20" s="1" t="s">
-        <v>967</v>
+        <v>64</v>
       </c>
       <c r="BN20" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="BO20" s="1" t="s">
-        <v>969</v>
+        <v>997</v>
+      </c>
+      <c r="BO20" s="20" t="s">
+        <v>998</v>
       </c>
       <c r="BP20" s="1" t="s">
-        <v>970</v>
+        <v>999</v>
       </c>
       <c r="BQ20" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="BR20" s="19" t="s">
-        <v>972</v>
+        <v>1000</v>
+      </c>
+      <c r="BR20" s="1" t="s">
+        <v>1001</v>
       </c>
       <c r="BS20" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="BT20" s="20" t="s">
-        <v>974</v>
-      </c>
-      <c r="BU20" s="19" t="s">
-        <v>975</v>
-      </c>
-      <c r="BV20" s="19" t="s">
-        <v>976</v>
-      </c>
-      <c r="BW20" s="19" t="s">
-        <v>977</v>
-      </c>
-      <c r="BX20" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="BY20" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="BZ20" s="1" t="s">
-        <v>980</v>
+        <v>1002</v>
+      </c>
+      <c r="BT20" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BU20" s="20" t="s">
+        <v>1004</v>
+      </c>
+      <c r="BV20" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="BW20" s="21" t="s">
+        <v>1006</v>
+      </c>
+      <c r="BX20" s="20" t="s">
+        <v>1007</v>
+      </c>
+      <c r="BY20" s="20" t="s">
+        <v>1008</v>
+      </c>
+      <c r="BZ20" s="20" t="s">
+        <v>1009</v>
       </c>
       <c r="CA20" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="CB20" s="0" t="s">
-        <v>982</v>
+        <v>1010</v>
+      </c>
+      <c r="CB20" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="CC20" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="CD20" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="CE20" s="1" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10420,6 +10637,9 @@
       <c r="BU21" s="6"/>
       <c r="BV21" s="6"/>
       <c r="BW21" s="6"/>
+      <c r="BX21" s="6"/>
+      <c r="BY21" s="6"/>
+      <c r="BZ21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6"/>
@@ -10497,6 +10717,9 @@
       <c r="BU22" s="6"/>
       <c r="BV22" s="6"/>
       <c r="BW22" s="6"/>
+      <c r="BX22" s="6"/>
+      <c r="BY22" s="6"/>
+      <c r="BZ22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6"/>
@@ -10574,6 +10797,9 @@
       <c r="BU23" s="6"/>
       <c r="BV23" s="6"/>
       <c r="BW23" s="6"/>
+      <c r="BX23" s="6"/>
+      <c r="BY23" s="6"/>
+      <c r="BZ23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
@@ -10651,6 +10877,9 @@
       <c r="BU24" s="6"/>
       <c r="BV24" s="6"/>
       <c r="BW24" s="6"/>
+      <c r="BX24" s="6"/>
+      <c r="BY24" s="6"/>
+      <c r="BZ24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
@@ -10728,6 +10957,9 @@
       <c r="BU25" s="6"/>
       <c r="BV25" s="6"/>
       <c r="BW25" s="6"/>
+      <c r="BX25" s="6"/>
+      <c r="BY25" s="6"/>
+      <c r="BZ25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
@@ -10805,6 +11037,9 @@
       <c r="BU26" s="6"/>
       <c r="BV26" s="6"/>
       <c r="BW26" s="6"/>
+      <c r="BX26" s="6"/>
+      <c r="BY26" s="6"/>
+      <c r="BZ26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6"/>
@@ -10882,6 +11117,9 @@
       <c r="BU27" s="6"/>
       <c r="BV27" s="6"/>
       <c r="BW27" s="6"/>
+      <c r="BX27" s="6"/>
+      <c r="BY27" s="6"/>
+      <c r="BZ27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6"/>
@@ -10959,6 +11197,9 @@
       <c r="BU28" s="6"/>
       <c r="BV28" s="6"/>
       <c r="BW28" s="6"/>
+      <c r="BX28" s="6"/>
+      <c r="BY28" s="6"/>
+      <c r="BZ28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
@@ -11036,6 +11277,9 @@
       <c r="BU29" s="6"/>
       <c r="BV29" s="6"/>
       <c r="BW29" s="6"/>
+      <c r="BX29" s="6"/>
+      <c r="BY29" s="6"/>
+      <c r="BZ29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
@@ -11113,6 +11357,9 @@
       <c r="BU30" s="6"/>
       <c r="BV30" s="6"/>
       <c r="BW30" s="6"/>
+      <c r="BX30" s="6"/>
+      <c r="BY30" s="6"/>
+      <c r="BZ30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
@@ -11190,6 +11437,9 @@
       <c r="BU31" s="6"/>
       <c r="BV31" s="6"/>
       <c r="BW31" s="6"/>
+      <c r="BX31" s="6"/>
+      <c r="BY31" s="6"/>
+      <c r="BZ31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
@@ -11267,6 +11517,9 @@
       <c r="BU32" s="6"/>
       <c r="BV32" s="6"/>
       <c r="BW32" s="6"/>
+      <c r="BX32" s="6"/>
+      <c r="BY32" s="6"/>
+      <c r="BZ32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
@@ -11344,6 +11597,9 @@
       <c r="BU33" s="6"/>
       <c r="BV33" s="6"/>
       <c r="BW33" s="6"/>
+      <c r="BX33" s="6"/>
+      <c r="BY33" s="6"/>
+      <c r="BZ33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
@@ -11421,6 +11677,9 @@
       <c r="BU34" s="6"/>
       <c r="BV34" s="6"/>
       <c r="BW34" s="6"/>
+      <c r="BX34" s="6"/>
+      <c r="BY34" s="6"/>
+      <c r="BZ34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
@@ -11498,6 +11757,9 @@
       <c r="BU35" s="6"/>
       <c r="BV35" s="6"/>
       <c r="BW35" s="6"/>
+      <c r="BX35" s="6"/>
+      <c r="BY35" s="6"/>
+      <c r="BZ35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
@@ -11575,6 +11837,9 @@
       <c r="BU36" s="6"/>
       <c r="BV36" s="6"/>
       <c r="BW36" s="6"/>
+      <c r="BX36" s="6"/>
+      <c r="BY36" s="6"/>
+      <c r="BZ36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
@@ -11652,6 +11917,9 @@
       <c r="BU37" s="6"/>
       <c r="BV37" s="6"/>
       <c r="BW37" s="6"/>
+      <c r="BX37" s="6"/>
+      <c r="BY37" s="6"/>
+      <c r="BZ37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
@@ -11729,6 +11997,9 @@
       <c r="BU38" s="6"/>
       <c r="BV38" s="6"/>
       <c r="BW38" s="6"/>
+      <c r="BX38" s="6"/>
+      <c r="BY38" s="6"/>
+      <c r="BZ38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
@@ -11806,6 +12077,9 @@
       <c r="BU39" s="6"/>
       <c r="BV39" s="6"/>
       <c r="BW39" s="6"/>
+      <c r="BX39" s="6"/>
+      <c r="BY39" s="6"/>
+      <c r="BZ39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
@@ -11883,6 +12157,9 @@
       <c r="BU40" s="6"/>
       <c r="BV40" s="6"/>
       <c r="BW40" s="6"/>
+      <c r="BX40" s="6"/>
+      <c r="BY40" s="6"/>
+      <c r="BZ40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
@@ -11960,6 +12237,9 @@
       <c r="BU41" s="6"/>
       <c r="BV41" s="6"/>
       <c r="BW41" s="6"/>
+      <c r="BX41" s="6"/>
+      <c r="BY41" s="6"/>
+      <c r="BZ41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
@@ -12037,6 +12317,9 @@
       <c r="BU42" s="6"/>
       <c r="BV42" s="6"/>
       <c r="BW42" s="6"/>
+      <c r="BX42" s="6"/>
+      <c r="BY42" s="6"/>
+      <c r="BZ42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
@@ -12114,6 +12397,9 @@
       <c r="BU43" s="6"/>
       <c r="BV43" s="6"/>
       <c r="BW43" s="6"/>
+      <c r="BX43" s="6"/>
+      <c r="BY43" s="6"/>
+      <c r="BZ43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
@@ -12191,6 +12477,9 @@
       <c r="BU44" s="6"/>
       <c r="BV44" s="6"/>
       <c r="BW44" s="6"/>
+      <c r="BX44" s="6"/>
+      <c r="BY44" s="6"/>
+      <c r="BZ44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
@@ -12268,6 +12557,9 @@
       <c r="BU45" s="6"/>
       <c r="BV45" s="6"/>
       <c r="BW45" s="6"/>
+      <c r="BX45" s="6"/>
+      <c r="BY45" s="6"/>
+      <c r="BZ45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
@@ -12345,6 +12637,9 @@
       <c r="BU46" s="6"/>
       <c r="BV46" s="6"/>
       <c r="BW46" s="6"/>
+      <c r="BX46" s="6"/>
+      <c r="BY46" s="6"/>
+      <c r="BZ46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
@@ -12422,6 +12717,9 @@
       <c r="BU47" s="6"/>
       <c r="BV47" s="6"/>
       <c r="BW47" s="6"/>
+      <c r="BX47" s="6"/>
+      <c r="BY47" s="6"/>
+      <c r="BZ47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
@@ -12499,6 +12797,9 @@
       <c r="BU48" s="6"/>
       <c r="BV48" s="6"/>
       <c r="BW48" s="6"/>
+      <c r="BX48" s="6"/>
+      <c r="BY48" s="6"/>
+      <c r="BZ48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
@@ -12576,6 +12877,9 @@
       <c r="BU49" s="6"/>
       <c r="BV49" s="6"/>
       <c r="BW49" s="6"/>
+      <c r="BX49" s="6"/>
+      <c r="BY49" s="6"/>
+      <c r="BZ49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
@@ -12653,6 +12957,9 @@
       <c r="BU50" s="6"/>
       <c r="BV50" s="6"/>
       <c r="BW50" s="6"/>
+      <c r="BX50" s="6"/>
+      <c r="BY50" s="6"/>
+      <c r="BZ50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
@@ -12730,6 +13037,9 @@
       <c r="BU51" s="6"/>
       <c r="BV51" s="6"/>
       <c r="BW51" s="6"/>
+      <c r="BX51" s="6"/>
+      <c r="BY51" s="6"/>
+      <c r="BZ51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
@@ -12807,6 +13117,9 @@
       <c r="BU52" s="6"/>
       <c r="BV52" s="6"/>
       <c r="BW52" s="6"/>
+      <c r="BX52" s="6"/>
+      <c r="BY52" s="6"/>
+      <c r="BZ52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6"/>
@@ -12884,6 +13197,9 @@
       <c r="BU53" s="6"/>
       <c r="BV53" s="6"/>
       <c r="BW53" s="6"/>
+      <c r="BX53" s="6"/>
+      <c r="BY53" s="6"/>
+      <c r="BZ53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6"/>
@@ -12961,6 +13277,9 @@
       <c r="BU54" s="6"/>
       <c r="BV54" s="6"/>
       <c r="BW54" s="6"/>
+      <c r="BX54" s="6"/>
+      <c r="BY54" s="6"/>
+      <c r="BZ54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6"/>
@@ -13038,6 +13357,9 @@
       <c r="BU55" s="6"/>
       <c r="BV55" s="6"/>
       <c r="BW55" s="6"/>
+      <c r="BX55" s="6"/>
+      <c r="BY55" s="6"/>
+      <c r="BZ55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6"/>
@@ -13115,6 +13437,9 @@
       <c r="BU56" s="6"/>
       <c r="BV56" s="6"/>
       <c r="BW56" s="6"/>
+      <c r="BX56" s="6"/>
+      <c r="BY56" s="6"/>
+      <c r="BZ56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6"/>
@@ -13192,6 +13517,9 @@
       <c r="BU57" s="6"/>
       <c r="BV57" s="6"/>
       <c r="BW57" s="6"/>
+      <c r="BX57" s="6"/>
+      <c r="BY57" s="6"/>
+      <c r="BZ57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6"/>
@@ -13269,6 +13597,9 @@
       <c r="BU58" s="6"/>
       <c r="BV58" s="6"/>
       <c r="BW58" s="6"/>
+      <c r="BX58" s="6"/>
+      <c r="BY58" s="6"/>
+      <c r="BZ58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
@@ -13346,6 +13677,9 @@
       <c r="BU59" s="6"/>
       <c r="BV59" s="6"/>
       <c r="BW59" s="6"/>
+      <c r="BX59" s="6"/>
+      <c r="BY59" s="6"/>
+      <c r="BZ59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
@@ -13423,6 +13757,9 @@
       <c r="BU60" s="6"/>
       <c r="BV60" s="6"/>
       <c r="BW60" s="6"/>
+      <c r="BX60" s="6"/>
+      <c r="BY60" s="6"/>
+      <c r="BZ60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6"/>
@@ -13500,6 +13837,9 @@
       <c r="BU61" s="6"/>
       <c r="BV61" s="6"/>
       <c r="BW61" s="6"/>
+      <c r="BX61" s="6"/>
+      <c r="BY61" s="6"/>
+      <c r="BZ61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6"/>
@@ -13577,6 +13917,9 @@
       <c r="BU62" s="6"/>
       <c r="BV62" s="6"/>
       <c r="BW62" s="6"/>
+      <c r="BX62" s="6"/>
+      <c r="BY62" s="6"/>
+      <c r="BZ62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6"/>
@@ -13654,6 +13997,9 @@
       <c r="BU63" s="6"/>
       <c r="BV63" s="6"/>
       <c r="BW63" s="6"/>
+      <c r="BX63" s="6"/>
+      <c r="BY63" s="6"/>
+      <c r="BZ63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
@@ -13731,6 +14077,9 @@
       <c r="BU64" s="6"/>
       <c r="BV64" s="6"/>
       <c r="BW64" s="6"/>
+      <c r="BX64" s="6"/>
+      <c r="BY64" s="6"/>
+      <c r="BZ64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
@@ -13808,6 +14157,9 @@
       <c r="BU65" s="6"/>
       <c r="BV65" s="6"/>
       <c r="BW65" s="6"/>
+      <c r="BX65" s="6"/>
+      <c r="BY65" s="6"/>
+      <c r="BZ65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
@@ -13885,6 +14237,9 @@
       <c r="BU66" s="6"/>
       <c r="BV66" s="6"/>
       <c r="BW66" s="6"/>
+      <c r="BX66" s="6"/>
+      <c r="BY66" s="6"/>
+      <c r="BZ66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
@@ -13962,6 +14317,9 @@
       <c r="BU67" s="6"/>
       <c r="BV67" s="6"/>
       <c r="BW67" s="6"/>
+      <c r="BX67" s="6"/>
+      <c r="BY67" s="6"/>
+      <c r="BZ67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
@@ -14039,6 +14397,9 @@
       <c r="BU68" s="6"/>
       <c r="BV68" s="6"/>
       <c r="BW68" s="6"/>
+      <c r="BX68" s="6"/>
+      <c r="BY68" s="6"/>
+      <c r="BZ68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
@@ -14116,6 +14477,9 @@
       <c r="BU69" s="6"/>
       <c r="BV69" s="6"/>
       <c r="BW69" s="6"/>
+      <c r="BX69" s="6"/>
+      <c r="BY69" s="6"/>
+      <c r="BZ69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6"/>
@@ -14193,6 +14557,9 @@
       <c r="BU70" s="6"/>
       <c r="BV70" s="6"/>
       <c r="BW70" s="6"/>
+      <c r="BX70" s="6"/>
+      <c r="BY70" s="6"/>
+      <c r="BZ70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6"/>
@@ -14270,6 +14637,9 @@
       <c r="BU71" s="6"/>
       <c r="BV71" s="6"/>
       <c r="BW71" s="6"/>
+      <c r="BX71" s="6"/>
+      <c r="BY71" s="6"/>
+      <c r="BZ71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6"/>
@@ -14347,6 +14717,9 @@
       <c r="BU72" s="6"/>
       <c r="BV72" s="6"/>
       <c r="BW72" s="6"/>
+      <c r="BX72" s="6"/>
+      <c r="BY72" s="6"/>
+      <c r="BZ72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6"/>
@@ -14424,6 +14797,9 @@
       <c r="BU73" s="6"/>
       <c r="BV73" s="6"/>
       <c r="BW73" s="6"/>
+      <c r="BX73" s="6"/>
+      <c r="BY73" s="6"/>
+      <c r="BZ73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6"/>
@@ -14501,6 +14877,9 @@
       <c r="BU74" s="6"/>
       <c r="BV74" s="6"/>
       <c r="BW74" s="6"/>
+      <c r="BX74" s="6"/>
+      <c r="BY74" s="6"/>
+      <c r="BZ74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
@@ -14578,6 +14957,9 @@
       <c r="BU75" s="6"/>
       <c r="BV75" s="6"/>
       <c r="BW75" s="6"/>
+      <c r="BX75" s="6"/>
+      <c r="BY75" s="6"/>
+      <c r="BZ75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
@@ -14655,6 +15037,9 @@
       <c r="BU76" s="6"/>
       <c r="BV76" s="6"/>
       <c r="BW76" s="6"/>
+      <c r="BX76" s="6"/>
+      <c r="BY76" s="6"/>
+      <c r="BZ76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
@@ -14732,6 +15117,9 @@
       <c r="BU77" s="6"/>
       <c r="BV77" s="6"/>
       <c r="BW77" s="6"/>
+      <c r="BX77" s="6"/>
+      <c r="BY77" s="6"/>
+      <c r="BZ77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
@@ -14809,6 +15197,9 @@
       <c r="BU78" s="6"/>
       <c r="BV78" s="6"/>
       <c r="BW78" s="6"/>
+      <c r="BX78" s="6"/>
+      <c r="BY78" s="6"/>
+      <c r="BZ78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
@@ -14886,6 +15277,9 @@
       <c r="BU79" s="6"/>
       <c r="BV79" s="6"/>
       <c r="BW79" s="6"/>
+      <c r="BX79" s="6"/>
+      <c r="BY79" s="6"/>
+      <c r="BZ79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6"/>
@@ -14963,6 +15357,9 @@
       <c r="BU80" s="6"/>
       <c r="BV80" s="6"/>
       <c r="BW80" s="6"/>
+      <c r="BX80" s="6"/>
+      <c r="BY80" s="6"/>
+      <c r="BZ80" s="6"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
@@ -15040,6 +15437,9 @@
       <c r="BU81" s="6"/>
       <c r="BV81" s="6"/>
       <c r="BW81" s="6"/>
+      <c r="BX81" s="6"/>
+      <c r="BY81" s="6"/>
+      <c r="BZ81" s="6"/>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
@@ -15117,6 +15517,9 @@
       <c r="BU82" s="6"/>
       <c r="BV82" s="6"/>
       <c r="BW82" s="6"/>
+      <c r="BX82" s="6"/>
+      <c r="BY82" s="6"/>
+      <c r="BZ82" s="6"/>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
@@ -15194,6 +15597,9 @@
       <c r="BU83" s="6"/>
       <c r="BV83" s="6"/>
       <c r="BW83" s="6"/>
+      <c r="BX83" s="6"/>
+      <c r="BY83" s="6"/>
+      <c r="BZ83" s="6"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6"/>
@@ -15271,6 +15677,9 @@
       <c r="BU84" s="6"/>
       <c r="BV84" s="6"/>
       <c r="BW84" s="6"/>
+      <c r="BX84" s="6"/>
+      <c r="BY84" s="6"/>
+      <c r="BZ84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6"/>
@@ -15348,6 +15757,9 @@
       <c r="BU85" s="6"/>
       <c r="BV85" s="6"/>
       <c r="BW85" s="6"/>
+      <c r="BX85" s="6"/>
+      <c r="BY85" s="6"/>
+      <c r="BZ85" s="6"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
@@ -15425,6 +15837,9 @@
       <c r="BU86" s="6"/>
       <c r="BV86" s="6"/>
       <c r="BW86" s="6"/>
+      <c r="BX86" s="6"/>
+      <c r="BY86" s="6"/>
+      <c r="BZ86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
@@ -15502,6 +15917,9 @@
       <c r="BU87" s="6"/>
       <c r="BV87" s="6"/>
       <c r="BW87" s="6"/>
+      <c r="BX87" s="6"/>
+      <c r="BY87" s="6"/>
+      <c r="BZ87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6"/>
@@ -15579,6 +15997,9 @@
       <c r="BU88" s="6"/>
       <c r="BV88" s="6"/>
       <c r="BW88" s="6"/>
+      <c r="BX88" s="6"/>
+      <c r="BY88" s="6"/>
+      <c r="BZ88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
@@ -15656,6 +16077,9 @@
       <c r="BU89" s="6"/>
       <c r="BV89" s="6"/>
       <c r="BW89" s="6"/>
+      <c r="BX89" s="6"/>
+      <c r="BY89" s="6"/>
+      <c r="BZ89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
@@ -15733,6 +16157,9 @@
       <c r="BU90" s="6"/>
       <c r="BV90" s="6"/>
       <c r="BW90" s="6"/>
+      <c r="BX90" s="6"/>
+      <c r="BY90" s="6"/>
+      <c r="BZ90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
@@ -15810,6 +16237,9 @@
       <c r="BU91" s="6"/>
       <c r="BV91" s="6"/>
       <c r="BW91" s="6"/>
+      <c r="BX91" s="6"/>
+      <c r="BY91" s="6"/>
+      <c r="BZ91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
@@ -15887,6 +16317,9 @@
       <c r="BU92" s="6"/>
       <c r="BV92" s="6"/>
       <c r="BW92" s="6"/>
+      <c r="BX92" s="6"/>
+      <c r="BY92" s="6"/>
+      <c r="BZ92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6"/>
@@ -15964,6 +16397,9 @@
       <c r="BU93" s="6"/>
       <c r="BV93" s="6"/>
       <c r="BW93" s="6"/>
+      <c r="BX93" s="6"/>
+      <c r="BY93" s="6"/>
+      <c r="BZ93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6"/>
@@ -16041,6 +16477,9 @@
       <c r="BU94" s="6"/>
       <c r="BV94" s="6"/>
       <c r="BW94" s="6"/>
+      <c r="BX94" s="6"/>
+      <c r="BY94" s="6"/>
+      <c r="BZ94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6"/>
@@ -16118,6 +16557,9 @@
       <c r="BU95" s="6"/>
       <c r="BV95" s="6"/>
       <c r="BW95" s="6"/>
+      <c r="BX95" s="6"/>
+      <c r="BY95" s="6"/>
+      <c r="BZ95" s="6"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
@@ -16195,6 +16637,9 @@
       <c r="BU96" s="6"/>
       <c r="BV96" s="6"/>
       <c r="BW96" s="6"/>
+      <c r="BX96" s="6"/>
+      <c r="BY96" s="6"/>
+      <c r="BZ96" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
@@ -16272,6 +16717,9 @@
       <c r="BU97" s="6"/>
       <c r="BV97" s="6"/>
       <c r="BW97" s="6"/>
+      <c r="BX97" s="6"/>
+      <c r="BY97" s="6"/>
+      <c r="BZ97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6"/>
@@ -16349,6 +16797,9 @@
       <c r="BU98" s="6"/>
       <c r="BV98" s="6"/>
       <c r="BW98" s="6"/>
+      <c r="BX98" s="6"/>
+      <c r="BY98" s="6"/>
+      <c r="BZ98" s="6"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
@@ -16426,6 +16877,9 @@
       <c r="BU99" s="6"/>
       <c r="BV99" s="6"/>
       <c r="BW99" s="6"/>
+      <c r="BX99" s="6"/>
+      <c r="BY99" s="6"/>
+      <c r="BZ99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
@@ -16503,6 +16957,9 @@
       <c r="BU100" s="6"/>
       <c r="BV100" s="6"/>
       <c r="BW100" s="6"/>
+      <c r="BX100" s="6"/>
+      <c r="BY100" s="6"/>
+      <c r="BZ100" s="6"/>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6"/>
@@ -16580,6 +17037,9 @@
       <c r="BU101" s="6"/>
       <c r="BV101" s="6"/>
       <c r="BW101" s="6"/>
+      <c r="BX101" s="6"/>
+      <c r="BY101" s="6"/>
+      <c r="BZ101" s="6"/>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6"/>
@@ -16657,6 +17117,9 @@
       <c r="BU102" s="6"/>
       <c r="BV102" s="6"/>
       <c r="BW102" s="6"/>
+      <c r="BX102" s="6"/>
+      <c r="BY102" s="6"/>
+      <c r="BZ102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6"/>
@@ -16734,6 +17197,9 @@
       <c r="BU103" s="6"/>
       <c r="BV103" s="6"/>
       <c r="BW103" s="6"/>
+      <c r="BX103" s="6"/>
+      <c r="BY103" s="6"/>
+      <c r="BZ103" s="6"/>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6"/>
@@ -16811,6 +17277,9 @@
       <c r="BU104" s="6"/>
       <c r="BV104" s="6"/>
       <c r="BW104" s="6"/>
+      <c r="BX104" s="6"/>
+      <c r="BY104" s="6"/>
+      <c r="BZ104" s="6"/>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6"/>
@@ -16888,6 +17357,9 @@
       <c r="BU105" s="6"/>
       <c r="BV105" s="6"/>
       <c r="BW105" s="6"/>
+      <c r="BX105" s="6"/>
+      <c r="BY105" s="6"/>
+      <c r="BZ105" s="6"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6"/>
@@ -16965,6 +17437,9 @@
       <c r="BU106" s="6"/>
       <c r="BV106" s="6"/>
       <c r="BW106" s="6"/>
+      <c r="BX106" s="6"/>
+      <c r="BY106" s="6"/>
+      <c r="BZ106" s="6"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6"/>
@@ -17042,6 +17517,9 @@
       <c r="BU107" s="6"/>
       <c r="BV107" s="6"/>
       <c r="BW107" s="6"/>
+      <c r="BX107" s="6"/>
+      <c r="BY107" s="6"/>
+      <c r="BZ107" s="6"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6"/>
@@ -17119,6 +17597,9 @@
       <c r="BU108" s="6"/>
       <c r="BV108" s="6"/>
       <c r="BW108" s="6"/>
+      <c r="BX108" s="6"/>
+      <c r="BY108" s="6"/>
+      <c r="BZ108" s="6"/>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6"/>
@@ -17196,6 +17677,9 @@
       <c r="BU109" s="6"/>
       <c r="BV109" s="6"/>
       <c r="BW109" s="6"/>
+      <c r="BX109" s="6"/>
+      <c r="BY109" s="6"/>
+      <c r="BZ109" s="6"/>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6"/>
@@ -17273,6 +17757,9 @@
       <c r="BU110" s="6"/>
       <c r="BV110" s="6"/>
       <c r="BW110" s="6"/>
+      <c r="BX110" s="6"/>
+      <c r="BY110" s="6"/>
+      <c r="BZ110" s="6"/>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6"/>
@@ -17350,6 +17837,9 @@
       <c r="BU111" s="6"/>
       <c r="BV111" s="6"/>
       <c r="BW111" s="6"/>
+      <c r="BX111" s="6"/>
+      <c r="BY111" s="6"/>
+      <c r="BZ111" s="6"/>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6"/>
@@ -17427,6 +17917,9 @@
       <c r="BU112" s="6"/>
       <c r="BV112" s="6"/>
       <c r="BW112" s="6"/>
+      <c r="BX112" s="6"/>
+      <c r="BY112" s="6"/>
+      <c r="BZ112" s="6"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6"/>
@@ -17504,6 +17997,9 @@
       <c r="BU113" s="6"/>
       <c r="BV113" s="6"/>
       <c r="BW113" s="6"/>
+      <c r="BX113" s="6"/>
+      <c r="BY113" s="6"/>
+      <c r="BZ113" s="6"/>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6"/>
@@ -17581,6 +18077,9 @@
       <c r="BU114" s="6"/>
       <c r="BV114" s="6"/>
       <c r="BW114" s="6"/>
+      <c r="BX114" s="6"/>
+      <c r="BY114" s="6"/>
+      <c r="BZ114" s="6"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6"/>
@@ -17658,6 +18157,9 @@
       <c r="BU115" s="6"/>
       <c r="BV115" s="6"/>
       <c r="BW115" s="6"/>
+      <c r="BX115" s="6"/>
+      <c r="BY115" s="6"/>
+      <c r="BZ115" s="6"/>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="6"/>
@@ -17735,6 +18237,9 @@
       <c r="BU116" s="6"/>
       <c r="BV116" s="6"/>
       <c r="BW116" s="6"/>
+      <c r="BX116" s="6"/>
+      <c r="BY116" s="6"/>
+      <c r="BZ116" s="6"/>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="6"/>
@@ -17812,6 +18317,9 @@
       <c r="BU117" s="6"/>
       <c r="BV117" s="6"/>
       <c r="BW117" s="6"/>
+      <c r="BX117" s="6"/>
+      <c r="BY117" s="6"/>
+      <c r="BZ117" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="6"/>
@@ -17889,6 +18397,9 @@
       <c r="BU118" s="6"/>
       <c r="BV118" s="6"/>
       <c r="BW118" s="6"/>
+      <c r="BX118" s="6"/>
+      <c r="BY118" s="6"/>
+      <c r="BZ118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="6"/>
@@ -17966,6 +18477,9 @@
       <c r="BU119" s="6"/>
       <c r="BV119" s="6"/>
       <c r="BW119" s="6"/>
+      <c r="BX119" s="6"/>
+      <c r="BY119" s="6"/>
+      <c r="BZ119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="6"/>
@@ -18043,6 +18557,9 @@
       <c r="BU120" s="6"/>
       <c r="BV120" s="6"/>
       <c r="BW120" s="6"/>
+      <c r="BX120" s="6"/>
+      <c r="BY120" s="6"/>
+      <c r="BZ120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="6"/>
@@ -18120,6 +18637,9 @@
       <c r="BU121" s="6"/>
       <c r="BV121" s="6"/>
       <c r="BW121" s="6"/>
+      <c r="BX121" s="6"/>
+      <c r="BY121" s="6"/>
+      <c r="BZ121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="6"/>
@@ -18197,6 +18717,9 @@
       <c r="BU122" s="6"/>
       <c r="BV122" s="6"/>
       <c r="BW122" s="6"/>
+      <c r="BX122" s="6"/>
+      <c r="BY122" s="6"/>
+      <c r="BZ122" s="6"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="6"/>
@@ -18274,6 +18797,9 @@
       <c r="BU123" s="6"/>
       <c r="BV123" s="6"/>
       <c r="BW123" s="6"/>
+      <c r="BX123" s="6"/>
+      <c r="BY123" s="6"/>
+      <c r="BZ123" s="6"/>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="6"/>
@@ -18351,6 +18877,9 @@
       <c r="BU124" s="6"/>
       <c r="BV124" s="6"/>
       <c r="BW124" s="6"/>
+      <c r="BX124" s="6"/>
+      <c r="BY124" s="6"/>
+      <c r="BZ124" s="6"/>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="6"/>
@@ -18428,6 +18957,9 @@
       <c r="BU125" s="6"/>
       <c r="BV125" s="6"/>
       <c r="BW125" s="6"/>
+      <c r="BX125" s="6"/>
+      <c r="BY125" s="6"/>
+      <c r="BZ125" s="6"/>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="6"/>
@@ -18505,6 +19037,9 @@
       <c r="BU126" s="6"/>
       <c r="BV126" s="6"/>
       <c r="BW126" s="6"/>
+      <c r="BX126" s="6"/>
+      <c r="BY126" s="6"/>
+      <c r="BZ126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="6"/>
@@ -18582,6 +19117,9 @@
       <c r="BU127" s="6"/>
       <c r="BV127" s="6"/>
       <c r="BW127" s="6"/>
+      <c r="BX127" s="6"/>
+      <c r="BY127" s="6"/>
+      <c r="BZ127" s="6"/>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="6"/>
@@ -18659,6 +19197,9 @@
       <c r="BU128" s="6"/>
       <c r="BV128" s="6"/>
       <c r="BW128" s="6"/>
+      <c r="BX128" s="6"/>
+      <c r="BY128" s="6"/>
+      <c r="BZ128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="6"/>
@@ -18736,6 +19277,9 @@
       <c r="BU129" s="6"/>
       <c r="BV129" s="6"/>
       <c r="BW129" s="6"/>
+      <c r="BX129" s="6"/>
+      <c r="BY129" s="6"/>
+      <c r="BZ129" s="6"/>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="6"/>
@@ -18813,6 +19357,9 @@
       <c r="BU130" s="6"/>
       <c r="BV130" s="6"/>
       <c r="BW130" s="6"/>
+      <c r="BX130" s="6"/>
+      <c r="BY130" s="6"/>
+      <c r="BZ130" s="6"/>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="6"/>
@@ -18890,6 +19437,9 @@
       <c r="BU131" s="6"/>
       <c r="BV131" s="6"/>
       <c r="BW131" s="6"/>
+      <c r="BX131" s="6"/>
+      <c r="BY131" s="6"/>
+      <c r="BZ131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="6"/>
@@ -18967,6 +19517,9 @@
       <c r="BU132" s="6"/>
       <c r="BV132" s="6"/>
       <c r="BW132" s="6"/>
+      <c r="BX132" s="6"/>
+      <c r="BY132" s="6"/>
+      <c r="BZ132" s="6"/>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="6"/>
@@ -19044,6 +19597,9 @@
       <c r="BU133" s="6"/>
       <c r="BV133" s="6"/>
       <c r="BW133" s="6"/>
+      <c r="BX133" s="6"/>
+      <c r="BY133" s="6"/>
+      <c r="BZ133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="6"/>
@@ -19121,6 +19677,9 @@
       <c r="BU134" s="6"/>
       <c r="BV134" s="6"/>
       <c r="BW134" s="6"/>
+      <c r="BX134" s="6"/>
+      <c r="BY134" s="6"/>
+      <c r="BZ134" s="6"/>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="6"/>
@@ -19198,6 +19757,9 @@
       <c r="BU135" s="6"/>
       <c r="BV135" s="6"/>
       <c r="BW135" s="6"/>
+      <c r="BX135" s="6"/>
+      <c r="BY135" s="6"/>
+      <c r="BZ135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="6"/>
@@ -19275,6 +19837,9 @@
       <c r="BU136" s="6"/>
       <c r="BV136" s="6"/>
       <c r="BW136" s="6"/>
+      <c r="BX136" s="6"/>
+      <c r="BY136" s="6"/>
+      <c r="BZ136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="6"/>
@@ -19352,6 +19917,9 @@
       <c r="BU137" s="6"/>
       <c r="BV137" s="6"/>
       <c r="BW137" s="6"/>
+      <c r="BX137" s="6"/>
+      <c r="BY137" s="6"/>
+      <c r="BZ137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="6"/>
@@ -19429,6 +19997,9 @@
       <c r="BU138" s="6"/>
       <c r="BV138" s="6"/>
       <c r="BW138" s="6"/>
+      <c r="BX138" s="6"/>
+      <c r="BY138" s="6"/>
+      <c r="BZ138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="6"/>
@@ -19506,6 +20077,9 @@
       <c r="BU139" s="6"/>
       <c r="BV139" s="6"/>
       <c r="BW139" s="6"/>
+      <c r="BX139" s="6"/>
+      <c r="BY139" s="6"/>
+      <c r="BZ139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="6"/>
@@ -19583,6 +20157,9 @@
       <c r="BU140" s="6"/>
       <c r="BV140" s="6"/>
       <c r="BW140" s="6"/>
+      <c r="BX140" s="6"/>
+      <c r="BY140" s="6"/>
+      <c r="BZ140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="6"/>
@@ -19660,6 +20237,9 @@
       <c r="BU141" s="6"/>
       <c r="BV141" s="6"/>
       <c r="BW141" s="6"/>
+      <c r="BX141" s="6"/>
+      <c r="BY141" s="6"/>
+      <c r="BZ141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="6"/>
@@ -19737,6 +20317,9 @@
       <c r="BU142" s="6"/>
       <c r="BV142" s="6"/>
       <c r="BW142" s="6"/>
+      <c r="BX142" s="6"/>
+      <c r="BY142" s="6"/>
+      <c r="BZ142" s="6"/>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="6"/>
@@ -19814,6 +20397,9 @@
       <c r="BU143" s="6"/>
       <c r="BV143" s="6"/>
       <c r="BW143" s="6"/>
+      <c r="BX143" s="6"/>
+      <c r="BY143" s="6"/>
+      <c r="BZ143" s="6"/>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="6"/>
@@ -19891,6 +20477,9 @@
       <c r="BU144" s="6"/>
       <c r="BV144" s="6"/>
       <c r="BW144" s="6"/>
+      <c r="BX144" s="6"/>
+      <c r="BY144" s="6"/>
+      <c r="BZ144" s="6"/>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="6"/>
@@ -19968,6 +20557,9 @@
       <c r="BU145" s="6"/>
       <c r="BV145" s="6"/>
       <c r="BW145" s="6"/>
+      <c r="BX145" s="6"/>
+      <c r="BY145" s="6"/>
+      <c r="BZ145" s="6"/>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="6"/>
@@ -20045,6 +20637,9 @@
       <c r="BU146" s="6"/>
       <c r="BV146" s="6"/>
       <c r="BW146" s="6"/>
+      <c r="BX146" s="6"/>
+      <c r="BY146" s="6"/>
+      <c r="BZ146" s="6"/>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="6"/>
@@ -20122,6 +20717,9 @@
       <c r="BU147" s="6"/>
       <c r="BV147" s="6"/>
       <c r="BW147" s="6"/>
+      <c r="BX147" s="6"/>
+      <c r="BY147" s="6"/>
+      <c r="BZ147" s="6"/>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="6"/>
@@ -20199,6 +20797,9 @@
       <c r="BU148" s="6"/>
       <c r="BV148" s="6"/>
       <c r="BW148" s="6"/>
+      <c r="BX148" s="6"/>
+      <c r="BY148" s="6"/>
+      <c r="BZ148" s="6"/>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="6"/>
@@ -20276,6 +20877,9 @@
       <c r="BU149" s="6"/>
       <c r="BV149" s="6"/>
       <c r="BW149" s="6"/>
+      <c r="BX149" s="6"/>
+      <c r="BY149" s="6"/>
+      <c r="BZ149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="6"/>
@@ -20353,6 +20957,9 @@
       <c r="BU150" s="6"/>
       <c r="BV150" s="6"/>
       <c r="BW150" s="6"/>
+      <c r="BX150" s="6"/>
+      <c r="BY150" s="6"/>
+      <c r="BZ150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="6"/>
@@ -20430,6 +21037,9 @@
       <c r="BU151" s="6"/>
       <c r="BV151" s="6"/>
       <c r="BW151" s="6"/>
+      <c r="BX151" s="6"/>
+      <c r="BY151" s="6"/>
+      <c r="BZ151" s="6"/>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="6"/>
@@ -20507,6 +21117,9 @@
       <c r="BU152" s="6"/>
       <c r="BV152" s="6"/>
       <c r="BW152" s="6"/>
+      <c r="BX152" s="6"/>
+      <c r="BY152" s="6"/>
+      <c r="BZ152" s="6"/>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="6"/>
@@ -20584,6 +21197,9 @@
       <c r="BU153" s="6"/>
       <c r="BV153" s="6"/>
       <c r="BW153" s="6"/>
+      <c r="BX153" s="6"/>
+      <c r="BY153" s="6"/>
+      <c r="BZ153" s="6"/>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="6"/>
@@ -20661,6 +21277,9 @@
       <c r="BU154" s="6"/>
       <c r="BV154" s="6"/>
       <c r="BW154" s="6"/>
+      <c r="BX154" s="6"/>
+      <c r="BY154" s="6"/>
+      <c r="BZ154" s="6"/>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="6"/>
@@ -20738,6 +21357,9 @@
       <c r="BU155" s="6"/>
       <c r="BV155" s="6"/>
       <c r="BW155" s="6"/>
+      <c r="BX155" s="6"/>
+      <c r="BY155" s="6"/>
+      <c r="BZ155" s="6"/>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="6"/>
@@ -20815,6 +21437,9 @@
       <c r="BU156" s="6"/>
       <c r="BV156" s="6"/>
       <c r="BW156" s="6"/>
+      <c r="BX156" s="6"/>
+      <c r="BY156" s="6"/>
+      <c r="BZ156" s="6"/>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="6"/>
@@ -20892,6 +21517,9 @@
       <c r="BU157" s="6"/>
       <c r="BV157" s="6"/>
       <c r="BW157" s="6"/>
+      <c r="BX157" s="6"/>
+      <c r="BY157" s="6"/>
+      <c r="BZ157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="6"/>
@@ -20969,6 +21597,9 @@
       <c r="BU158" s="6"/>
       <c r="BV158" s="6"/>
       <c r="BW158" s="6"/>
+      <c r="BX158" s="6"/>
+      <c r="BY158" s="6"/>
+      <c r="BZ158" s="6"/>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="6"/>
@@ -21046,6 +21677,9 @@
       <c r="BU159" s="6"/>
       <c r="BV159" s="6"/>
       <c r="BW159" s="6"/>
+      <c r="BX159" s="6"/>
+      <c r="BY159" s="6"/>
+      <c r="BZ159" s="6"/>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="6"/>
@@ -21123,6 +21757,9 @@
       <c r="BU160" s="6"/>
       <c r="BV160" s="6"/>
       <c r="BW160" s="6"/>
+      <c r="BX160" s="6"/>
+      <c r="BY160" s="6"/>
+      <c r="BZ160" s="6"/>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="6"/>
@@ -21200,6 +21837,9 @@
       <c r="BU161" s="6"/>
       <c r="BV161" s="6"/>
       <c r="BW161" s="6"/>
+      <c r="BX161" s="6"/>
+      <c r="BY161" s="6"/>
+      <c r="BZ161" s="6"/>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="6"/>
@@ -21277,6 +21917,9 @@
       <c r="BU162" s="6"/>
       <c r="BV162" s="6"/>
       <c r="BW162" s="6"/>
+      <c r="BX162" s="6"/>
+      <c r="BY162" s="6"/>
+      <c r="BZ162" s="6"/>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="6"/>
@@ -21354,6 +21997,9 @@
       <c r="BU163" s="6"/>
       <c r="BV163" s="6"/>
       <c r="BW163" s="6"/>
+      <c r="BX163" s="6"/>
+      <c r="BY163" s="6"/>
+      <c r="BZ163" s="6"/>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="6"/>
@@ -21431,6 +22077,9 @@
       <c r="BU164" s="6"/>
       <c r="BV164" s="6"/>
       <c r="BW164" s="6"/>
+      <c r="BX164" s="6"/>
+      <c r="BY164" s="6"/>
+      <c r="BZ164" s="6"/>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="6"/>
@@ -21508,6 +22157,9 @@
       <c r="BU165" s="6"/>
       <c r="BV165" s="6"/>
       <c r="BW165" s="6"/>
+      <c r="BX165" s="6"/>
+      <c r="BY165" s="6"/>
+      <c r="BZ165" s="6"/>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="6"/>
@@ -21585,6 +22237,9 @@
       <c r="BU166" s="6"/>
       <c r="BV166" s="6"/>
       <c r="BW166" s="6"/>
+      <c r="BX166" s="6"/>
+      <c r="BY166" s="6"/>
+      <c r="BZ166" s="6"/>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="6"/>
@@ -21662,6 +22317,9 @@
       <c r="BU167" s="6"/>
       <c r="BV167" s="6"/>
       <c r="BW167" s="6"/>
+      <c r="BX167" s="6"/>
+      <c r="BY167" s="6"/>
+      <c r="BZ167" s="6"/>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="6"/>
@@ -21739,6 +22397,9 @@
       <c r="BU168" s="6"/>
       <c r="BV168" s="6"/>
       <c r="BW168" s="6"/>
+      <c r="BX168" s="6"/>
+      <c r="BY168" s="6"/>
+      <c r="BZ168" s="6"/>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="6"/>
@@ -21816,6 +22477,9 @@
       <c r="BU169" s="6"/>
       <c r="BV169" s="6"/>
       <c r="BW169" s="6"/>
+      <c r="BX169" s="6"/>
+      <c r="BY169" s="6"/>
+      <c r="BZ169" s="6"/>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="6"/>
@@ -21893,6 +22557,9 @@
       <c r="BU170" s="6"/>
       <c r="BV170" s="6"/>
       <c r="BW170" s="6"/>
+      <c r="BX170" s="6"/>
+      <c r="BY170" s="6"/>
+      <c r="BZ170" s="6"/>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="6"/>
@@ -21970,6 +22637,9 @@
       <c r="BU171" s="6"/>
       <c r="BV171" s="6"/>
       <c r="BW171" s="6"/>
+      <c r="BX171" s="6"/>
+      <c r="BY171" s="6"/>
+      <c r="BZ171" s="6"/>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="6"/>
@@ -22047,6 +22717,9 @@
       <c r="BU172" s="6"/>
       <c r="BV172" s="6"/>
       <c r="BW172" s="6"/>
+      <c r="BX172" s="6"/>
+      <c r="BY172" s="6"/>
+      <c r="BZ172" s="6"/>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="6"/>
@@ -22124,6 +22797,9 @@
       <c r="BU173" s="6"/>
       <c r="BV173" s="6"/>
       <c r="BW173" s="6"/>
+      <c r="BX173" s="6"/>
+      <c r="BY173" s="6"/>
+      <c r="BZ173" s="6"/>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="6"/>
@@ -22201,6 +22877,9 @@
       <c r="BU174" s="6"/>
       <c r="BV174" s="6"/>
       <c r="BW174" s="6"/>
+      <c r="BX174" s="6"/>
+      <c r="BY174" s="6"/>
+      <c r="BZ174" s="6"/>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="6"/>
@@ -22278,6 +22957,9 @@
       <c r="BU175" s="6"/>
       <c r="BV175" s="6"/>
       <c r="BW175" s="6"/>
+      <c r="BX175" s="6"/>
+      <c r="BY175" s="6"/>
+      <c r="BZ175" s="6"/>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="6"/>
@@ -22355,6 +23037,9 @@
       <c r="BU176" s="6"/>
       <c r="BV176" s="6"/>
       <c r="BW176" s="6"/>
+      <c r="BX176" s="6"/>
+      <c r="BY176" s="6"/>
+      <c r="BZ176" s="6"/>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="6"/>
@@ -22432,6 +23117,9 @@
       <c r="BU177" s="6"/>
       <c r="BV177" s="6"/>
       <c r="BW177" s="6"/>
+      <c r="BX177" s="6"/>
+      <c r="BY177" s="6"/>
+      <c r="BZ177" s="6"/>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="6"/>
@@ -22509,6 +23197,9 @@
       <c r="BU178" s="6"/>
       <c r="BV178" s="6"/>
       <c r="BW178" s="6"/>
+      <c r="BX178" s="6"/>
+      <c r="BY178" s="6"/>
+      <c r="BZ178" s="6"/>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="6"/>
@@ -22586,6 +23277,9 @@
       <c r="BU179" s="6"/>
       <c r="BV179" s="6"/>
       <c r="BW179" s="6"/>
+      <c r="BX179" s="6"/>
+      <c r="BY179" s="6"/>
+      <c r="BZ179" s="6"/>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="6"/>
@@ -22663,6 +23357,9 @@
       <c r="BU180" s="6"/>
       <c r="BV180" s="6"/>
       <c r="BW180" s="6"/>
+      <c r="BX180" s="6"/>
+      <c r="BY180" s="6"/>
+      <c r="BZ180" s="6"/>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="6"/>
@@ -22740,6 +23437,9 @@
       <c r="BU181" s="6"/>
       <c r="BV181" s="6"/>
       <c r="BW181" s="6"/>
+      <c r="BX181" s="6"/>
+      <c r="BY181" s="6"/>
+      <c r="BZ181" s="6"/>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="6"/>
@@ -22817,6 +23517,9 @@
       <c r="BU182" s="6"/>
       <c r="BV182" s="6"/>
       <c r="BW182" s="6"/>
+      <c r="BX182" s="6"/>
+      <c r="BY182" s="6"/>
+      <c r="BZ182" s="6"/>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="6"/>
@@ -22894,6 +23597,9 @@
       <c r="BU183" s="6"/>
       <c r="BV183" s="6"/>
       <c r="BW183" s="6"/>
+      <c r="BX183" s="6"/>
+      <c r="BY183" s="6"/>
+      <c r="BZ183" s="6"/>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="6"/>
@@ -22971,6 +23677,9 @@
       <c r="BU184" s="6"/>
       <c r="BV184" s="6"/>
       <c r="BW184" s="6"/>
+      <c r="BX184" s="6"/>
+      <c r="BY184" s="6"/>
+      <c r="BZ184" s="6"/>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="6"/>
@@ -23048,6 +23757,9 @@
       <c r="BU185" s="6"/>
       <c r="BV185" s="6"/>
       <c r="BW185" s="6"/>
+      <c r="BX185" s="6"/>
+      <c r="BY185" s="6"/>
+      <c r="BZ185" s="6"/>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="6"/>
@@ -23125,6 +23837,9 @@
       <c r="BU186" s="6"/>
       <c r="BV186" s="6"/>
       <c r="BW186" s="6"/>
+      <c r="BX186" s="6"/>
+      <c r="BY186" s="6"/>
+      <c r="BZ186" s="6"/>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="6"/>
@@ -23202,6 +23917,9 @@
       <c r="BU187" s="6"/>
       <c r="BV187" s="6"/>
       <c r="BW187" s="6"/>
+      <c r="BX187" s="6"/>
+      <c r="BY187" s="6"/>
+      <c r="BZ187" s="6"/>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="6"/>
@@ -23279,6 +23997,9 @@
       <c r="BU188" s="6"/>
       <c r="BV188" s="6"/>
       <c r="BW188" s="6"/>
+      <c r="BX188" s="6"/>
+      <c r="BY188" s="6"/>
+      <c r="BZ188" s="6"/>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="6"/>
@@ -23356,6 +24077,9 @@
       <c r="BU189" s="6"/>
       <c r="BV189" s="6"/>
       <c r="BW189" s="6"/>
+      <c r="BX189" s="6"/>
+      <c r="BY189" s="6"/>
+      <c r="BZ189" s="6"/>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="6"/>
@@ -23433,6 +24157,9 @@
       <c r="BU190" s="6"/>
       <c r="BV190" s="6"/>
       <c r="BW190" s="6"/>
+      <c r="BX190" s="6"/>
+      <c r="BY190" s="6"/>
+      <c r="BZ190" s="6"/>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="6"/>
@@ -23510,6 +24237,9 @@
       <c r="BU191" s="6"/>
       <c r="BV191" s="6"/>
       <c r="BW191" s="6"/>
+      <c r="BX191" s="6"/>
+      <c r="BY191" s="6"/>
+      <c r="BZ191" s="6"/>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="6"/>
@@ -23587,6 +24317,9 @@
       <c r="BU192" s="6"/>
       <c r="BV192" s="6"/>
       <c r="BW192" s="6"/>
+      <c r="BX192" s="6"/>
+      <c r="BY192" s="6"/>
+      <c r="BZ192" s="6"/>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="6"/>
@@ -23664,6 +24397,9 @@
       <c r="BU193" s="6"/>
       <c r="BV193" s="6"/>
       <c r="BW193" s="6"/>
+      <c r="BX193" s="6"/>
+      <c r="BY193" s="6"/>
+      <c r="BZ193" s="6"/>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="6"/>
@@ -23741,6 +24477,9 @@
       <c r="BU194" s="6"/>
       <c r="BV194" s="6"/>
       <c r="BW194" s="6"/>
+      <c r="BX194" s="6"/>
+      <c r="BY194" s="6"/>
+      <c r="BZ194" s="6"/>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="6"/>
@@ -23818,6 +24557,9 @@
       <c r="BU195" s="6"/>
       <c r="BV195" s="6"/>
       <c r="BW195" s="6"/>
+      <c r="BX195" s="6"/>
+      <c r="BY195" s="6"/>
+      <c r="BZ195" s="6"/>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="6"/>
@@ -23895,6 +24637,9 @@
       <c r="BU196" s="6"/>
       <c r="BV196" s="6"/>
       <c r="BW196" s="6"/>
+      <c r="BX196" s="6"/>
+      <c r="BY196" s="6"/>
+      <c r="BZ196" s="6"/>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="6"/>
@@ -23972,6 +24717,9 @@
       <c r="BU197" s="6"/>
       <c r="BV197" s="6"/>
       <c r="BW197" s="6"/>
+      <c r="BX197" s="6"/>
+      <c r="BY197" s="6"/>
+      <c r="BZ197" s="6"/>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="6"/>
@@ -24049,6 +24797,9 @@
       <c r="BU198" s="6"/>
       <c r="BV198" s="6"/>
       <c r="BW198" s="6"/>
+      <c r="BX198" s="6"/>
+      <c r="BY198" s="6"/>
+      <c r="BZ198" s="6"/>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="6"/>
@@ -24126,6 +24877,9 @@
       <c r="BU199" s="6"/>
       <c r="BV199" s="6"/>
       <c r="BW199" s="6"/>
+      <c r="BX199" s="6"/>
+      <c r="BY199" s="6"/>
+      <c r="BZ199" s="6"/>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="6"/>
@@ -24203,6 +24957,9 @@
       <c r="BU200" s="6"/>
       <c r="BV200" s="6"/>
       <c r="BW200" s="6"/>
+      <c r="BX200" s="6"/>
+      <c r="BY200" s="6"/>
+      <c r="BZ200" s="6"/>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="6"/>
@@ -24280,6 +25037,9 @@
       <c r="BU201" s="6"/>
       <c r="BV201" s="6"/>
       <c r="BW201" s="6"/>
+      <c r="BX201" s="6"/>
+      <c r="BY201" s="6"/>
+      <c r="BZ201" s="6"/>
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="6"/>
@@ -24357,6 +25117,9 @@
       <c r="BU202" s="6"/>
       <c r="BV202" s="6"/>
       <c r="BW202" s="6"/>
+      <c r="BX202" s="6"/>
+      <c r="BY202" s="6"/>
+      <c r="BZ202" s="6"/>
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="6"/>
@@ -24434,6 +25197,9 @@
       <c r="BU203" s="6"/>
       <c r="BV203" s="6"/>
       <c r="BW203" s="6"/>
+      <c r="BX203" s="6"/>
+      <c r="BY203" s="6"/>
+      <c r="BZ203" s="6"/>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="6"/>
@@ -24511,6 +25277,9 @@
       <c r="BU204" s="6"/>
       <c r="BV204" s="6"/>
       <c r="BW204" s="6"/>
+      <c r="BX204" s="6"/>
+      <c r="BY204" s="6"/>
+      <c r="BZ204" s="6"/>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="6"/>
@@ -24588,6 +25357,9 @@
       <c r="BU205" s="6"/>
       <c r="BV205" s="6"/>
       <c r="BW205" s="6"/>
+      <c r="BX205" s="6"/>
+      <c r="BY205" s="6"/>
+      <c r="BZ205" s="6"/>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="6"/>
@@ -24665,6 +25437,9 @@
       <c r="BU206" s="6"/>
       <c r="BV206" s="6"/>
       <c r="BW206" s="6"/>
+      <c r="BX206" s="6"/>
+      <c r="BY206" s="6"/>
+      <c r="BZ206" s="6"/>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="6"/>
@@ -24742,6 +25517,9 @@
       <c r="BU207" s="6"/>
       <c r="BV207" s="6"/>
       <c r="BW207" s="6"/>
+      <c r="BX207" s="6"/>
+      <c r="BY207" s="6"/>
+      <c r="BZ207" s="6"/>
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="6"/>
@@ -24819,6 +25597,9 @@
       <c r="BU208" s="6"/>
       <c r="BV208" s="6"/>
       <c r="BW208" s="6"/>
+      <c r="BX208" s="6"/>
+      <c r="BY208" s="6"/>
+      <c r="BZ208" s="6"/>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="6"/>
@@ -24896,6 +25677,9 @@
       <c r="BU209" s="6"/>
       <c r="BV209" s="6"/>
       <c r="BW209" s="6"/>
+      <c r="BX209" s="6"/>
+      <c r="BY209" s="6"/>
+      <c r="BZ209" s="6"/>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="6"/>
@@ -24973,6 +25757,9 @@
       <c r="BU210" s="6"/>
       <c r="BV210" s="6"/>
       <c r="BW210" s="6"/>
+      <c r="BX210" s="6"/>
+      <c r="BY210" s="6"/>
+      <c r="BZ210" s="6"/>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="6"/>
@@ -25050,6 +25837,9 @@
       <c r="BU211" s="6"/>
       <c r="BV211" s="6"/>
       <c r="BW211" s="6"/>
+      <c r="BX211" s="6"/>
+      <c r="BY211" s="6"/>
+      <c r="BZ211" s="6"/>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="6"/>
@@ -25127,6 +25917,9 @@
       <c r="BU212" s="6"/>
       <c r="BV212" s="6"/>
       <c r="BW212" s="6"/>
+      <c r="BX212" s="6"/>
+      <c r="BY212" s="6"/>
+      <c r="BZ212" s="6"/>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="6"/>
@@ -25204,6 +25997,9 @@
       <c r="BU213" s="6"/>
       <c r="BV213" s="6"/>
       <c r="BW213" s="6"/>
+      <c r="BX213" s="6"/>
+      <c r="BY213" s="6"/>
+      <c r="BZ213" s="6"/>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="6"/>
@@ -25281,6 +26077,9 @@
       <c r="BU214" s="6"/>
       <c r="BV214" s="6"/>
       <c r="BW214" s="6"/>
+      <c r="BX214" s="6"/>
+      <c r="BY214" s="6"/>
+      <c r="BZ214" s="6"/>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="6"/>
@@ -25358,6 +26157,9 @@
       <c r="BU215" s="6"/>
       <c r="BV215" s="6"/>
       <c r="BW215" s="6"/>
+      <c r="BX215" s="6"/>
+      <c r="BY215" s="6"/>
+      <c r="BZ215" s="6"/>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="6"/>
@@ -25435,6 +26237,9 @@
       <c r="BU216" s="6"/>
       <c r="BV216" s="6"/>
       <c r="BW216" s="6"/>
+      <c r="BX216" s="6"/>
+      <c r="BY216" s="6"/>
+      <c r="BZ216" s="6"/>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="6"/>
@@ -25512,6 +26317,9 @@
       <c r="BU217" s="6"/>
       <c r="BV217" s="6"/>
       <c r="BW217" s="6"/>
+      <c r="BX217" s="6"/>
+      <c r="BY217" s="6"/>
+      <c r="BZ217" s="6"/>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="6"/>
@@ -25589,6 +26397,9 @@
       <c r="BU218" s="6"/>
       <c r="BV218" s="6"/>
       <c r="BW218" s="6"/>
+      <c r="BX218" s="6"/>
+      <c r="BY218" s="6"/>
+      <c r="BZ218" s="6"/>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="6"/>
@@ -25666,6 +26477,9 @@
       <c r="BU219" s="6"/>
       <c r="BV219" s="6"/>
       <c r="BW219" s="6"/>
+      <c r="BX219" s="6"/>
+      <c r="BY219" s="6"/>
+      <c r="BZ219" s="6"/>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="6"/>
@@ -25743,6 +26557,9 @@
       <c r="BU220" s="6"/>
       <c r="BV220" s="6"/>
       <c r="BW220" s="6"/>
+      <c r="BX220" s="6"/>
+      <c r="BY220" s="6"/>
+      <c r="BZ220" s="6"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Mod_Korean/Lang/KR/Data/chara_tone.xlsx
+++ b/Mod_Korean/Lang/KR/Data/chara_tone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="1014">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1179,9 +1179,6 @@
   </si>
   <si>
     <t xml:space="preserve">뭘까,뭐지,무엇일까</t>
-  </si>
-  <si>
-    <t xml:space="preserve">좋아,응</t>
   </si>
   <si>
     <t xml:space="preserve">해
@@ -6053,11 +6050,11 @@
   <dimension ref="A1:CE1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P27" activeCellId="0" sqref="P27"/>
+      <selection pane="bottomRight" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7439,19 +7436,19 @@
         <v>40</v>
       </c>
       <c r="AP8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ8" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AQ8" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="AR8" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AS8" s="4" t="s">
         <v>43</v>
       </c>
       <c r="AT8" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AU8" s="11" t="s">
         <v>46</v>
@@ -7493,10 +7490,10 @@
         <v>58</v>
       </c>
       <c r="BH8" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="BI8" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="BI8" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="BJ8" s="4" t="s">
         <v>61</v>
@@ -7508,58 +7505,58 @@
         <v>102</v>
       </c>
       <c r="BM8" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BN8" s="4" t="s">
         <v>65</v>
       </c>
       <c r="BO8" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="BP8" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="BP8" s="5" t="s">
+      <c r="BQ8" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="BQ8" s="5" t="s">
+      <c r="BR8" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="BR8" s="5" t="s">
-        <v>282</v>
       </c>
       <c r="BS8" s="5" t="s">
         <v>70</v>
       </c>
       <c r="BT8" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="BU8" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="BU8" s="5" t="s">
+      <c r="BV8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BV8" s="5" t="s">
+      <c r="BW8" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="BW8" s="4" t="s">
+      <c r="BX8" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="BX8" s="5" t="s">
+      <c r="BY8" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="BY8" s="5" t="s">
+      <c r="BZ8" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="BZ8" s="4" t="s">
+      <c r="CA8" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="CA8" s="1" t="s">
+      <c r="CB8" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="CB8" s="1" t="s">
+      <c r="CC8" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="CC8" s="1" t="s">
+      <c r="CD8" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="CD8" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="CE8" s="1" t="s">
         <v>82</v>
@@ -7567,10 +7564,10 @@
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>295</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="9" t="s">
@@ -7580,7 +7577,7 @@
         <v>255</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>6</v>
@@ -7607,274 +7604,274 @@
         <v>13</v>
       </c>
       <c r="O9" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="S9" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="U9" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="W9" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="X9" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="X9" s="13" t="s">
+      <c r="Y9" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="Y9" s="13" t="s">
+      <c r="Z9" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="Z9" s="13" t="s">
+      <c r="AA9" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="AA9" s="13" t="s">
+      <c r="AB9" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="AB9" s="14" t="s">
+      <c r="AC9" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="AC9" s="14" t="s">
+      <c r="AD9" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="AD9" s="14" t="s">
+      <c r="AE9" s="14" t="s">
         <v>312</v>
-      </c>
-      <c r="AE9" s="14" t="s">
-        <v>313</v>
       </c>
       <c r="AF9" s="13" t="s">
         <v>31</v>
       </c>
       <c r="AG9" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="AH9" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="AH9" s="14" t="s">
+      <c r="AI9" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="AI9" s="13" t="s">
+      <c r="AJ9" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="AJ9" s="13" t="s">
+      <c r="AK9" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="AK9" s="13" t="s">
+      <c r="AL9" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="AL9" s="14" t="s">
+      <c r="AM9" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="AM9" s="13" t="s">
+      <c r="AN9" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="AN9" s="13" t="s">
+      <c r="AO9" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="AO9" s="13" t="s">
+      <c r="AP9" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="AP9" s="13" t="s">
+      <c r="AQ9" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="AQ9" s="13" t="s">
+      <c r="AR9" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="AS9" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="AT9" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="AR9" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="AS9" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="AT9" s="13" t="s">
+      <c r="AU9" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="AU9" s="11" t="s">
+      <c r="AV9" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="AV9" s="13" t="s">
+      <c r="AW9" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="AW9" s="13" t="s">
+      <c r="AX9" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="AX9" s="13" t="s">
+      <c r="AY9" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="AY9" s="13" t="s">
+      <c r="AZ9" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="AZ9" s="13" t="s">
+      <c r="BA9" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="BA9" s="13" t="s">
+      <c r="BB9" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="BB9" s="13" t="s">
+      <c r="BC9" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="BC9" s="13" t="s">
+      <c r="BD9" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="BE9" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="BD9" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="BE9" s="13" t="s">
+      <c r="BF9" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="BF9" s="13" t="s">
+      <c r="BG9" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="BG9" s="13" t="s">
+      <c r="BH9" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="BH9" s="13" t="s">
+      <c r="BI9" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="BI9" s="13" t="s">
+      <c r="BJ9" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="BJ9" s="13" t="s">
+      <c r="BK9" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="BK9" s="13" t="s">
+      <c r="BL9" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="BL9" s="13" t="s">
+      <c r="BM9" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="BM9" s="13" t="s">
+      <c r="BN9" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="BN9" s="13" t="s">
+      <c r="BO9" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="BO9" s="5" t="s">
+      <c r="BP9" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="BP9" s="5" t="s">
+      <c r="BQ9" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="BQ9" s="5" t="s">
+      <c r="BR9" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="BR9" s="5" t="s">
+      <c r="BS9" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="BS9" s="5" t="s">
+      <c r="BT9" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="BT9" s="5" t="s">
+      <c r="BU9" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="BU9" s="5" t="s">
+      <c r="BV9" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="BV9" s="5" t="s">
+      <c r="BW9" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="BW9" s="5" t="s">
+      <c r="BX9" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="BX9" s="5" t="s">
+      <c r="BY9" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="BY9" s="5" t="s">
+      <c r="BZ9" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="BZ9" s="4" t="s">
+      <c r="CA9" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="CA9" s="10" t="s">
+      <c r="CB9" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="CB9" s="10" t="s">
+      <c r="CC9" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="CC9" s="1" t="s">
+      <c r="CD9" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="CE9" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="CD9" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="CE9" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="M10" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="N10" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="O10" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="P10" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="Q10" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="R10" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="S10" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>376</v>
       </c>
       <c r="T10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>21</v>
@@ -7883,445 +7880,445 @@
         <v>22</v>
       </c>
       <c r="X10" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y10" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="Y10" s="5" t="s">
+      <c r="Z10" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="Z10" s="5" t="s">
+      <c r="AA10" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="AA10" s="5" t="s">
+      <c r="AB10" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="AB10" s="5" t="s">
+      <c r="AC10" s="5" t="s">
         <v>382</v>
-      </c>
-      <c r="AC10" s="5" t="s">
-        <v>383</v>
       </c>
       <c r="AD10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="AE10" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="AG10" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH10" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="AH10" s="5" t="s">
+      <c r="AI10" s="5" t="s">
         <v>386</v>
-      </c>
-      <c r="AI10" s="5" t="s">
-        <v>387</v>
       </c>
       <c r="AJ10" s="5" t="s">
         <v>35</v>
       </c>
       <c r="AK10" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="AL10" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="AL10" s="5" t="s">
+      <c r="AM10" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="AM10" s="5" t="s">
-        <v>390</v>
       </c>
       <c r="AN10" s="5" t="s">
         <v>39</v>
       </c>
       <c r="AO10" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="AP10" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="AP10" s="5" t="s">
+      <c r="AQ10" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="AQ10" s="5" t="s">
+      <c r="AR10" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="AS10" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="AR10" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="AS10" s="15" t="s">
+      <c r="AT10" s="15" t="s">
         <v>394</v>
-      </c>
-      <c r="AT10" s="15" t="s">
-        <v>395</v>
       </c>
       <c r="AU10" s="11" t="s">
         <v>46</v>
       </c>
       <c r="AV10" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="AW10" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="AW10" s="15" t="s">
+      <c r="AX10" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="AX10" s="15" t="s">
+      <c r="AY10" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="AY10" s="15" t="s">
+      <c r="AZ10" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="AZ10" s="15" t="s">
+      <c r="BA10" s="15" t="s">
         <v>400</v>
-      </c>
-      <c r="BA10" s="15" t="s">
-        <v>401</v>
       </c>
       <c r="BB10" s="15" t="s">
         <v>53</v>
       </c>
       <c r="BC10" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="BD10" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="BD10" s="15" t="s">
+      <c r="BE10" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="BF10" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="BE10" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="BF10" s="15" t="s">
+      <c r="BG10" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="BG10" s="15" t="s">
+      <c r="BH10" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="BH10" s="15" t="s">
+      <c r="BI10" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="BI10" s="15" t="s">
+      <c r="BJ10" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="BJ10" s="15" t="s">
+      <c r="BK10" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="BK10" s="15" t="s">
+      <c r="BL10" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="BL10" s="15" t="s">
+      <c r="BM10" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="BM10" s="15" t="s">
+      <c r="BN10" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="BN10" s="15" t="s">
+      <c r="BO10" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="BO10" s="5" t="s">
+      <c r="BP10" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="BP10" s="5" t="s">
+      <c r="BQ10" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="BQ10" s="5" t="s">
+      <c r="BR10" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="BR10" s="5" t="s">
+      <c r="BS10" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="BS10" s="5" t="s">
+      <c r="BT10" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="BT10" s="5" t="s">
+      <c r="BU10" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="BU10" s="5" t="s">
+      <c r="BV10" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="BV10" s="5" t="s">
+      <c r="BW10" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="BW10" s="4" t="s">
+      <c r="BX10" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="BX10" s="5" t="s">
+      <c r="BY10" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="BY10" s="5" t="s">
+      <c r="BZ10" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="BZ10" s="4" t="s">
+      <c r="CA10" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="CA10" s="16" t="s">
+      <c r="CB10" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="CB10" s="1" t="s">
+      <c r="CC10" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="CC10" s="1" t="s">
+      <c r="CD10" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="CD10" s="1" t="s">
+      <c r="CE10" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="CE10" s="1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>430</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>431</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="N11" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="O11" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="P11" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="S11" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="T11" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="U11" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="V11" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V11" s="4" t="s">
+      <c r="W11" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="X11" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="X11" s="4" t="s">
+      <c r="Y11" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="Y11" s="4" t="s">
+      <c r="Z11" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="Z11" s="4" t="s">
+      <c r="AA11" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="AA11" s="4" t="s">
+      <c r="AB11" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="AB11" s="4" t="s">
+      <c r="AC11" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="AC11" s="4" t="s">
+      <c r="AD11" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="AD11" s="4" t="s">
+      <c r="AE11" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="AE11" s="4" t="s">
+      <c r="AF11" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="AF11" s="4" t="s">
+      <c r="AG11" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="AG11" s="4" t="s">
+      <c r="AH11" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="AH11" s="4" t="s">
+      <c r="AI11" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="AI11" s="4" t="s">
+      <c r="AJ11" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="AJ11" s="4" t="s">
+      <c r="AK11" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="AK11" s="4" t="s">
+      <c r="AL11" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="AL11" s="4" t="s">
+      <c r="AM11" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="AM11" s="4" t="s">
+      <c r="AN11" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="AN11" s="4" t="s">
+      <c r="AO11" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="AO11" s="4" t="s">
+      <c r="AP11" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="AP11" s="4" t="s">
+      <c r="AQ11" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="AQ11" s="4" t="s">
+      <c r="AR11" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="AS11" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="AR11" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="AS11" s="4" t="s">
+      <c r="AT11" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="AT11" s="4" t="s">
+      <c r="AU11" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="AU11" s="4" t="s">
+      <c r="AV11" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="AV11" s="4" t="s">
+      <c r="AW11" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="AW11" s="4" t="s">
+      <c r="AX11" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="AX11" s="4" t="s">
+      <c r="AY11" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="AY11" s="4" t="s">
+      <c r="AZ11" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="AZ11" s="4" t="s">
+      <c r="BA11" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="BA11" s="4" t="s">
+      <c r="BB11" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="BB11" s="4" t="s">
+      <c r="BC11" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="BC11" s="4" t="s">
+      <c r="BD11" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="BD11" s="4" t="s">
+      <c r="BE11" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="BE11" s="4" t="s">
+      <c r="BF11" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="BF11" s="4" t="s">
+      <c r="BG11" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="BG11" s="4" t="s">
+      <c r="BH11" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="BH11" s="4" t="s">
+      <c r="BI11" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="BI11" s="4" t="s">
+      <c r="BJ11" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="BJ11" s="4" t="s">
+      <c r="BK11" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="BK11" s="4" t="s">
+      <c r="BL11" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="BM11" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="BL11" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="BM11" s="4" t="s">
+      <c r="BN11" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="BN11" s="4" t="s">
+      <c r="BO11" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="BO11" s="5" t="s">
+      <c r="BP11" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="BP11" s="5" t="s">
+      <c r="BQ11" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="BQ11" s="5" t="s">
+      <c r="BR11" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="BR11" s="5" t="s">
+      <c r="BS11" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="BS11" s="5" t="s">
+      <c r="BT11" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="BT11" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="BU11" s="5" t="s">
         <v>72</v>
       </c>
       <c r="BV11" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="BW11" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="BW11" s="5" t="s">
+      <c r="BX11" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="BX11" s="5" t="s">
+      <c r="BY11" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="BY11" s="5" t="s">
+      <c r="BZ11" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="BZ11" s="4" t="s">
+      <c r="CA11" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="CA11" s="10" t="s">
+      <c r="CB11" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="CB11" s="10" t="s">
+      <c r="CC11" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="CC11" s="10" t="s">
+      <c r="CD11" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="CD11" s="10" t="s">
+      <c r="CE11" s="10" t="s">
         <v>507</v>
-      </c>
-      <c r="CE11" s="10" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>509</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>510</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>86</v>
@@ -8354,25 +8351,25 @@
         <v>126</v>
       </c>
       <c r="O12" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="P12" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="Q12" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="R12" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="S12" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="T12" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="U12" s="5" t="s">
         <v>517</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>518</v>
       </c>
       <c r="V12" s="5" t="s">
         <v>21</v>
@@ -8381,151 +8378,151 @@
         <v>135</v>
       </c>
       <c r="X12" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y12" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="Y12" s="5" t="s">
+      <c r="Z12" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="Z12" s="5" t="s">
+      <c r="AA12" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="AA12" s="5" t="s">
+      <c r="AB12" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="AB12" s="5" t="s">
+      <c r="AC12" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="AC12" s="5" t="s">
+      <c r="AD12" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="AD12" s="5" t="s">
+      <c r="AE12" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="AE12" s="5" t="s">
-        <v>526</v>
       </c>
       <c r="AF12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="AG12" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="AH12" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="AH12" s="5" t="s">
+      <c r="AI12" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="AI12" s="5" t="s">
+      <c r="AJ12" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="AJ12" s="5" t="s">
+      <c r="AK12" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="AK12" s="5" t="s">
+      <c r="AL12" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="AL12" s="5" t="s">
+      <c r="AM12" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="AM12" s="5" t="s">
+      <c r="AN12" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="AN12" s="5" t="s">
+      <c r="AO12" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="AO12" s="5" t="s">
+      <c r="AP12" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="AP12" s="5" t="s">
+      <c r="AQ12" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="AQ12" s="5" t="s">
+      <c r="AR12" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="AS12" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="AR12" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="AS12" s="5" t="s">
+      <c r="AT12" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="AT12" s="5" t="s">
+      <c r="AU12" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="AU12" s="5" t="s">
+      <c r="AV12" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="AV12" s="5" t="s">
+      <c r="AW12" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="AW12" s="5" t="s">
+      <c r="AX12" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="AX12" s="5" t="s">
+      <c r="AY12" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="AZ12" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="AY12" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="AZ12" s="5" t="s">
+      <c r="BA12" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="BA12" s="5" t="s">
+      <c r="BB12" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="BB12" s="5" t="s">
+      <c r="BC12" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="BC12" s="5" t="s">
+      <c r="BD12" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="BD12" s="5" t="s">
+      <c r="BE12" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="BE12" s="5" t="s">
+      <c r="BF12" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="BF12" s="5" t="s">
+      <c r="BG12" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="BG12" s="5" t="s">
+      <c r="BH12" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="BH12" s="5" t="s">
+      <c r="BI12" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="BI12" s="5" t="s">
+      <c r="BJ12" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="BJ12" s="5" t="s">
+      <c r="BK12" s="5" t="s">
         <v>554</v>
-      </c>
-      <c r="BK12" s="5" t="s">
-        <v>555</v>
       </c>
       <c r="BL12" s="5" t="s">
         <v>63</v>
       </c>
       <c r="BM12" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="BN12" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="BN12" s="5" t="s">
+      <c r="BO12" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="BO12" s="5" t="s">
+      <c r="BP12" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="BP12" s="5" t="s">
+      <c r="BQ12" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="BQ12" s="5" t="s">
+      <c r="BR12" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="BR12" s="5" t="s">
+      <c r="BS12" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="BS12" s="5" t="s">
+      <c r="BT12" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="BT12" s="5" t="s">
-        <v>563</v>
       </c>
       <c r="BU12" s="5" t="s">
         <v>242</v>
@@ -8534,7 +8531,7 @@
         <v>243</v>
       </c>
       <c r="BW12" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="BX12" s="5" t="s">
         <v>245</v>
@@ -8543,283 +8540,283 @@
         <v>246</v>
       </c>
       <c r="BZ12" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="CA12" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="CA12" s="1" t="s">
+      <c r="CB12" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="CB12" s="1" t="s">
+      <c r="CC12" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="CC12" s="1" t="s">
+      <c r="CD12" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="CD12" s="1" t="s">
+      <c r="CE12" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="CE12" s="1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>571</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>572</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="M13" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="N13" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="O13" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="P13" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="S13" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="T13" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="U13" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="V13" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="V13" s="4" t="s">
+      <c r="W13" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="W13" s="4" t="s">
+      <c r="X13" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="X13" s="4" t="s">
+      <c r="Y13" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="Y13" s="4" t="s">
+      <c r="Z13" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="Z13" s="4" t="s">
+      <c r="AA13" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="AA13" s="4" t="s">
+      <c r="AB13" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="AB13" s="4" t="s">
+      <c r="AC13" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="AC13" s="4" t="s">
+      <c r="AD13" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="AD13" s="4" t="s">
+      <c r="AE13" s="4" t="s">
         <v>598</v>
-      </c>
-      <c r="AE13" s="4" t="s">
-        <v>599</v>
       </c>
       <c r="AF13" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AG13" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="AH13" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="AH13" s="4" t="s">
+      <c r="AI13" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="AI13" s="4" t="s">
+      <c r="AJ13" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="AJ13" s="4" t="s">
+      <c r="AK13" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="AK13" s="4" t="s">
+      <c r="AL13" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="AL13" s="4" t="s">
+      <c r="AM13" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="AM13" s="4" t="s">
+      <c r="AN13" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="AN13" s="4" t="s">
+      <c r="AO13" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="AO13" s="4" t="s">
+      <c r="AP13" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="AP13" s="4" t="s">
+      <c r="AQ13" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="AQ13" s="4" t="s">
+      <c r="AR13" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="AR13" s="13" t="s">
+      <c r="AS13" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="AS13" s="13" t="s">
+      <c r="AT13" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="AT13" s="13" t="s">
+      <c r="AU13" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="AU13" s="13" t="s">
+      <c r="AV13" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="AV13" s="13" t="s">
+      <c r="AW13" s="13" t="s">
         <v>615</v>
       </c>
-      <c r="AW13" s="13" t="s">
+      <c r="AX13" s="13" t="s">
         <v>616</v>
       </c>
-      <c r="AX13" s="13" t="s">
+      <c r="AY13" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="AY13" s="13" t="s">
+      <c r="AZ13" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="AZ13" s="13" t="s">
+      <c r="BA13" s="13" t="s">
         <v>619</v>
-      </c>
-      <c r="BA13" s="13" t="s">
-        <v>620</v>
       </c>
       <c r="BB13" s="13" t="s">
         <v>53</v>
       </c>
       <c r="BC13" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="BD13" s="13" t="s">
         <v>621</v>
       </c>
-      <c r="BD13" s="13" t="s">
+      <c r="BE13" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="BE13" s="13" t="s">
+      <c r="BF13" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="BF13" s="13" t="s">
+      <c r="BG13" s="13" t="s">
         <v>624</v>
       </c>
-      <c r="BG13" s="13" t="s">
+      <c r="BH13" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="BH13" s="13" t="s">
+      <c r="BI13" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="BI13" s="13" t="s">
+      <c r="BJ13" s="13" t="s">
         <v>627</v>
       </c>
-      <c r="BJ13" s="13" t="s">
+      <c r="BK13" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="BK13" s="13" t="s">
+      <c r="BL13" s="13" t="s">
         <v>629</v>
       </c>
-      <c r="BL13" s="13" t="s">
+      <c r="BM13" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="BM13" s="13" t="s">
+      <c r="BN13" s="13" t="s">
         <v>631</v>
       </c>
-      <c r="BN13" s="13" t="s">
+      <c r="BO13" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="BO13" s="5" t="s">
+      <c r="BP13" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="BP13" s="5" t="s">
+      <c r="BQ13" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="BQ13" s="5" t="s">
+      <c r="BR13" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="BR13" s="5" t="s">
+      <c r="BS13" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="BS13" s="5" t="s">
+      <c r="BT13" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="BT13" s="5" t="s">
+      <c r="BU13" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="BU13" s="5" t="s">
+      <c r="BV13" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="BV13" s="5" t="s">
+      <c r="BW13" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="BW13" s="4" t="s">
+      <c r="BX13" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="BX13" s="5" t="s">
+      <c r="BY13" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="BY13" s="5" t="s">
+      <c r="BZ13" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="BZ13" s="5" t="s">
+      <c r="CA13" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="CA13" s="1" t="s">
+      <c r="CB13" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="CB13" s="1" t="s">
+      <c r="CC13" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="CC13" s="1" t="s">
+      <c r="CD13" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="CD13" s="1" t="s">
+      <c r="CE13" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="CE13" s="1" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>650</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>651</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="18" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>117</v>
@@ -8840,7 +8837,7 @@
         <v>122</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>124</v>
@@ -8852,22 +8849,22 @@
         <v>126</v>
       </c>
       <c r="O14" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="P14" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="Q14" s="4" t="s">
+      <c r="R14" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="S14" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="S14" s="4" t="s">
-        <v>657</v>
-      </c>
       <c r="T14" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="U14" s="4" t="s">
         <v>133</v>
@@ -8879,160 +8876,160 @@
         <v>135</v>
       </c>
       <c r="X14" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y14" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="Y14" s="4" t="s">
+      <c r="Z14" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="Z14" s="4" t="s">
+      <c r="AA14" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="AA14" s="4" t="s">
+      <c r="AB14" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="AC14" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="AB14" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="AC14" s="4" t="s">
+      <c r="AD14" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="AD14" s="4" t="s">
+      <c r="AE14" s="4" t="s">
         <v>663</v>
-      </c>
-      <c r="AE14" s="4" t="s">
-        <v>664</v>
       </c>
       <c r="AF14" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AG14" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="AH14" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="AH14" s="4" t="s">
+      <c r="AI14" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="AI14" s="4" t="s">
+      <c r="AJ14" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="AJ14" s="4" t="s">
+      <c r="AK14" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="AK14" s="4" t="s">
+      <c r="AL14" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="AL14" s="4" t="s">
+      <c r="AM14" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="AM14" s="4" t="s">
+      <c r="AN14" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="AO14" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="AN14" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="AO14" s="4" t="s">
+      <c r="AP14" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="AP14" s="4" t="s">
+      <c r="AQ14" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="AQ14" s="4" t="s">
+      <c r="AR14" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="AS14" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="AR14" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="AS14" s="4" t="s">
+      <c r="AT14" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="AT14" s="4" t="s">
+      <c r="AU14" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="AU14" s="4" t="s">
+      <c r="AV14" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="AV14" s="4" t="s">
+      <c r="AW14" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="AW14" s="4" t="s">
+      <c r="AX14" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="AY14" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="AX14" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="AY14" s="4" t="s">
+      <c r="AZ14" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="AZ14" s="4" t="s">
+      <c r="BA14" s="4" t="s">
         <v>681</v>
-      </c>
-      <c r="BA14" s="4" t="s">
-        <v>682</v>
       </c>
       <c r="BB14" s="4" t="s">
         <v>53</v>
       </c>
       <c r="BC14" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="BD14" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="BD14" s="4" t="s">
+      <c r="BE14" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="BE14" s="4" t="s">
+      <c r="BF14" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="BF14" s="4" t="s">
+      <c r="BG14" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="BG14" s="4" t="s">
+      <c r="BH14" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="BH14" s="4" t="s">
+      <c r="BI14" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="BI14" s="4" t="s">
+      <c r="BJ14" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="BK14" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="BJ14" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="BK14" s="4" t="s">
+      <c r="BL14" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="BM14" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="BL14" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="BM14" s="4" t="s">
+      <c r="BN14" s="4" t="s">
         <v>691</v>
-      </c>
-      <c r="BN14" s="4" t="s">
-        <v>692</v>
       </c>
       <c r="BO14" s="4" t="s">
         <v>66</v>
       </c>
       <c r="BP14" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="BQ14" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="BQ14" s="4" t="s">
+      <c r="BR14" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="BR14" s="4" t="s">
+      <c r="BS14" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="BS14" s="4" t="s">
+      <c r="BT14" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="BT14" s="4" t="s">
+      <c r="BU14" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="BU14" s="4" t="s">
+      <c r="BV14" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="BV14" s="4" t="s">
+      <c r="BW14" s="4" t="s">
         <v>699</v>
-      </c>
-      <c r="BW14" s="4" t="s">
-        <v>700</v>
       </c>
       <c r="BX14" s="5" t="s">
         <v>186</v>
@@ -9041,37 +9038,37 @@
         <v>187</v>
       </c>
       <c r="BZ14" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="CA14" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="CA14" s="1" t="s">
+      <c r="CB14" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="CB14" s="1" t="s">
+      <c r="CC14" s="1" t="s">
         <v>703</v>
-      </c>
-      <c r="CC14" s="1" t="s">
-        <v>704</v>
       </c>
       <c r="CD14" s="1" t="s">
         <v>192</v>
       </c>
       <c r="CE14" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>706</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>707</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>118</v>
@@ -9080,19 +9077,19 @@
         <v>119</v>
       </c>
       <c r="H15" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>712</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>713</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>125</v>
@@ -9101,22 +9098,22 @@
         <v>126</v>
       </c>
       <c r="O15" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="P15" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="Q15" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="R15" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="S15" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="T15" s="4" t="s">
         <v>718</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>719</v>
       </c>
       <c r="U15" s="4" t="s">
         <v>133</v>
@@ -9128,160 +9125,160 @@
         <v>135</v>
       </c>
       <c r="X15" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="Y15" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="Y15" s="4" t="s">
+      <c r="Z15" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="Z15" s="4" t="s">
+      <c r="AA15" s="4" t="s">
         <v>722</v>
-      </c>
-      <c r="AA15" s="4" t="s">
-        <v>723</v>
       </c>
       <c r="AB15" s="4" t="s">
         <v>140</v>
       </c>
       <c r="AC15" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="AD15" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="AD15" s="4" t="s">
+      <c r="AE15" s="4" t="s">
         <v>725</v>
-      </c>
-      <c r="AE15" s="4" t="s">
-        <v>726</v>
       </c>
       <c r="AF15" s="4" t="s">
         <v>144</v>
       </c>
       <c r="AG15" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="AH15" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="AH15" s="4" t="s">
+      <c r="AI15" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="AI15" s="4" t="s">
+      <c r="AJ15" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="AJ15" s="4" t="s">
+      <c r="AK15" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="AK15" s="4" t="s">
+      <c r="AL15" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="AL15" s="4" t="s">
+      <c r="AM15" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="AN15" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="AM15" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="AN15" s="4" t="s">
+      <c r="AO15" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="AO15" s="4" t="s">
+      <c r="AP15" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="AP15" s="4" t="s">
+      <c r="AQ15" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="AQ15" s="4" t="s">
+      <c r="AR15" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="AS15" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="AR15" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="AS15" s="4" t="s">
+      <c r="AT15" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="AT15" s="4" t="s">
+      <c r="AU15" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="AU15" s="4" t="s">
+      <c r="AV15" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="AV15" s="4" t="s">
+      <c r="AW15" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="AW15" s="4" t="s">
+      <c r="AX15" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="AX15" s="4" t="s">
+      <c r="AY15" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="AY15" s="4" t="s">
+      <c r="AZ15" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="AZ15" s="4" t="s">
+      <c r="BA15" s="4" t="s">
         <v>744</v>
-      </c>
-      <c r="BA15" s="4" t="s">
-        <v>745</v>
       </c>
       <c r="BB15" s="4" t="s">
         <v>53</v>
       </c>
       <c r="BC15" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="BD15" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="BD15" s="4" t="s">
+      <c r="BE15" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="BE15" s="4" t="s">
+      <c r="BF15" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="BF15" s="4" t="s">
+      <c r="BG15" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="BG15" s="4" t="s">
+      <c r="BH15" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="BH15" s="4" t="s">
+      <c r="BI15" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="BI15" s="4" t="s">
+      <c r="BJ15" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="BJ15" s="4" t="s">
+      <c r="BK15" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="BK15" s="4" t="s">
+      <c r="BL15" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="BL15" s="4" t="s">
+      <c r="BM15" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="BM15" s="4" t="s">
+      <c r="BN15" s="4" t="s">
         <v>756</v>
-      </c>
-      <c r="BN15" s="4" t="s">
-        <v>757</v>
       </c>
       <c r="BO15" s="5" t="s">
         <v>66</v>
       </c>
       <c r="BP15" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="BQ15" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="BQ15" s="5" t="s">
+      <c r="BR15" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="BR15" s="5" t="s">
+      <c r="BS15" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="BS15" s="5" t="s">
+      <c r="BT15" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="BT15" s="5" t="s">
+      <c r="BU15" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="BU15" s="5" t="s">
+      <c r="BV15" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="BV15" s="5" t="s">
+      <c r="BW15" s="4" t="s">
         <v>764</v>
-      </c>
-      <c r="BW15" s="4" t="s">
-        <v>765</v>
       </c>
       <c r="BX15" s="5" t="s">
         <v>186</v>
@@ -9290,60 +9287,60 @@
         <v>187</v>
       </c>
       <c r="BZ15" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="CA15" s="10" t="s">
         <v>766</v>
       </c>
-      <c r="CA15" s="10" t="s">
+      <c r="CB15" s="10" t="s">
         <v>767</v>
       </c>
-      <c r="CB15" s="10" t="s">
+      <c r="CC15" s="10" t="s">
         <v>768</v>
       </c>
-      <c r="CC15" s="10" t="s">
+      <c r="CD15" s="10" t="s">
         <v>769</v>
       </c>
-      <c r="CD15" s="10" t="s">
+      <c r="CE15" s="10" t="s">
         <v>770</v>
-      </c>
-      <c r="CE15" s="10" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="19" t="s">
         <v>774</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="E16" s="6" t="s">
         <v>775</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>776</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>87</v>
       </c>
       <c r="G16" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="K16" s="6" t="s">
+      <c r="L16" s="6" t="s">
         <v>780</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>781</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>12</v>
@@ -9352,228 +9349,228 @@
         <v>13</v>
       </c>
       <c r="O16" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="P16" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="P16" s="6" t="s">
+      <c r="Q16" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="Q16" s="6" t="s">
+      <c r="R16" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="S16" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="S16" s="6" t="s">
+      <c r="T16" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="T16" s="6" t="s">
+      <c r="U16" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="U16" s="6" t="s">
+      <c r="V16" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="V16" s="6" t="s">
+      <c r="W16" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="W16" s="6" t="s">
+      <c r="X16" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="X16" s="6" t="s">
+      <c r="Y16" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="Y16" s="6" t="s">
+      <c r="Z16" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="Z16" s="6" t="s">
+      <c r="AA16" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="AA16" s="6" t="s">
+      <c r="AB16" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="AB16" s="6" t="s">
+      <c r="AC16" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="AC16" s="6" t="s">
+      <c r="AD16" s="6" t="s">
         <v>796</v>
       </c>
-      <c r="AD16" s="6" t="s">
+      <c r="AE16" s="6" t="s">
         <v>797</v>
-      </c>
-      <c r="AE16" s="6" t="s">
-        <v>798</v>
       </c>
       <c r="AF16" s="6" t="s">
         <v>31</v>
       </c>
       <c r="AG16" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="AH16" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="AH16" s="6" t="s">
+      <c r="AI16" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="AI16" s="6" t="s">
+      <c r="AJ16" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="AJ16" s="6" t="s">
+      <c r="AK16" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="AK16" s="6" t="s">
+      <c r="AL16" s="6" t="s">
         <v>803</v>
       </c>
-      <c r="AL16" s="6" t="s">
+      <c r="AM16" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="AM16" s="6" t="s">
+      <c r="AN16" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="AN16" s="6" t="s">
+      <c r="AO16" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="AO16" s="6" t="s">
+      <c r="AP16" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="AP16" s="6" t="s">
+      <c r="AQ16" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="AQ16" s="6" t="s">
+      <c r="AR16" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="AR16" s="6" t="s">
+      <c r="AS16" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="AS16" s="6" t="s">
+      <c r="AT16" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="AT16" s="6" t="s">
+      <c r="AU16" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="AU16" s="6" t="s">
+      <c r="AV16" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="AV16" s="6" t="s">
+      <c r="AW16" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="AW16" s="6" t="s">
+      <c r="AX16" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="AX16" s="6" t="s">
+      <c r="AY16" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="AY16" s="6" t="s">
+      <c r="AZ16" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="AZ16" s="6" t="s">
+      <c r="BA16" s="6" t="s">
         <v>818</v>
-      </c>
-      <c r="BA16" s="6" t="s">
-        <v>819</v>
       </c>
       <c r="BB16" s="6" t="s">
         <v>53</v>
       </c>
       <c r="BC16" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="BD16" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="BD16" s="6" t="s">
+      <c r="BE16" s="6" t="s">
         <v>821</v>
       </c>
-      <c r="BE16" s="6" t="s">
+      <c r="BF16" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="BF16" s="6" t="s">
+      <c r="BG16" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="BG16" s="6" t="s">
+      <c r="BH16" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="BH16" s="6" t="s">
+      <c r="BI16" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="BI16" s="6" t="s">
+      <c r="BJ16" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="BJ16" s="6" t="s">
+      <c r="BK16" s="6" t="s">
         <v>827</v>
       </c>
-      <c r="BK16" s="6" t="s">
+      <c r="BL16" s="6" t="s">
         <v>828</v>
       </c>
-      <c r="BL16" s="6" t="s">
+      <c r="BM16" s="6" t="s">
         <v>829</v>
       </c>
-      <c r="BM16" s="6" t="s">
+      <c r="BN16" s="6" t="s">
         <v>830</v>
-      </c>
-      <c r="BN16" s="6" t="s">
-        <v>831</v>
       </c>
       <c r="BO16" s="5" t="s">
         <v>66</v>
       </c>
       <c r="BP16" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="BQ16" s="5" t="s">
         <v>832</v>
       </c>
-      <c r="BQ16" s="5" t="s">
+      <c r="BR16" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="BR16" s="5" t="s">
+      <c r="BS16" s="5" t="s">
         <v>834</v>
       </c>
-      <c r="BS16" s="5" t="s">
+      <c r="BT16" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="BT16" s="5" t="s">
+      <c r="BU16" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="BV16" s="4" t="s">
         <v>836</v>
       </c>
-      <c r="BU16" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="BV16" s="4" t="s">
+      <c r="BW16" s="6" t="s">
         <v>837</v>
-      </c>
-      <c r="BW16" s="6" t="s">
-        <v>838</v>
       </c>
       <c r="BX16" s="5" t="s">
         <v>186</v>
       </c>
       <c r="BY16" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="BZ16" s="6" t="s">
         <v>839</v>
       </c>
-      <c r="BZ16" s="6" t="s">
+      <c r="CA16" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="CA16" s="1" t="s">
+      <c r="CB16" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="CB16" s="1" t="s">
+      <c r="CC16" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="CC16" s="1" t="s">
+      <c r="CD16" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="CD16" s="1" t="s">
+      <c r="CE16" s="1" t="s">
         <v>844</v>
-      </c>
-      <c r="CE16" s="1" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>845</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>846</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>846</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>774</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="20" t="s">
         <v>847</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>848</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>256</v>
@@ -9582,19 +9579,19 @@
         <v>6</v>
       </c>
       <c r="H17" s="21" t="s">
+        <v>848</v>
+      </c>
+      <c r="I17" s="21" t="s">
         <v>849</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="J17" s="21" t="s">
+        <v>849</v>
+      </c>
+      <c r="K17" s="21" t="s">
         <v>850</v>
       </c>
-      <c r="J17" s="21" t="s">
-        <v>850</v>
-      </c>
-      <c r="K17" s="21" t="s">
+      <c r="L17" s="21" t="s">
         <v>851</v>
-      </c>
-      <c r="L17" s="21" t="s">
-        <v>852</v>
       </c>
       <c r="M17" s="20" t="s">
         <v>257</v>
@@ -9612,7 +9609,7 @@
         <v>16</v>
       </c>
       <c r="R17" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="S17" s="20" t="s">
         <v>18</v>
@@ -9639,7 +9636,7 @@
         <v>25</v>
       </c>
       <c r="AA17" s="20" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AB17" s="20" t="s">
         <v>27</v>
@@ -9684,7 +9681,7 @@
         <v>40</v>
       </c>
       <c r="AP17" s="20" t="s">
-        <v>273</v>
+        <v>41</v>
       </c>
       <c r="AQ17" s="1" t="s">
         <v>43</v>
@@ -9696,7 +9693,7 @@
         <v>44</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AU17" s="1" t="s">
         <v>46</v>
@@ -9738,7 +9735,7 @@
         <v>58</v>
       </c>
       <c r="BH17" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BI17" s="1" t="s">
         <v>60</v>
@@ -9759,7 +9756,7 @@
         <v>65</v>
       </c>
       <c r="BO17" s="20" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="BP17" s="1" t="s">
         <v>67</v>
@@ -9774,34 +9771,34 @@
         <v>70</v>
       </c>
       <c r="BT17" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="BU17" s="20" t="s">
         <v>855</v>
       </c>
-      <c r="BU17" s="20" t="s">
+      <c r="BV17" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="BV17" s="1" t="s">
+      <c r="BW17" s="20" t="s">
         <v>857</v>
       </c>
-      <c r="BW17" s="20" t="s">
+      <c r="BX17" s="20" t="s">
         <v>858</v>
       </c>
-      <c r="BX17" s="20" t="s">
+      <c r="BY17" s="20" t="s">
         <v>859</v>
       </c>
-      <c r="BY17" s="20" t="s">
+      <c r="BZ17" s="20" t="s">
         <v>860</v>
       </c>
-      <c r="BZ17" s="20" t="s">
+      <c r="CA17" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="CA17" s="1" t="s">
+      <c r="CB17" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="CB17" s="1" t="s">
-        <v>863</v>
-      </c>
       <c r="CC17" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="CD17" s="1" t="s">
         <v>81</v>
@@ -9812,19 +9809,19 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19" t="s">
+        <v>863</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>864</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="C18" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>846</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>865</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>774</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>847</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>866</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>118</v>
@@ -9833,19 +9830,19 @@
         <v>119</v>
       </c>
       <c r="H18" s="22" t="s">
+        <v>866</v>
+      </c>
+      <c r="I18" s="19" t="s">
         <v>867</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="J18" s="19" t="s">
+        <v>867</v>
+      </c>
+      <c r="K18" s="22" t="s">
         <v>868</v>
       </c>
-      <c r="J18" s="19" t="s">
-        <v>868</v>
-      </c>
-      <c r="K18" s="22" t="s">
+      <c r="L18" s="22" t="s">
         <v>869</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>870</v>
       </c>
       <c r="M18" s="19" t="s">
         <v>125</v>
@@ -9854,228 +9851,228 @@
         <v>126</v>
       </c>
       <c r="O18" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="P18" s="19" t="s">
         <v>871</v>
       </c>
-      <c r="P18" s="19" t="s">
+      <c r="Q18" s="19" t="s">
         <v>872</v>
       </c>
-      <c r="Q18" s="19" t="s">
+      <c r="R18" s="19" t="s">
         <v>873</v>
       </c>
-      <c r="R18" s="19" t="s">
+      <c r="S18" s="19" t="s">
+        <v>656</v>
+      </c>
+      <c r="T18" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="U18" s="19" t="s">
         <v>874</v>
       </c>
-      <c r="S18" s="19" t="s">
-        <v>657</v>
-      </c>
-      <c r="T18" s="19" t="s">
-        <v>517</v>
-      </c>
-      <c r="U18" s="19" t="s">
+      <c r="V18" s="19" t="s">
         <v>875</v>
-      </c>
-      <c r="V18" s="19" t="s">
-        <v>876</v>
       </c>
       <c r="W18" s="19" t="s">
         <v>135</v>
       </c>
       <c r="X18" s="19" t="s">
+        <v>876</v>
+      </c>
+      <c r="Y18" s="19" t="s">
+        <v>658</v>
+      </c>
+      <c r="Z18" s="19" t="s">
         <v>877</v>
       </c>
-      <c r="Y18" s="19" t="s">
-        <v>659</v>
-      </c>
-      <c r="Z18" s="19" t="s">
+      <c r="AA18" s="19" t="s">
         <v>878</v>
       </c>
-      <c r="AA18" s="19" t="s">
+      <c r="AB18" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="AC18" s="19" t="s">
         <v>879</v>
       </c>
-      <c r="AB18" s="19" t="s">
-        <v>523</v>
-      </c>
-      <c r="AC18" s="19" t="s">
+      <c r="AD18" s="20" t="s">
+        <v>662</v>
+      </c>
+      <c r="AE18" s="19" t="s">
         <v>880</v>
-      </c>
-      <c r="AD18" s="20" t="s">
-        <v>663</v>
-      </c>
-      <c r="AE18" s="19" t="s">
-        <v>881</v>
       </c>
       <c r="AF18" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AG18" s="19" t="s">
+        <v>881</v>
+      </c>
+      <c r="AH18" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="AH18" s="19" t="s">
+      <c r="AI18" s="19" t="s">
         <v>883</v>
       </c>
-      <c r="AI18" s="19" t="s">
+      <c r="AJ18" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="AK18" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="AJ18" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="AK18" s="1" t="s">
+      <c r="AL18" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="AL18" s="1" t="s">
+      <c r="AM18" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="AO18" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="AM18" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="AN18" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="AO18" s="1" t="s">
+      <c r="AP18" s="19" t="s">
         <v>887</v>
       </c>
-      <c r="AP18" s="19" t="s">
+      <c r="AQ18" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="AQ18" s="1" t="s">
+      <c r="AR18" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS18" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="AR18" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="AS18" s="1" t="s">
+      <c r="AT18" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="AT18" s="1" t="s">
+      <c r="AU18" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="AV18" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="AU18" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="AV18" s="1" t="s">
+      <c r="AW18" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="AW18" s="1" t="s">
+      <c r="AX18" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="AY18" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="AZ18" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="AX18" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="AY18" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="AZ18" s="1" t="s">
+      <c r="BA18" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="BB18" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="BA18" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="BB18" s="1" t="s">
+      <c r="BC18" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="BC18" s="1" t="s">
+      <c r="BD18" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="BE18" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="BD18" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="BE18" s="1" t="s">
+      <c r="BF18" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="BG18" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="BH18" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="BF18" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="BG18" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="BH18" s="1" t="s">
+      <c r="BI18" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="BI18" s="1" t="s">
+      <c r="BJ18" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="BJ18" s="1" t="s">
+      <c r="BK18" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="BK18" s="1" t="s">
+      <c r="BL18" s="1" t="s">
         <v>901</v>
-      </c>
-      <c r="BL18" s="1" t="s">
-        <v>902</v>
       </c>
       <c r="BM18" s="1" t="s">
         <v>64</v>
       </c>
       <c r="BN18" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="BO18" s="20" t="s">
         <v>66</v>
       </c>
       <c r="BP18" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="BQ18" s="1" t="s">
         <v>904</v>
-      </c>
-      <c r="BQ18" s="1" t="s">
-        <v>905</v>
       </c>
       <c r="BR18" s="1" t="s">
         <v>69</v>
       </c>
       <c r="BS18" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="BT18" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="BT18" s="1" t="s">
+      <c r="BU18" s="19" t="s">
         <v>907</v>
       </c>
-      <c r="BU18" s="19" t="s">
+      <c r="BV18" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="BW18" s="19" t="s">
         <v>908</v>
       </c>
-      <c r="BV18" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="BW18" s="19" t="s">
+      <c r="BX18" s="19" t="s">
         <v>909</v>
       </c>
-      <c r="BX18" s="19" t="s">
+      <c r="BY18" s="19" t="s">
         <v>910</v>
       </c>
-      <c r="BY18" s="19" t="s">
+      <c r="BZ18" s="19" t="s">
         <v>911</v>
       </c>
-      <c r="BZ18" s="19" t="s">
+      <c r="CA18" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="CA18" s="1" t="s">
+      <c r="CB18" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="CB18" s="1" t="s">
+      <c r="CC18" s="1" t="s">
         <v>914</v>
-      </c>
-      <c r="CC18" s="1" t="s">
-        <v>915</v>
       </c>
       <c r="CD18" s="1" t="s">
         <v>81</v>
       </c>
       <c r="CE18" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="s">
+        <v>916</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>917</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>918</v>
-      </c>
       <c r="C19" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D19" s="19" t="s">
+        <v>846</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>847</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>848</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>87</v>
@@ -10084,22 +10081,22 @@
         <v>6</v>
       </c>
       <c r="H19" s="23" t="s">
+        <v>848</v>
+      </c>
+      <c r="I19" s="23" t="s">
         <v>849</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="J19" s="23" t="s">
+        <v>849</v>
+      </c>
+      <c r="K19" s="21" t="s">
         <v>850</v>
       </c>
-      <c r="J19" s="23" t="s">
-        <v>850</v>
-      </c>
-      <c r="K19" s="21" t="s">
+      <c r="L19" s="21" t="s">
         <v>851</v>
       </c>
-      <c r="L19" s="21" t="s">
-        <v>852</v>
-      </c>
       <c r="M19" s="19" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="N19" s="19" t="s">
         <v>13</v>
@@ -10132,25 +10129,25 @@
         <v>22</v>
       </c>
       <c r="X19" s="19" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>262</v>
       </c>
       <c r="Z19" s="19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AA19" s="19" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AB19" s="19" t="s">
         <v>27</v>
       </c>
       <c r="AC19" s="19" t="s">
+        <v>921</v>
+      </c>
+      <c r="AD19" s="19" t="s">
         <v>922</v>
-      </c>
-      <c r="AD19" s="19" t="s">
-        <v>923</v>
       </c>
       <c r="AE19" s="20" t="s">
         <v>30</v>
@@ -10162,7 +10159,7 @@
         <v>32</v>
       </c>
       <c r="AH19" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AI19" s="20" t="s">
         <v>34</v>
@@ -10171,13 +10168,13 @@
         <v>33</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AL19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AM19" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AN19" s="1" t="s">
         <v>39</v>
@@ -10198,7 +10195,7 @@
         <v>43</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AU19" s="1" t="s">
         <v>46</v>
@@ -10225,10 +10222,10 @@
         <v>53</v>
       </c>
       <c r="BC19" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="BD19" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="BE19" s="1" t="s">
         <v>229</v>
@@ -10240,10 +10237,10 @@
         <v>58</v>
       </c>
       <c r="BH19" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BI19" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="BJ19" s="1" t="s">
         <v>61</v>
@@ -10264,49 +10261,49 @@
         <v>66</v>
       </c>
       <c r="BP19" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="BQ19" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="BQ19" s="1" t="s">
+      <c r="BR19" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="BR19" s="1" t="s">
+      <c r="BS19" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="BS19" s="1" t="s">
+      <c r="BT19" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="BT19" s="1" t="s">
+      <c r="BU19" s="20" t="s">
         <v>933</v>
       </c>
-      <c r="BU19" s="20" t="s">
+      <c r="BV19" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="BW19" s="19" t="s">
         <v>934</v>
       </c>
-      <c r="BV19" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="BW19" s="19" t="s">
+      <c r="BX19" s="20" t="s">
         <v>935</v>
       </c>
-      <c r="BX19" s="20" t="s">
+      <c r="BY19" s="20" t="s">
         <v>936</v>
       </c>
-      <c r="BY19" s="20" t="s">
+      <c r="BZ19" s="19" t="s">
         <v>937</v>
       </c>
-      <c r="BZ19" s="19" t="s">
+      <c r="CA19" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="CA19" s="1" t="s">
+      <c r="CB19" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="CB19" s="1" t="s">
+      <c r="CC19" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="CD19" s="1" t="s">
         <v>940</v>
-      </c>
-      <c r="CC19" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="CD19" s="1" t="s">
-        <v>941</v>
       </c>
       <c r="CE19" s="1" t="s">
         <v>82</v>
@@ -10314,56 +10311,56 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="s">
+        <v>941</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>942</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>943</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E20" s="20" t="s">
+        <v>943</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>944</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="G20" s="20" t="s">
         <v>945</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="H20" s="18" t="s">
         <v>946</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="I20" s="18" t="s">
         <v>947</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="J20" s="18" t="s">
         <v>948</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="K20" s="18" t="s">
         <v>949</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="L20" s="20" t="s">
         <v>950</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="M20" s="20" t="s">
         <v>951</v>
       </c>
-      <c r="M20" s="20" t="s">
+      <c r="N20" s="20" t="s">
         <v>952</v>
       </c>
-      <c r="N20" s="20" t="s">
+      <c r="O20" s="18" t="s">
         <v>953</v>
       </c>
-      <c r="O20" s="18" t="s">
+      <c r="P20" s="18" t="s">
         <v>954</v>
       </c>
-      <c r="P20" s="18" t="s">
+      <c r="Q20" s="20" t="s">
         <v>955</v>
       </c>
-      <c r="Q20" s="20" t="s">
-        <v>956</v>
-      </c>
       <c r="R20" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="S20" s="20" t="s">
         <v>18</v>
@@ -10372,193 +10369,193 @@
         <v>19</v>
       </c>
       <c r="U20" s="20" t="s">
+        <v>956</v>
+      </c>
+      <c r="V20" s="20" t="s">
         <v>957</v>
       </c>
-      <c r="V20" s="20" t="s">
+      <c r="W20" s="20" t="s">
         <v>958</v>
       </c>
-      <c r="W20" s="20" t="s">
+      <c r="X20" s="20" t="s">
         <v>959</v>
       </c>
-      <c r="X20" s="20" t="s">
+      <c r="Y20" s="18" t="s">
         <v>960</v>
       </c>
-      <c r="Y20" s="18" t="s">
+      <c r="Z20" s="18" t="s">
         <v>961</v>
       </c>
-      <c r="Z20" s="18" t="s">
+      <c r="AA20" s="20" t="s">
         <v>962</v>
       </c>
-      <c r="AA20" s="20" t="s">
+      <c r="AB20" s="20" t="s">
         <v>963</v>
       </c>
-      <c r="AB20" s="20" t="s">
+      <c r="AC20" s="20" t="s">
         <v>964</v>
       </c>
-      <c r="AC20" s="20" t="s">
+      <c r="AD20" s="20" t="s">
         <v>965</v>
       </c>
-      <c r="AD20" s="20" t="s">
+      <c r="AE20" s="20" t="s">
         <v>966</v>
-      </c>
-      <c r="AE20" s="20" t="s">
-        <v>967</v>
       </c>
       <c r="AF20" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AG20" s="20" t="s">
+        <v>967</v>
+      </c>
+      <c r="AH20" s="20" t="s">
         <v>968</v>
       </c>
-      <c r="AH20" s="20" t="s">
+      <c r="AI20" s="20" t="s">
         <v>969</v>
       </c>
-      <c r="AI20" s="20" t="s">
+      <c r="AJ20" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="AJ20" s="1" t="s">
+      <c r="AK20" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="AK20" s="1" t="s">
+      <c r="AL20" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="AL20" s="1" t="s">
+      <c r="AM20" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="AM20" s="1" t="s">
+      <c r="AN20" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="AN20" s="1" t="s">
+      <c r="AO20" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="AO20" s="1" t="s">
+      <c r="AP20" s="20" t="s">
         <v>976</v>
       </c>
-      <c r="AP20" s="20" t="s">
+      <c r="AQ20" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="AQ20" s="1" t="s">
+      <c r="AR20" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="AR20" s="1" t="s">
+      <c r="AS20" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="AS20" s="1" t="s">
+      <c r="AT20" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="AT20" s="1" t="s">
+      <c r="AU20" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="AU20" s="1" t="s">
+      <c r="AV20" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="AV20" s="1" t="s">
+      <c r="AW20" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="AW20" s="1" t="s">
+      <c r="AX20" s="1" t="s">
         <v>984</v>
-      </c>
-      <c r="AX20" s="1" t="s">
-        <v>985</v>
       </c>
       <c r="AY20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AZ20" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="BA20" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="BB20" s="1" t="s">
         <v>53</v>
       </c>
       <c r="BC20" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="BD20" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="BD20" s="1" t="s">
+      <c r="BE20" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="BE20" s="1" t="s">
+      <c r="BF20" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="BF20" s="1" t="s">
+      <c r="BG20" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="BG20" s="1" t="s">
+      <c r="BH20" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="BH20" s="1" t="s">
+      <c r="BI20" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="BI20" s="1" t="s">
+      <c r="BJ20" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="BJ20" s="1" t="s">
+      <c r="BK20" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="BK20" s="1" t="s">
+      <c r="BL20" s="1" t="s">
         <v>995</v>
-      </c>
-      <c r="BL20" s="1" t="s">
-        <v>996</v>
       </c>
       <c r="BM20" s="1" t="s">
         <v>64</v>
       </c>
       <c r="BN20" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="BO20" s="20" t="s">
         <v>997</v>
       </c>
-      <c r="BO20" s="20" t="s">
+      <c r="BP20" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="BP20" s="1" t="s">
+      <c r="BQ20" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="BQ20" s="1" t="s">
+      <c r="BR20" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="BR20" s="1" t="s">
+      <c r="BS20" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="BS20" s="1" t="s">
+      <c r="BT20" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="BT20" s="1" t="s">
+      <c r="BU20" s="20" t="s">
         <v>1003</v>
       </c>
-      <c r="BU20" s="20" t="s">
+      <c r="BV20" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="BV20" s="1" t="s">
+      <c r="BW20" s="21" t="s">
         <v>1005</v>
       </c>
-      <c r="BW20" s="21" t="s">
+      <c r="BX20" s="20" t="s">
         <v>1006</v>
       </c>
-      <c r="BX20" s="20" t="s">
+      <c r="BY20" s="20" t="s">
         <v>1007</v>
       </c>
-      <c r="BY20" s="20" t="s">
+      <c r="BZ20" s="20" t="s">
         <v>1008</v>
       </c>
-      <c r="BZ20" s="20" t="s">
+      <c r="CA20" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="CA20" s="1" t="s">
+      <c r="CB20" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="CB20" s="1" t="s">
+      <c r="CC20" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="CC20" s="1" t="s">
+      <c r="CD20" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="CD20" s="1" t="s">
+      <c r="CE20" s="1" t="s">
         <v>1013</v>
-      </c>
-      <c r="CE20" s="1" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
